--- a/docs/files/分词.xlsx
+++ b/docs/files/分词.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weiqiqi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\program\node\himalaya-source-code\docs\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="269">
   <si>
     <r>
       <rPr>
@@ -1343,6 +1343,38 @@
       </rPr>
       <t>0</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>147</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>149</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>165</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1482,7 +1514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1766,13 +1798,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1817,12 +1864,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1946,6 +1987,24 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2329,7 +2388,7 @@
       <c r="B2" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3167,18 +3226,18 @@
     </row>
     <row r="15" spans="1:32" ht="27.75" customHeight="1">
       <c r="A15" s="15"/>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
@@ -9503,16 +9562,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AK245"/>
+  <dimension ref="B1:AK246"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:AL30"/>
+      <selection activeCell="O103" sqref="O103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="34" width="5" customWidth="1"/>
-    <col min="35" max="35" width="6.5" customWidth="1"/>
+    <col min="35" max="35" width="9.296875" customWidth="1"/>
     <col min="36" max="36" width="13.5" customWidth="1"/>
     <col min="38" max="46" width="5" customWidth="1"/>
   </cols>
@@ -9607,19 +9666,19 @@
       <c r="AE2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="26" t="s">
+      <c r="AF2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="25" t="s">
+      <c r="AG2" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="AI2" s="22" t="s">
+      <c r="AI2" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="AJ2" s="22" t="s">
+      <c r="AJ2" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="AK2" s="22" t="s">
+      <c r="AK2" s="20" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9627,27 +9686,27 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="21"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="19"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
@@ -9656,15 +9715,15 @@
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="30"/>
-      <c r="AI3" s="23">
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="28"/>
+      <c r="AI3" s="21">
         <v>20</v>
       </c>
-      <c r="AJ3" s="23">
+      <c r="AJ3" s="21">
         <v>1</v>
       </c>
-      <c r="AK3" s="23">
+      <c r="AK3" s="21">
         <f>AI3+AJ3</f>
         <v>21</v>
       </c>
@@ -9673,44 +9732,44 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="31"/>
-      <c r="AI4" s="23">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="29"/>
+      <c r="AI4" s="21">
         <v>28</v>
       </c>
-      <c r="AJ4" s="23">
+      <c r="AJ4" s="21">
         <v>1</v>
       </c>
-      <c r="AK4" s="23">
+      <c r="AK4" s="21">
         <f t="shared" ref="AK4:AK13" si="0">AI4+AJ4</f>
         <v>29</v>
       </c>
@@ -9719,13 +9778,13 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -9748,15 +9807,15 @@
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
       <c r="AE5" s="6"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="31"/>
-      <c r="AI5" s="23">
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="29"/>
+      <c r="AI5" s="21">
         <v>6</v>
       </c>
-      <c r="AJ5" s="23">
+      <c r="AJ5" s="21">
         <v>1</v>
       </c>
-      <c r="AK5" s="23">
+      <c r="AK5" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -9765,15 +9824,15 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -9794,15 +9853,15 @@
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
       <c r="AE6" s="6"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="31"/>
-      <c r="AI6" s="23">
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="29"/>
+      <c r="AI6" s="21">
         <v>8</v>
       </c>
-      <c r="AJ6" s="23">
+      <c r="AJ6" s="21">
         <v>1</v>
       </c>
-      <c r="AK6" s="23">
+      <c r="AK6" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -9811,44 +9870,44 @@
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="33"/>
-      <c r="AI7" s="23">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="31"/>
+      <c r="AI7" s="21">
         <v>30</v>
       </c>
-      <c r="AJ7" s="23">
+      <c r="AJ7" s="21">
         <v>1</v>
       </c>
-      <c r="AK7" s="23">
+      <c r="AK7" s="21">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -9857,16 +9916,16 @@
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="19"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -9886,15 +9945,15 @@
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
       <c r="AE8" s="6"/>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="31"/>
-      <c r="AI8" s="23">
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="29"/>
+      <c r="AI8" s="21">
         <v>9</v>
       </c>
-      <c r="AJ8" s="23">
+      <c r="AJ8" s="21">
         <v>1</v>
       </c>
-      <c r="AK8" s="23">
+      <c r="AK8" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -9903,15 +9962,15 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -9932,15 +9991,15 @@
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
       <c r="AE9" s="6"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="31"/>
-      <c r="AI9" s="23">
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="29"/>
+      <c r="AI9" s="21">
         <v>8</v>
       </c>
-      <c r="AJ9" s="23">
+      <c r="AJ9" s="21">
         <v>1</v>
       </c>
-      <c r="AK9" s="23">
+      <c r="AK9" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -9949,44 +10008,44 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="33"/>
-      <c r="AI10" s="23">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="31"/>
+      <c r="AI10" s="21">
         <v>30</v>
       </c>
-      <c r="AJ10" s="23">
+      <c r="AJ10" s="21">
         <v>1</v>
       </c>
-      <c r="AK10" s="23">
+      <c r="AK10" s="21">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -9995,16 +10054,16 @@
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="19"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -10024,15 +10083,15 @@
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
       <c r="AE11" s="6"/>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="31"/>
-      <c r="AI11" s="23">
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="29"/>
+      <c r="AI11" s="21">
         <v>9</v>
       </c>
-      <c r="AJ11" s="23">
+      <c r="AJ11" s="21">
         <v>1</v>
       </c>
-      <c r="AK11" s="23">
+      <c r="AK11" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -10041,14 +10100,14 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="19"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -10070,15 +10129,15 @@
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
       <c r="AE12" s="6"/>
-      <c r="AF12" s="27"/>
-      <c r="AG12" s="31"/>
-      <c r="AI12" s="23">
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="29"/>
+      <c r="AI12" s="21">
         <v>7</v>
       </c>
-      <c r="AJ12" s="23">
+      <c r="AJ12" s="21">
         <v>1</v>
       </c>
-      <c r="AK12" s="23">
+      <c r="AK12" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -10087,13 +10146,13 @@
       <c r="B13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="34"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="32"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
@@ -10116,15 +10175,15 @@
       <c r="AC13" s="12"/>
       <c r="AD13" s="12"/>
       <c r="AE13" s="12"/>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="32"/>
-      <c r="AI13" s="23">
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="30"/>
+      <c r="AI13" s="21">
         <v>6</v>
       </c>
-      <c r="AJ13" s="23">
+      <c r="AJ13" s="21">
         <v>1</v>
       </c>
-      <c r="AK13" s="23">
+      <c r="AK13" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -10222,19 +10281,19 @@
       <c r="AE18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AF18" s="26" t="s">
+      <c r="AF18" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AG18" s="55" t="s">
+      <c r="AG18" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="AI18" s="22" t="s">
+      <c r="AI18" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="AJ18" s="22" t="s">
+      <c r="AJ18" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="AK18" s="22" t="s">
+      <c r="AK18" s="58" t="s">
         <v>253</v>
       </c>
     </row>
@@ -10242,82 +10301,82 @@
       <c r="B19" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37" t="s">
+      <c r="G19" s="35"/>
+      <c r="H19" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="37" t="s">
+      <c r="I19" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="37" t="s">
+      <c r="J19" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="37" t="s">
+      <c r="K19" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="L19" s="37" t="s">
+      <c r="L19" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="M19" s="37" t="s">
+      <c r="M19" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="N19" s="37" t="s">
+      <c r="N19" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="O19" s="37" t="s">
+      <c r="O19" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="P19" s="37" t="s">
+      <c r="P19" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="Q19" s="37" t="s">
+      <c r="Q19" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="R19" s="37" t="s">
+      <c r="R19" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="S19" s="37" t="s">
+      <c r="S19" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="T19" s="37" t="s">
+      <c r="T19" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="U19" s="37" t="s">
+      <c r="U19" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="V19" s="37" t="s">
+      <c r="V19" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="W19" s="54"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="50"/>
-      <c r="AI19" s="23">
+      <c r="W19" s="52"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="45"/>
+      <c r="AG19" s="48"/>
+      <c r="AI19" s="59">
         <v>20</v>
       </c>
-      <c r="AJ19" s="23">
+      <c r="AJ19" s="59">
         <v>1</v>
       </c>
-      <c r="AK19" s="23">
+      <c r="AK19" s="59">
         <f>AI19+AJ19</f>
         <v>21</v>
       </c>
@@ -10326,94 +10385,94 @@
       <c r="B20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="37" t="s">
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37" t="s">
+      <c r="G20" s="35"/>
+      <c r="H20" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="37" t="s">
+      <c r="I20" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="37" t="s">
+      <c r="J20" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="K20" s="37" t="s">
+      <c r="K20" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="L20" s="37" t="s">
+      <c r="L20" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="M20" s="37" t="s">
+      <c r="M20" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N20" s="37" t="s">
+      <c r="N20" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="O20" s="37" t="s">
+      <c r="O20" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="P20" s="37" t="s">
+      <c r="P20" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="Q20" s="37" t="s">
+      <c r="Q20" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="R20" s="37" t="s">
+      <c r="R20" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="S20" s="37" t="s">
+      <c r="S20" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="T20" s="37" t="s">
+      <c r="T20" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="U20" s="37" t="s">
+      <c r="U20" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="V20" s="37" t="s">
+      <c r="V20" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="W20" s="37" t="s">
+      <c r="W20" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="X20" s="37" t="s">
+      <c r="X20" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Y20" s="37" t="s">
+      <c r="Y20" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z20" s="39" t="s">
+      <c r="Z20" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="AA20" s="37" t="s">
+      <c r="AA20" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="AB20" s="37" t="s">
+      <c r="AB20" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="AC20" s="37" t="s">
+      <c r="AC20" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="AD20" s="37" t="s">
+      <c r="AD20" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="AE20" s="54"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="51"/>
-      <c r="AI20" s="23">
+      <c r="AE20" s="52"/>
+      <c r="AF20" s="45"/>
+      <c r="AG20" s="49"/>
+      <c r="AI20" s="59">
         <v>28</v>
       </c>
-      <c r="AJ20" s="23">
+      <c r="AJ20" s="59">
         <v>1</v>
       </c>
-      <c r="AK20" s="23">
+      <c r="AK20" s="59">
         <f t="shared" ref="AK20:AK29" si="1">AI20+AJ20</f>
         <v>29</v>
       </c>
@@ -10422,52 +10481,52 @@
       <c r="B21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="37" t="s">
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="H21" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="54"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
-      <c r="AE21" s="38"/>
-      <c r="AF21" s="47"/>
-      <c r="AG21" s="51"/>
-      <c r="AI21" s="23">
+      <c r="I21" s="52"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="45"/>
+      <c r="AG21" s="49"/>
+      <c r="AI21" s="59">
         <v>6</v>
       </c>
-      <c r="AJ21" s="23">
+      <c r="AJ21" s="59">
         <v>1</v>
       </c>
-      <c r="AK21" s="23">
+      <c r="AK21" s="59">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -10476,52 +10535,52 @@
       <c r="B22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="37" t="s">
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="37" t="s">
+      <c r="H22" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="I22" s="37" t="s">
+      <c r="I22" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="37" t="s">
+      <c r="J22" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="K22" s="54"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="38"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="38"/>
-      <c r="AF22" s="47"/>
-      <c r="AG22" s="51"/>
-      <c r="AI22" s="23">
+      <c r="K22" s="52"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="45"/>
+      <c r="AG22" s="49"/>
+      <c r="AI22" s="59">
         <v>8</v>
       </c>
-      <c r="AJ22" s="23">
+      <c r="AJ22" s="59">
         <v>1</v>
       </c>
-      <c r="AK22" s="23">
+      <c r="AK22" s="59">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -10530,90 +10589,90 @@
       <c r="B23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="37" t="s">
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="37" t="s">
+      <c r="J23" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37" t="s">
+      <c r="K23" s="35"/>
+      <c r="L23" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="M23" s="37" t="s">
+      <c r="M23" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="N23" s="37" t="s">
+      <c r="N23" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="O23" s="37" t="s">
+      <c r="O23" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="P23" s="37" t="s">
+      <c r="P23" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="Q23" s="37" t="s">
+      <c r="Q23" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="R23" s="37" t="s">
+      <c r="R23" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="S23" s="37" t="s">
+      <c r="S23" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="T23" s="37" t="s">
+      <c r="T23" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="U23" s="37" t="s">
+      <c r="U23" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="V23" s="37" t="s">
+      <c r="V23" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="W23" s="37" t="s">
+      <c r="W23" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="X23" s="37" t="s">
+      <c r="X23" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="Y23" s="37" t="s">
+      <c r="Y23" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="Z23" s="37" t="s">
+      <c r="Z23" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="AA23" s="39" t="s">
+      <c r="AA23" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="AB23" s="39" t="s">
+      <c r="AB23" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="AC23" s="37" t="s">
+      <c r="AC23" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="AD23" s="37" t="s">
+      <c r="AD23" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="AE23" s="37" t="s">
+      <c r="AE23" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="AF23" s="48" t="s">
+      <c r="AF23" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="AG23" s="56"/>
-      <c r="AI23" s="23">
+      <c r="AG23" s="54"/>
+      <c r="AI23" s="59">
         <v>30</v>
       </c>
-      <c r="AJ23" s="23">
+      <c r="AJ23" s="59">
         <v>1</v>
       </c>
-      <c r="AK23" s="23">
+      <c r="AK23" s="59">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
@@ -10622,54 +10681,54 @@
       <c r="B24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="37" t="s">
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="37" t="s">
+      <c r="H24" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="37" t="s">
+      <c r="I24" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="J24" s="37" t="s">
+      <c r="J24" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="37" t="s">
+      <c r="K24" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="L24" s="54"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="38"/>
-      <c r="AF24" s="47"/>
-      <c r="AG24" s="51"/>
-      <c r="AI24" s="23">
+      <c r="L24" s="52"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="45"/>
+      <c r="AG24" s="49"/>
+      <c r="AI24" s="59">
         <v>9</v>
       </c>
-      <c r="AJ24" s="23">
+      <c r="AJ24" s="59">
         <v>1</v>
       </c>
-      <c r="AK24" s="23">
+      <c r="AK24" s="59">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -10678,52 +10737,52 @@
       <c r="B25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="37" t="s">
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="37" t="s">
+      <c r="H25" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="I25" s="37" t="s">
+      <c r="I25" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="37" t="s">
+      <c r="J25" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="54"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="38"/>
-      <c r="AB25" s="38"/>
-      <c r="AC25" s="38"/>
-      <c r="AD25" s="38"/>
-      <c r="AE25" s="38"/>
-      <c r="AF25" s="47"/>
-      <c r="AG25" s="51"/>
-      <c r="AI25" s="23">
+      <c r="K25" s="52"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="45"/>
+      <c r="AG25" s="49"/>
+      <c r="AI25" s="59">
         <v>8</v>
       </c>
-      <c r="AJ25" s="23">
+      <c r="AJ25" s="59">
         <v>1</v>
       </c>
-      <c r="AK25" s="23">
+      <c r="AK25" s="59">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -10732,90 +10791,90 @@
       <c r="B26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="37" t="s">
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="37" t="s">
+      <c r="J26" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37" t="s">
+      <c r="K26" s="35"/>
+      <c r="L26" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="M26" s="37" t="s">
+      <c r="M26" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="N26" s="37" t="s">
+      <c r="N26" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="O26" s="37" t="s">
+      <c r="O26" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="P26" s="37" t="s">
+      <c r="P26" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="Q26" s="37" t="s">
+      <c r="Q26" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="R26" s="37" t="s">
+      <c r="R26" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="S26" s="37" t="s">
+      <c r="S26" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="T26" s="37" t="s">
+      <c r="T26" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="U26" s="37" t="s">
+      <c r="U26" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="V26" s="37" t="s">
+      <c r="V26" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="W26" s="37" t="s">
+      <c r="W26" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="X26" s="37" t="s">
+      <c r="X26" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="Y26" s="37" t="s">
+      <c r="Y26" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="Z26" s="37" t="s">
+      <c r="Z26" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="AA26" s="39" t="s">
+      <c r="AA26" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AB26" s="39" t="s">
+      <c r="AB26" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="AC26" s="37" t="s">
+      <c r="AC26" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="AD26" s="37" t="s">
+      <c r="AD26" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="AE26" s="37" t="s">
+      <c r="AE26" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="AF26" s="48" t="s">
+      <c r="AF26" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="AG26" s="56"/>
-      <c r="AI26" s="23">
+      <c r="AG26" s="54"/>
+      <c r="AI26" s="59">
         <v>30</v>
       </c>
-      <c r="AJ26" s="23">
+      <c r="AJ26" s="59">
         <v>1</v>
       </c>
-      <c r="AK26" s="23">
+      <c r="AK26" s="59">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
@@ -10824,54 +10883,54 @@
       <c r="B27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="37" t="s">
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="37" t="s">
+      <c r="H27" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="37" t="s">
+      <c r="I27" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="J27" s="37" t="s">
+      <c r="J27" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="K27" s="37" t="s">
+      <c r="K27" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="L27" s="54"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="40"/>
-      <c r="AB27" s="40"/>
-      <c r="AC27" s="38"/>
-      <c r="AD27" s="38"/>
-      <c r="AE27" s="38"/>
-      <c r="AF27" s="47"/>
-      <c r="AG27" s="51"/>
-      <c r="AI27" s="23">
+      <c r="L27" s="52"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="38"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="45"/>
+      <c r="AG27" s="49"/>
+      <c r="AI27" s="59">
         <v>9</v>
       </c>
-      <c r="AJ27" s="23">
+      <c r="AJ27" s="59">
         <v>1</v>
       </c>
-      <c r="AK27" s="23">
+      <c r="AK27" s="59">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -10880,54 +10939,54 @@
       <c r="B28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="37" t="s">
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="41" t="s">
+      <c r="F28" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="37" t="s">
+      <c r="H28" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="I28" s="37" t="s">
+      <c r="I28" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="J28" s="54"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38"/>
-      <c r="AB28" s="38"/>
-      <c r="AC28" s="38"/>
-      <c r="AD28" s="38"/>
-      <c r="AE28" s="38"/>
-      <c r="AF28" s="47"/>
-      <c r="AG28" s="51"/>
-      <c r="AI28" s="23">
+      <c r="J28" s="52"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="45"/>
+      <c r="AG28" s="49"/>
+      <c r="AI28" s="59">
         <v>7</v>
       </c>
-      <c r="AJ28" s="23">
+      <c r="AJ28" s="59">
         <v>1</v>
       </c>
-      <c r="AK28" s="23">
+      <c r="AK28" s="59">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -10936,411 +10995,373 @@
       <c r="B29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="42" t="s">
+      <c r="F29" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="42" t="s">
+      <c r="G29" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="42" t="s">
+      <c r="H29" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="I29" s="57"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="44"/>
-      <c r="AA29" s="44"/>
-      <c r="AB29" s="44"/>
-      <c r="AC29" s="44"/>
-      <c r="AD29" s="44"/>
-      <c r="AE29" s="44"/>
-      <c r="AF29" s="49"/>
-      <c r="AG29" s="52"/>
-      <c r="AI29" s="23">
+      <c r="I29" s="55"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
+      <c r="AA29" s="42"/>
+      <c r="AB29" s="42"/>
+      <c r="AC29" s="42"/>
+      <c r="AD29" s="42"/>
+      <c r="AE29" s="42"/>
+      <c r="AF29" s="47"/>
+      <c r="AG29" s="50"/>
+      <c r="AI29" s="59">
         <v>6</v>
       </c>
-      <c r="AJ29" s="23">
+      <c r="AJ29" s="59">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="59">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:37" ht="29.4" customHeight="1" thickTop="1">
+      <c r="AI30" s="60">
+        <f>SUM(AI19:AI29)</f>
+        <v>161</v>
+      </c>
+      <c r="AJ30" s="60">
+        <f>SUM(AJ19:AJ29)</f>
+        <v>10</v>
+      </c>
+      <c r="AK30" s="61">
+        <f>SUM(AK19:AK29)</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="2:37" ht="29.4" customHeight="1">
+      <c r="AK31" s="21"/>
+    </row>
+    <row r="32" spans="2:37" ht="29.4" customHeight="1" thickBot="1"/>
+    <row r="33" spans="2:33" ht="29.4" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B33" s="2"/>
+      <c r="C33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AK29" s="23">
-        <f t="shared" si="1"/>
+      <c r="E33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="2:37" ht="29.4" customHeight="1" thickTop="1"/>
-    <row r="31" spans="2:37" ht="29.4" customHeight="1" thickBot="1"/>
-    <row r="32" spans="2:37" ht="29.4" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B32" s="2"/>
-      <c r="C32" s="3" t="s">
+      <c r="K33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF33" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG33" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="2:33" ht="29.4" customHeight="1" thickTop="1">
+      <c r="B34" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF32" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG32" s="25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="33" spans="2:33" ht="29.4" customHeight="1" thickTop="1">
-      <c r="B33" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="19" t="s">
+      <c r="C34" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D34" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E34" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F34" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G34" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="H33" s="19" t="s">
+      <c r="H34" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="I33" s="19" t="s">
+      <c r="I34" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="J33" s="19" t="s">
+      <c r="J34" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="K33" s="19" t="s">
+      <c r="K34" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="L33" s="19" t="s">
+      <c r="L34" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="19" t="s">
+      <c r="M34" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="N33" s="19" t="s">
+      <c r="N34" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="O33" s="19" t="s">
+      <c r="O34" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="P33" s="19" t="s">
+      <c r="P34" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="Q33" s="19" t="s">
+      <c r="Q34" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="R33" s="19" t="s">
+      <c r="R34" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="S33" s="19" t="s">
+      <c r="S34" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="T33" s="19" t="s">
+      <c r="T34" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="U33" s="19" t="s">
+      <c r="U34" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="V33" s="19" t="s">
+      <c r="V34" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="W33" s="35" t="s">
+      <c r="W34" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="6"/>
-      <c r="AE33" s="6"/>
-      <c r="AF33" s="27"/>
-      <c r="AG33" s="30"/>
-    </row>
-    <row r="34" spans="2:33" ht="29.4" customHeight="1">
-      <c r="B34" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="J34" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="K34" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="L34" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="M34" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="N34" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="O34" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="P34" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q34" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="R34" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="S34" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="T34" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="U34" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="V34" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="W34" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="X34" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y34" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z34" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA34" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB34" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC34" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD34" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE34" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="AF34" s="27"/>
-      <c r="AG34" s="31"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="25"/>
+      <c r="AG34" s="28"/>
     </row>
     <row r="35" spans="2:33" ht="29.4" customHeight="1">
       <c r="B35" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="I35" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="6"/>
-      <c r="AB35" s="6"/>
-      <c r="AC35" s="6"/>
-      <c r="AD35" s="6"/>
-      <c r="AE35" s="6"/>
-      <c r="AF35" s="27"/>
-      <c r="AG35" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="O35" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="P35" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q35" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="R35" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="S35" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="T35" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="U35" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="V35" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="W35" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="X35" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y35" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z35" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA35" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB35" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC35" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD35" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE35" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF35" s="25"/>
+      <c r="AG35" s="29"/>
     </row>
     <row r="36" spans="2:33" ht="29.4" customHeight="1">
       <c r="B36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="J36" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="K36" s="35" t="s">
-        <v>254</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
@@ -11355,201 +11376,201 @@
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
       <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
+      <c r="Z36" s="9"/>
       <c r="AA36" s="6"/>
       <c r="AB36" s="6"/>
       <c r="AC36" s="6"/>
       <c r="AD36" s="6"/>
       <c r="AE36" s="6"/>
-      <c r="AF36" s="27"/>
-      <c r="AG36" s="31"/>
+      <c r="AF36" s="25"/>
+      <c r="AG36" s="29"/>
     </row>
     <row r="37" spans="2:33" ht="29.4" customHeight="1">
       <c r="B37" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="I37" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="J37" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="K37" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="L37" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="M37" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="N37" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="O37" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P37" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q37" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="R37" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="S37" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="T37" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="U37" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="V37" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="W37" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="X37" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y37" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z37" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA37" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB37" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC37" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD37" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE37" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF37" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG37" s="36" t="s">
-        <v>197</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="K37" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="25"/>
+      <c r="AG37" s="29"/>
     </row>
     <row r="38" spans="2:33" ht="29.4" customHeight="1">
       <c r="B38" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="F38" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="I38" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="J38" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="K38" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="L38" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="6"/>
-      <c r="AD38" s="6"/>
-      <c r="AE38" s="6"/>
-      <c r="AF38" s="27"/>
-      <c r="AG38" s="31"/>
+        <v>4</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="M38" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="N38" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="O38" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="P38" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q38" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="R38" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="S38" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="T38" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="U38" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="V38" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="W38" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="X38" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y38" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z38" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA38" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB38" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC38" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD38" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE38" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF38" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG38" s="34" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="39" spans="2:33" ht="29.4" customHeight="1">
       <c r="B39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="I39" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="J39" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="K39" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="L39" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K39" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="L39" s="33" t="s">
+        <v>255</v>
+      </c>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
@@ -11564,198 +11585,200 @@
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
-      <c r="AA39" s="6"/>
-      <c r="AB39" s="6"/>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="9"/>
       <c r="AC39" s="6"/>
       <c r="AD39" s="6"/>
       <c r="AE39" s="6"/>
-      <c r="AF39" s="27"/>
-      <c r="AG39" s="31"/>
+      <c r="AF39" s="25"/>
+      <c r="AG39" s="29"/>
     </row>
     <row r="40" spans="2:33" ht="29.4" customHeight="1">
       <c r="B40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="F40" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="H40" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="I40" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="J40" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="K40" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="L40" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="M40" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="N40" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="O40" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="P40" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q40" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="R40" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="S40" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="T40" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="U40" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="V40" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="W40" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="X40" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y40" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z40" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA40" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB40" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC40" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD40" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE40" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF40" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="AG40" s="35" t="s">
-        <v>226</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="K40" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="25"/>
+      <c r="AG40" s="29"/>
     </row>
     <row r="41" spans="2:33" ht="29.4" customHeight="1">
       <c r="B41" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="I41" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="J41" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="K41" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="L41" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
-      <c r="AA41" s="9"/>
-      <c r="AB41" s="9"/>
-      <c r="AC41" s="6"/>
-      <c r="AD41" s="6"/>
-      <c r="AE41" s="6"/>
-      <c r="AF41" s="27"/>
-      <c r="AG41" s="31"/>
+        <v>7</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="J41" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="K41" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L41" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="M41" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="N41" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="O41" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="P41" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q41" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="R41" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="S41" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="T41" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="U41" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="V41" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="W41" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="X41" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y41" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z41" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA41" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB41" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC41" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD41" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE41" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF41" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG41" s="33" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="42" spans="2:33" ht="29.4" customHeight="1">
       <c r="B42" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="I42" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="J42" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="K42" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="L42" s="33" t="s">
+        <v>256</v>
+      </c>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
@@ -11770,306 +11793,312 @@
       <c r="X42" s="6"/>
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
-      <c r="AB42" s="6"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="9"/>
       <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
       <c r="AE42" s="6"/>
-      <c r="AF42" s="27"/>
-      <c r="AG42" s="31"/>
-    </row>
-    <row r="43" spans="2:33" ht="29.4" customHeight="1" thickBot="1">
-      <c r="B43" s="11" t="s">
+      <c r="AF42" s="25"/>
+      <c r="AG42" s="29"/>
+    </row>
+    <row r="43" spans="2:33" ht="29.4" customHeight="1">
+      <c r="B43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="J43" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="25"/>
+      <c r="AG43" s="29"/>
+    </row>
+    <row r="44" spans="2:33" ht="29.4" customHeight="1" thickBot="1">
+      <c r="B44" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C44" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D44" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E44" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F44" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="G43" s="20" t="s">
+      <c r="G44" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="H43" s="20" t="s">
+      <c r="H44" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="I43" s="35" t="s">
+      <c r="I44" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="12"/>
-      <c r="Y43" s="12"/>
-      <c r="Z43" s="12"/>
-      <c r="AA43" s="12"/>
-      <c r="AB43" s="12"/>
-      <c r="AC43" s="12"/>
-      <c r="AD43" s="12"/>
-      <c r="AE43" s="12"/>
-      <c r="AF43" s="29"/>
-      <c r="AG43" s="32"/>
-    </row>
-    <row r="44" spans="2:33" ht="29.4" customHeight="1" thickTop="1" thickBot="1"/>
-    <row r="45" spans="2:33" ht="29.4" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B45" s="2"/>
-      <c r="C45" s="3" t="s">
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="27"/>
+      <c r="AG44" s="30"/>
+    </row>
+    <row r="45" spans="2:33" ht="29.4" customHeight="1" thickTop="1" thickBot="1"/>
+    <row r="46" spans="2:33" ht="29.4" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B46" s="2"/>
+      <c r="C46" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I46" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="L46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="M46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="N46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="O46" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="P46" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="Q46" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R45" s="3" t="s">
+      <c r="R46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S45" s="3" t="s">
+      <c r="S46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T45" s="3" t="s">
+      <c r="T46" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U45" s="3" t="s">
+      <c r="U46" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V45" s="3" t="s">
+      <c r="V46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W45" s="3" t="s">
+      <c r="W46" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X45" s="3" t="s">
+      <c r="X46" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y45" s="3" t="s">
+      <c r="Y46" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z45" s="3" t="s">
+      <c r="Z46" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AA45" s="3" t="s">
+      <c r="AA46" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AB45" s="3" t="s">
+      <c r="AB46" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AC45" s="3" t="s">
+      <c r="AC46" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AD45" s="3" t="s">
+      <c r="AD46" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AE45" s="3" t="s">
+      <c r="AE46" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AF45" s="26" t="s">
+      <c r="AF46" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AG45" s="25" t="s">
+      <c r="AG46" s="23" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="46" spans="2:33" ht="29.4" customHeight="1" thickTop="1">
-      <c r="B46" s="5" t="s">
+    <row r="47" spans="2:33" ht="29.4" customHeight="1" thickTop="1">
+      <c r="B47" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="19"/>
-      <c r="W46" s="21" t="s">
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="6"/>
-      <c r="AB46" s="6"/>
-      <c r="AC46" s="6"/>
-      <c r="AD46" s="6"/>
-      <c r="AE46" s="6"/>
-      <c r="AF46" s="27"/>
-      <c r="AG46" s="30"/>
-    </row>
-    <row r="47" spans="2:33" ht="29.4" customHeight="1">
-      <c r="B47" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="19"/>
-      <c r="W47" s="19"/>
-      <c r="X47" s="19"/>
-      <c r="Y47" s="19"/>
-      <c r="Z47" s="19"/>
-      <c r="AA47" s="19"/>
-      <c r="AB47" s="19"/>
-      <c r="AC47" s="19"/>
-      <c r="AD47" s="19"/>
-      <c r="AE47" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="AF47" s="27"/>
-      <c r="AG47" s="31"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6"/>
+      <c r="AF47" s="25"/>
+      <c r="AG47" s="28"/>
     </row>
     <row r="48" spans="2:33" ht="29.4" customHeight="1">
       <c r="B48" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="9"/>
-      <c r="AA48" s="6"/>
-      <c r="AB48" s="6"/>
-      <c r="AC48" s="6"/>
-      <c r="AD48" s="6"/>
-      <c r="AE48" s="6"/>
-      <c r="AF48" s="27"/>
-      <c r="AG48" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="17"/>
+      <c r="AA48" s="17"/>
+      <c r="AB48" s="17"/>
+      <c r="AC48" s="17"/>
+      <c r="AD48" s="17"/>
+      <c r="AE48" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF48" s="25"/>
+      <c r="AG48" s="29"/>
     </row>
     <row r="49" spans="2:33" ht="29.4" customHeight="1">
       <c r="B49" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="21" t="s">
-        <v>193</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
@@ -12084,135 +12113,135 @@
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
       <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
+      <c r="Z49" s="9"/>
       <c r="AA49" s="6"/>
       <c r="AB49" s="6"/>
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
       <c r="AE49" s="6"/>
-      <c r="AF49" s="27"/>
-      <c r="AG49" s="31"/>
+      <c r="AF49" s="25"/>
+      <c r="AG49" s="29"/>
     </row>
     <row r="50" spans="2:33" ht="29.4" customHeight="1">
       <c r="B50" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E50" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="F50" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="G50" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="H50" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
-      <c r="U50" s="19"/>
-      <c r="V50" s="19"/>
-      <c r="W50" s="19"/>
-      <c r="X50" s="19"/>
-      <c r="Y50" s="19"/>
-      <c r="Z50" s="19"/>
-      <c r="AA50" s="19"/>
-      <c r="AB50" s="19"/>
-      <c r="AC50" s="19"/>
-      <c r="AD50" s="19"/>
-      <c r="AE50" s="19"/>
-      <c r="AF50" s="28"/>
-      <c r="AG50" s="33" t="s">
-        <v>197</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="6"/>
+      <c r="AD50" s="6"/>
+      <c r="AE50" s="6"/>
+      <c r="AF50" s="25"/>
+      <c r="AG50" s="29"/>
     </row>
     <row r="51" spans="2:33" ht="29.4" customHeight="1">
       <c r="B51" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="E51" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="F51" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="6"/>
-      <c r="AA51" s="9"/>
-      <c r="AB51" s="9"/>
-      <c r="AC51" s="6"/>
-      <c r="AD51" s="6"/>
-      <c r="AE51" s="6"/>
-      <c r="AF51" s="27"/>
-      <c r="AG51" s="31"/>
+        <v>4</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="H51" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
+      <c r="V51" s="17"/>
+      <c r="W51" s="17"/>
+      <c r="X51" s="17"/>
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="17"/>
+      <c r="AA51" s="17"/>
+      <c r="AB51" s="17"/>
+      <c r="AC51" s="17"/>
+      <c r="AD51" s="17"/>
+      <c r="AE51" s="17"/>
+      <c r="AF51" s="26"/>
+      <c r="AG51" s="31" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="52" spans="2:33" ht="29.4" customHeight="1">
       <c r="B52" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="E52" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="F52" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="L52" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="19" t="s">
+        <v>200</v>
+      </c>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
@@ -12227,130 +12256,134 @@
       <c r="X52" s="6"/>
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
-      <c r="AA52" s="6"/>
-      <c r="AB52" s="6"/>
+      <c r="AA52" s="9"/>
+      <c r="AB52" s="9"/>
       <c r="AC52" s="6"/>
       <c r="AD52" s="6"/>
       <c r="AE52" s="6"/>
-      <c r="AF52" s="27"/>
-      <c r="AG52" s="31"/>
+      <c r="AF52" s="25"/>
+      <c r="AG52" s="29"/>
     </row>
     <row r="53" spans="2:33" ht="29.4" customHeight="1">
       <c r="B53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="F53" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="H53" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
-      <c r="U53" s="19"/>
-      <c r="V53" s="19"/>
-      <c r="W53" s="19"/>
-      <c r="X53" s="19"/>
-      <c r="Y53" s="19"/>
-      <c r="Z53" s="19"/>
-      <c r="AA53" s="19"/>
-      <c r="AB53" s="19"/>
-      <c r="AC53" s="19"/>
-      <c r="AD53" s="19"/>
-      <c r="AE53" s="19"/>
-      <c r="AF53" s="19"/>
-      <c r="AG53" s="33" t="s">
-        <v>226</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="6"/>
+      <c r="AF53" s="25"/>
+      <c r="AG53" s="29"/>
     </row>
     <row r="54" spans="2:33" ht="29.4" customHeight="1">
       <c r="B54" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="F54" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="6"/>
-      <c r="Y54" s="6"/>
-      <c r="Z54" s="6"/>
-      <c r="AA54" s="9"/>
-      <c r="AB54" s="9"/>
-      <c r="AC54" s="6"/>
-      <c r="AD54" s="6"/>
-      <c r="AE54" s="6"/>
-      <c r="AF54" s="27"/>
-      <c r="AG54" s="31"/>
+        <v>7</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="17"/>
+      <c r="V54" s="17"/>
+      <c r="W54" s="17"/>
+      <c r="X54" s="17"/>
+      <c r="Y54" s="17"/>
+      <c r="Z54" s="17"/>
+      <c r="AA54" s="17"/>
+      <c r="AB54" s="17"/>
+      <c r="AC54" s="17"/>
+      <c r="AD54" s="17"/>
+      <c r="AE54" s="17"/>
+      <c r="AF54" s="17"/>
+      <c r="AG54" s="31" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="55" spans="2:33" ht="29.4" customHeight="1">
       <c r="B55" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="19" t="s">
+        <v>236</v>
+      </c>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
@@ -12365,278 +12398,282 @@
       <c r="X55" s="6"/>
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
-      <c r="AA55" s="6"/>
-      <c r="AB55" s="6"/>
+      <c r="AA55" s="9"/>
+      <c r="AB55" s="9"/>
       <c r="AC55" s="6"/>
       <c r="AD55" s="6"/>
       <c r="AE55" s="6"/>
-      <c r="AF55" s="27"/>
-      <c r="AG55" s="31"/>
-    </row>
-    <row r="56" spans="2:33" ht="29.4" customHeight="1" thickBot="1">
-      <c r="B56" s="11" t="s">
+      <c r="AF55" s="25"/>
+      <c r="AG55" s="29"/>
+    </row>
+    <row r="56" spans="2:33" ht="29.4" customHeight="1">
+      <c r="B56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
+      <c r="AD56" s="6"/>
+      <c r="AE56" s="6"/>
+      <c r="AF56" s="25"/>
+      <c r="AG56" s="29"/>
+    </row>
+    <row r="57" spans="2:33" ht="29.4" customHeight="1" thickBot="1">
+      <c r="B57" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="34" t="s">
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="12"/>
-      <c r="S56" s="12"/>
-      <c r="T56" s="12"/>
-      <c r="U56" s="12"/>
-      <c r="V56" s="12"/>
-      <c r="W56" s="12"/>
-      <c r="X56" s="12"/>
-      <c r="Y56" s="12"/>
-      <c r="Z56" s="12"/>
-      <c r="AA56" s="12"/>
-      <c r="AB56" s="12"/>
-      <c r="AC56" s="12"/>
-      <c r="AD56" s="12"/>
-      <c r="AE56" s="12"/>
-      <c r="AF56" s="29"/>
-      <c r="AG56" s="32"/>
-    </row>
-    <row r="57" spans="2:33" ht="29.4" customHeight="1" thickTop="1" thickBot="1"/>
-    <row r="58" spans="2:33" ht="29.4" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B58" s="2"/>
-      <c r="C58" s="3" t="s">
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="12"/>
+      <c r="AB57" s="12"/>
+      <c r="AC57" s="12"/>
+      <c r="AD57" s="12"/>
+      <c r="AE57" s="12"/>
+      <c r="AF57" s="27"/>
+      <c r="AG57" s="30"/>
+    </row>
+    <row r="58" spans="2:33" ht="29.4" customHeight="1" thickTop="1" thickBot="1"/>
+    <row r="59" spans="2:33" ht="29.4" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B59" s="2"/>
+      <c r="C59" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I59" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J59" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="L59" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="M59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="N59" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="O59" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="P59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="Q59" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="R59" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S58" s="3" t="s">
+      <c r="S59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T58" s="3" t="s">
+      <c r="T59" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U58" s="3" t="s">
+      <c r="U59" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V58" s="3" t="s">
+      <c r="V59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W58" s="3" t="s">
+      <c r="W59" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X58" s="3" t="s">
+      <c r="X59" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y58" s="3" t="s">
+      <c r="Y59" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z58" s="3" t="s">
+      <c r="Z59" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AA58" s="3" t="s">
+      <c r="AA59" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AB58" s="3" t="s">
+      <c r="AB59" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AC58" s="3" t="s">
+      <c r="AC59" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AD58" s="3" t="s">
+      <c r="AD59" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AE58" s="3" t="s">
+      <c r="AE59" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AF58" s="26" t="s">
+      <c r="AF59" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AG58" s="25" t="s">
+      <c r="AG59" s="23" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="2:33" ht="29.4" customHeight="1" thickTop="1">
-      <c r="B59" s="5" t="s">
+    <row r="60" spans="2:33" ht="29.4" customHeight="1" thickTop="1">
+      <c r="B60" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="19"/>
-      <c r="U59" s="19"/>
-      <c r="V59" s="19"/>
-      <c r="W59" s="21" t="s">
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="17"/>
+      <c r="V60" s="17"/>
+      <c r="W60" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="6"/>
-      <c r="Z59" s="6"/>
-      <c r="AA59" s="6"/>
-      <c r="AB59" s="6"/>
-      <c r="AC59" s="6"/>
-      <c r="AD59" s="6"/>
-      <c r="AE59" s="6"/>
-      <c r="AF59" s="27"/>
-      <c r="AG59" s="30"/>
-    </row>
-    <row r="60" spans="2:33" ht="29.4" customHeight="1">
-      <c r="B60" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="19"/>
-      <c r="S60" s="19"/>
-      <c r="T60" s="19"/>
-      <c r="U60" s="19"/>
-      <c r="V60" s="19"/>
-      <c r="W60" s="19"/>
-      <c r="X60" s="19"/>
-      <c r="Y60" s="19"/>
-      <c r="Z60" s="19"/>
-      <c r="AA60" s="19"/>
-      <c r="AB60" s="19"/>
-      <c r="AC60" s="19"/>
-      <c r="AD60" s="19"/>
-      <c r="AE60" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="AF60" s="27"/>
-      <c r="AG60" s="31"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+      <c r="AA60" s="6"/>
+      <c r="AB60" s="6"/>
+      <c r="AC60" s="6"/>
+      <c r="AD60" s="6"/>
+      <c r="AE60" s="6"/>
+      <c r="AF60" s="25"/>
+      <c r="AG60" s="28"/>
     </row>
     <row r="61" spans="2:33" ht="29.4" customHeight="1">
       <c r="B61" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
-      <c r="V61" s="6"/>
-      <c r="W61" s="6"/>
-      <c r="X61" s="6"/>
-      <c r="Y61" s="6"/>
-      <c r="Z61" s="9"/>
-      <c r="AA61" s="6"/>
-      <c r="AB61" s="6"/>
-      <c r="AC61" s="6"/>
-      <c r="AD61" s="6"/>
-      <c r="AE61" s="6"/>
-      <c r="AF61" s="27"/>
-      <c r="AG61" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="17"/>
+      <c r="U61" s="17"/>
+      <c r="V61" s="17"/>
+      <c r="W61" s="17"/>
+      <c r="X61" s="17"/>
+      <c r="Y61" s="17"/>
+      <c r="Z61" s="17"/>
+      <c r="AA61" s="17"/>
+      <c r="AB61" s="17"/>
+      <c r="AC61" s="17"/>
+      <c r="AD61" s="17"/>
+      <c r="AE61" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF61" s="25"/>
+      <c r="AG61" s="29"/>
     </row>
     <row r="62" spans="2:33" ht="29.4" customHeight="1">
       <c r="B62" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="21" t="s">
-        <v>193</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
@@ -12651,107 +12688,107 @@
       <c r="W62" s="6"/>
       <c r="X62" s="6"/>
       <c r="Y62" s="6"/>
-      <c r="Z62" s="6"/>
+      <c r="Z62" s="9"/>
       <c r="AA62" s="6"/>
       <c r="AB62" s="6"/>
       <c r="AC62" s="6"/>
       <c r="AD62" s="6"/>
       <c r="AE62" s="6"/>
-      <c r="AF62" s="27"/>
-      <c r="AG62" s="31"/>
+      <c r="AF62" s="25"/>
+      <c r="AG62" s="29"/>
     </row>
     <row r="63" spans="2:33" ht="29.4" customHeight="1">
       <c r="B63" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="19"/>
-      <c r="P63" s="19"/>
-      <c r="Q63" s="19"/>
-      <c r="R63" s="19"/>
-      <c r="S63" s="19"/>
-      <c r="T63" s="19"/>
-      <c r="U63" s="19"/>
-      <c r="V63" s="19"/>
-      <c r="W63" s="19"/>
-      <c r="X63" s="19"/>
-      <c r="Y63" s="19"/>
-      <c r="Z63" s="19"/>
-      <c r="AA63" s="19"/>
-      <c r="AB63" s="19"/>
-      <c r="AC63" s="19"/>
-      <c r="AD63" s="19"/>
-      <c r="AE63" s="19"/>
-      <c r="AF63" s="28"/>
-      <c r="AG63" s="33" t="s">
-        <v>197</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+      <c r="AA63" s="6"/>
+      <c r="AB63" s="6"/>
+      <c r="AC63" s="6"/>
+      <c r="AD63" s="6"/>
+      <c r="AE63" s="6"/>
+      <c r="AF63" s="25"/>
+      <c r="AG63" s="29"/>
     </row>
     <row r="64" spans="2:33" ht="29.4" customHeight="1">
       <c r="B64" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
-      <c r="U64" s="6"/>
-      <c r="V64" s="6"/>
-      <c r="W64" s="6"/>
-      <c r="X64" s="6"/>
-      <c r="Y64" s="6"/>
-      <c r="Z64" s="6"/>
-      <c r="AA64" s="9"/>
-      <c r="AB64" s="9"/>
-      <c r="AC64" s="6"/>
-      <c r="AD64" s="6"/>
-      <c r="AE64" s="6"/>
-      <c r="AF64" s="27"/>
-      <c r="AG64" s="31"/>
+        <v>4</v>
+      </c>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
+      <c r="R64" s="17"/>
+      <c r="S64" s="17"/>
+      <c r="T64" s="17"/>
+      <c r="U64" s="17"/>
+      <c r="V64" s="17"/>
+      <c r="W64" s="17"/>
+      <c r="X64" s="17"/>
+      <c r="Y64" s="17"/>
+      <c r="Z64" s="17"/>
+      <c r="AA64" s="17"/>
+      <c r="AB64" s="17"/>
+      <c r="AC64" s="17"/>
+      <c r="AD64" s="17"/>
+      <c r="AE64" s="17"/>
+      <c r="AF64" s="26"/>
+      <c r="AG64" s="31" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="65" spans="2:33" ht="29.4" customHeight="1">
       <c r="B65" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="L65" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="19" t="s">
+        <v>200</v>
+      </c>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
       <c r="O65" s="6"/>
@@ -12766,106 +12803,106 @@
       <c r="X65" s="6"/>
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
-      <c r="AA65" s="6"/>
-      <c r="AB65" s="6"/>
+      <c r="AA65" s="9"/>
+      <c r="AB65" s="9"/>
       <c r="AC65" s="6"/>
       <c r="AD65" s="6"/>
       <c r="AE65" s="6"/>
-      <c r="AF65" s="27"/>
-      <c r="AG65" s="31"/>
+      <c r="AF65" s="25"/>
+      <c r="AG65" s="29"/>
     </row>
     <row r="66" spans="2:33" ht="29.4" customHeight="1">
       <c r="B66" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="19"/>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="19"/>
-      <c r="R66" s="19"/>
-      <c r="S66" s="19"/>
-      <c r="T66" s="19"/>
-      <c r="U66" s="19"/>
-      <c r="V66" s="19"/>
-      <c r="W66" s="19"/>
-      <c r="X66" s="19"/>
-      <c r="Y66" s="19"/>
-      <c r="Z66" s="19"/>
-      <c r="AA66" s="19"/>
-      <c r="AB66" s="19"/>
-      <c r="AC66" s="19"/>
-      <c r="AD66" s="19"/>
-      <c r="AE66" s="19"/>
-      <c r="AF66" s="19"/>
-      <c r="AG66" s="33" t="s">
-        <v>226</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
+      <c r="AA66" s="6"/>
+      <c r="AB66" s="6"/>
+      <c r="AC66" s="6"/>
+      <c r="AD66" s="6"/>
+      <c r="AE66" s="6"/>
+      <c r="AF66" s="25"/>
+      <c r="AG66" s="29"/>
     </row>
     <row r="67" spans="2:33" ht="29.4" customHeight="1">
       <c r="B67" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
-      <c r="U67" s="6"/>
-      <c r="V67" s="6"/>
-      <c r="W67" s="6"/>
-      <c r="X67" s="6"/>
-      <c r="Y67" s="6"/>
-      <c r="Z67" s="6"/>
-      <c r="AA67" s="9"/>
-      <c r="AB67" s="9"/>
-      <c r="AC67" s="6"/>
-      <c r="AD67" s="6"/>
-      <c r="AE67" s="6"/>
-      <c r="AF67" s="27"/>
-      <c r="AG67" s="31"/>
+        <v>7</v>
+      </c>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="17"/>
+      <c r="U67" s="17"/>
+      <c r="V67" s="17"/>
+      <c r="W67" s="17"/>
+      <c r="X67" s="17"/>
+      <c r="Y67" s="17"/>
+      <c r="Z67" s="17"/>
+      <c r="AA67" s="17"/>
+      <c r="AB67" s="17"/>
+      <c r="AC67" s="17"/>
+      <c r="AD67" s="17"/>
+      <c r="AE67" s="17"/>
+      <c r="AF67" s="17"/>
+      <c r="AG67" s="31" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="68" spans="2:33" ht="29.4" customHeight="1">
       <c r="B68" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="19" t="s">
+        <v>236</v>
+      </c>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
@@ -12880,270 +12917,272 @@
       <c r="X68" s="6"/>
       <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
-      <c r="AA68" s="6"/>
-      <c r="AB68" s="6"/>
+      <c r="AA68" s="9"/>
+      <c r="AB68" s="9"/>
       <c r="AC68" s="6"/>
       <c r="AD68" s="6"/>
       <c r="AE68" s="6"/>
-      <c r="AF68" s="27"/>
-      <c r="AG68" s="31"/>
-    </row>
-    <row r="69" spans="2:33" ht="29.4" customHeight="1" thickBot="1">
-      <c r="B69" s="11" t="s">
+      <c r="AF68" s="25"/>
+      <c r="AG68" s="29"/>
+    </row>
+    <row r="69" spans="2:33" ht="29.4" customHeight="1">
+      <c r="B69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="6"/>
+      <c r="Y69" s="6"/>
+      <c r="Z69" s="6"/>
+      <c r="AA69" s="6"/>
+      <c r="AB69" s="6"/>
+      <c r="AC69" s="6"/>
+      <c r="AD69" s="6"/>
+      <c r="AE69" s="6"/>
+      <c r="AF69" s="25"/>
+      <c r="AG69" s="29"/>
+    </row>
+    <row r="70" spans="2:33" ht="29.4" customHeight="1" thickBot="1">
+      <c r="B70" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="34" t="s">
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12"/>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="12"/>
-      <c r="S69" s="12"/>
-      <c r="T69" s="12"/>
-      <c r="U69" s="12"/>
-      <c r="V69" s="12"/>
-      <c r="W69" s="12"/>
-      <c r="X69" s="12"/>
-      <c r="Y69" s="12"/>
-      <c r="Z69" s="12"/>
-      <c r="AA69" s="12"/>
-      <c r="AB69" s="12"/>
-      <c r="AC69" s="12"/>
-      <c r="AD69" s="12"/>
-      <c r="AE69" s="12"/>
-      <c r="AF69" s="29"/>
-      <c r="AG69" s="32"/>
-    </row>
-    <row r="70" spans="2:33" ht="29.4" customHeight="1" thickTop="1" thickBot="1"/>
-    <row r="71" spans="2:33" ht="31.2" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B71" s="2"/>
-      <c r="C71" s="3" t="s">
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
+      <c r="W70" s="12"/>
+      <c r="X70" s="12"/>
+      <c r="Y70" s="12"/>
+      <c r="Z70" s="12"/>
+      <c r="AA70" s="12"/>
+      <c r="AB70" s="12"/>
+      <c r="AC70" s="12"/>
+      <c r="AD70" s="12"/>
+      <c r="AE70" s="12"/>
+      <c r="AF70" s="27"/>
+      <c r="AG70" s="30"/>
+    </row>
+    <row r="71" spans="2:33" ht="29.4" customHeight="1" thickTop="1" thickBot="1"/>
+    <row r="72" spans="2:33" ht="31.2" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B72" s="2"/>
+      <c r="C72" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I71" s="3" t="s">
+      <c r="I72" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J71" s="3" t="s">
+      <c r="J72" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K71" s="3" t="s">
+      <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L71" s="3" t="s">
+      <c r="L72" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M71" s="3" t="s">
+      <c r="M72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N71" s="3" t="s">
+      <c r="N72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O71" s="3" t="s">
+      <c r="O72" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P71" s="3" t="s">
+      <c r="P72" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q71" s="3" t="s">
+      <c r="Q72" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R71" s="3" t="s">
+      <c r="R72" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S71" s="3" t="s">
+      <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T71" s="3" t="s">
+      <c r="T72" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U71" s="3" t="s">
+      <c r="U72" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V71" s="3" t="s">
+      <c r="V72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W71" s="3" t="s">
+      <c r="W72" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X71" s="3" t="s">
+      <c r="X72" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y71" s="3" t="s">
+      <c r="Y72" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z71" s="3" t="s">
+      <c r="Z72" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AA71" s="3" t="s">
+      <c r="AA72" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AB71" s="3" t="s">
+      <c r="AB72" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AC71" s="3" t="s">
+      <c r="AC72" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AD71" s="3" t="s">
+      <c r="AD72" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AE71" s="3" t="s">
+      <c r="AE72" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AF71" s="26" t="s">
+      <c r="AF72" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AG71" s="25" t="s">
+      <c r="AG72" s="23" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="72" spans="2:33" ht="31.2" customHeight="1" thickTop="1">
-      <c r="B72" s="5" t="s">
+    <row r="73" spans="2:33" ht="31.2" customHeight="1" thickTop="1">
+      <c r="B73" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
-      <c r="O72" s="19"/>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="19"/>
-      <c r="S72" s="19"/>
-      <c r="T72" s="19"/>
-      <c r="U72" s="19"/>
-      <c r="V72" s="19"/>
-      <c r="W72" s="21"/>
-      <c r="X72" s="6"/>
-      <c r="Y72" s="6"/>
-      <c r="Z72" s="6"/>
-      <c r="AA72" s="6"/>
-      <c r="AB72" s="6"/>
-      <c r="AC72" s="6"/>
-      <c r="AD72" s="6"/>
-      <c r="AE72" s="6"/>
-      <c r="AF72" s="27"/>
-      <c r="AG72" s="30"/>
-    </row>
-    <row r="73" spans="2:33" ht="31.2" customHeight="1">
-      <c r="B73" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="19"/>
-      <c r="P73" s="19"/>
-      <c r="Q73" s="19"/>
-      <c r="R73" s="19"/>
-      <c r="S73" s="19"/>
-      <c r="T73" s="19"/>
-      <c r="U73" s="19"/>
-      <c r="V73" s="19"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
+      <c r="R73" s="17"/>
+      <c r="S73" s="17"/>
+      <c r="T73" s="17"/>
+      <c r="U73" s="17"/>
+      <c r="V73" s="17"/>
       <c r="W73" s="19"/>
-      <c r="X73" s="19"/>
-      <c r="Y73" s="19"/>
-      <c r="Z73" s="19"/>
-      <c r="AA73" s="19"/>
-      <c r="AB73" s="19"/>
-      <c r="AC73" s="19"/>
-      <c r="AD73" s="19"/>
-      <c r="AE73" s="21"/>
-      <c r="AF73" s="27"/>
-      <c r="AG73" s="31"/>
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="6"/>
+      <c r="AA73" s="6"/>
+      <c r="AB73" s="6"/>
+      <c r="AC73" s="6"/>
+      <c r="AD73" s="6"/>
+      <c r="AE73" s="6"/>
+      <c r="AF73" s="25"/>
+      <c r="AG73" s="28"/>
     </row>
     <row r="74" spans="2:33" ht="31.2" customHeight="1">
       <c r="B74" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="6"/>
-      <c r="T74" s="6"/>
-      <c r="U74" s="6"/>
-      <c r="V74" s="6"/>
-      <c r="W74" s="6"/>
-      <c r="X74" s="6"/>
-      <c r="Y74" s="6"/>
-      <c r="Z74" s="9"/>
-      <c r="AA74" s="6"/>
-      <c r="AB74" s="6"/>
-      <c r="AC74" s="6"/>
-      <c r="AD74" s="6"/>
-      <c r="AE74" s="6"/>
-      <c r="AF74" s="27"/>
-      <c r="AG74" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="17"/>
+      <c r="U74" s="17"/>
+      <c r="V74" s="17"/>
+      <c r="W74" s="17"/>
+      <c r="X74" s="17"/>
+      <c r="Y74" s="17"/>
+      <c r="Z74" s="17"/>
+      <c r="AA74" s="17"/>
+      <c r="AB74" s="17"/>
+      <c r="AC74" s="17"/>
+      <c r="AD74" s="17"/>
+      <c r="AE74" s="19"/>
+      <c r="AF74" s="25"/>
+      <c r="AG74" s="29"/>
     </row>
     <row r="75" spans="2:33" ht="31.2" customHeight="1">
       <c r="B75" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
       <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="21"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
@@ -13158,101 +13197,101 @@
       <c r="W75" s="6"/>
       <c r="X75" s="6"/>
       <c r="Y75" s="6"/>
-      <c r="Z75" s="6"/>
+      <c r="Z75" s="9"/>
       <c r="AA75" s="6"/>
       <c r="AB75" s="6"/>
       <c r="AC75" s="6"/>
       <c r="AD75" s="6"/>
       <c r="AE75" s="6"/>
-      <c r="AF75" s="27"/>
-      <c r="AG75" s="31"/>
+      <c r="AF75" s="25"/>
+      <c r="AG75" s="29"/>
     </row>
     <row r="76" spans="2:33" ht="31.2" customHeight="1">
       <c r="B76" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
       <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
-      <c r="M76" s="19"/>
-      <c r="N76" s="19"/>
-      <c r="O76" s="19"/>
-      <c r="P76" s="19"/>
-      <c r="Q76" s="19"/>
-      <c r="R76" s="19"/>
-      <c r="S76" s="19"/>
-      <c r="T76" s="19"/>
-      <c r="U76" s="19"/>
-      <c r="V76" s="19"/>
-      <c r="W76" s="19"/>
-      <c r="X76" s="19"/>
-      <c r="Y76" s="19"/>
-      <c r="Z76" s="19"/>
-      <c r="AA76" s="19"/>
-      <c r="AB76" s="19"/>
-      <c r="AC76" s="19"/>
-      <c r="AD76" s="19"/>
-      <c r="AE76" s="19"/>
-      <c r="AF76" s="28"/>
-      <c r="AG76" s="33"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="6"/>
+      <c r="AA76" s="6"/>
+      <c r="AB76" s="6"/>
+      <c r="AC76" s="6"/>
+      <c r="AD76" s="6"/>
+      <c r="AE76" s="6"/>
+      <c r="AF76" s="25"/>
+      <c r="AG76" s="29"/>
     </row>
     <row r="77" spans="2:33" ht="31.2" customHeight="1">
       <c r="B77" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="6"/>
-      <c r="S77" s="6"/>
-      <c r="T77" s="6"/>
-      <c r="U77" s="6"/>
-      <c r="V77" s="6"/>
-      <c r="W77" s="6"/>
-      <c r="X77" s="6"/>
-      <c r="Y77" s="6"/>
-      <c r="Z77" s="6"/>
-      <c r="AA77" s="9"/>
-      <c r="AB77" s="9"/>
-      <c r="AC77" s="6"/>
-      <c r="AD77" s="6"/>
-      <c r="AE77" s="6"/>
-      <c r="AF77" s="27"/>
+        <v>4</v>
+      </c>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
+      <c r="R77" s="17"/>
+      <c r="S77" s="17"/>
+      <c r="T77" s="17"/>
+      <c r="U77" s="17"/>
+      <c r="V77" s="17"/>
+      <c r="W77" s="17"/>
+      <c r="X77" s="17"/>
+      <c r="Y77" s="17"/>
+      <c r="Z77" s="17"/>
+      <c r="AA77" s="17"/>
+      <c r="AB77" s="17"/>
+      <c r="AC77" s="17"/>
+      <c r="AD77" s="17"/>
+      <c r="AE77" s="17"/>
+      <c r="AF77" s="26"/>
       <c r="AG77" s="31"/>
     </row>
     <row r="78" spans="2:33" ht="31.2" customHeight="1">
       <c r="B78" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="19"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
@@ -13267,100 +13306,100 @@
       <c r="X78" s="6"/>
       <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
-      <c r="AA78" s="6"/>
-      <c r="AB78" s="6"/>
+      <c r="AA78" s="9"/>
+      <c r="AB78" s="9"/>
       <c r="AC78" s="6"/>
       <c r="AD78" s="6"/>
       <c r="AE78" s="6"/>
-      <c r="AF78" s="27"/>
-      <c r="AG78" s="31"/>
+      <c r="AF78" s="25"/>
+      <c r="AG78" s="29"/>
     </row>
     <row r="79" spans="2:33" ht="31.2" customHeight="1">
       <c r="B79" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
+        <v>6</v>
+      </c>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
       <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="19"/>
-      <c r="N79" s="19"/>
-      <c r="O79" s="19"/>
-      <c r="P79" s="19"/>
-      <c r="Q79" s="19"/>
-      <c r="R79" s="19"/>
-      <c r="S79" s="19"/>
-      <c r="T79" s="19"/>
-      <c r="U79" s="19"/>
-      <c r="V79" s="19"/>
-      <c r="W79" s="19"/>
-      <c r="X79" s="19"/>
-      <c r="Y79" s="19"/>
-      <c r="Z79" s="19"/>
-      <c r="AA79" s="19"/>
-      <c r="AB79" s="19"/>
-      <c r="AC79" s="19"/>
-      <c r="AD79" s="19"/>
-      <c r="AE79" s="19"/>
-      <c r="AF79" s="19"/>
-      <c r="AG79" s="33"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="6"/>
+      <c r="AA79" s="6"/>
+      <c r="AB79" s="6"/>
+      <c r="AC79" s="6"/>
+      <c r="AD79" s="6"/>
+      <c r="AE79" s="6"/>
+      <c r="AF79" s="25"/>
+      <c r="AG79" s="29"/>
     </row>
     <row r="80" spans="2:33" ht="31.2" customHeight="1">
       <c r="B80" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="19"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="21"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="6"/>
-      <c r="S80" s="6"/>
-      <c r="T80" s="6"/>
-      <c r="U80" s="6"/>
-      <c r="V80" s="6"/>
-      <c r="W80" s="6"/>
-      <c r="X80" s="6"/>
-      <c r="Y80" s="6"/>
-      <c r="Z80" s="6"/>
-      <c r="AA80" s="9"/>
-      <c r="AB80" s="9"/>
-      <c r="AC80" s="6"/>
-      <c r="AD80" s="6"/>
-      <c r="AE80" s="6"/>
-      <c r="AF80" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="17"/>
+      <c r="T80" s="17"/>
+      <c r="U80" s="17"/>
+      <c r="V80" s="17"/>
+      <c r="W80" s="17"/>
+      <c r="X80" s="17"/>
+      <c r="Y80" s="17"/>
+      <c r="Z80" s="17"/>
+      <c r="AA80" s="17"/>
+      <c r="AB80" s="17"/>
+      <c r="AC80" s="17"/>
+      <c r="AD80" s="17"/>
+      <c r="AE80" s="17"/>
+      <c r="AF80" s="17"/>
       <c r="AG80" s="31"/>
     </row>
     <row r="81" spans="2:33" ht="31.2" customHeight="1">
       <c r="B81" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="19"/>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
@@ -13375,904 +13414,1756 @@
       <c r="X81" s="6"/>
       <c r="Y81" s="6"/>
       <c r="Z81" s="6"/>
-      <c r="AA81" s="6"/>
-      <c r="AB81" s="6"/>
+      <c r="AA81" s="9"/>
+      <c r="AB81" s="9"/>
       <c r="AC81" s="6"/>
       <c r="AD81" s="6"/>
       <c r="AE81" s="6"/>
-      <c r="AF81" s="27"/>
-      <c r="AG81" s="31"/>
-    </row>
-    <row r="82" spans="2:33" ht="31.2" customHeight="1" thickBot="1">
-      <c r="B82" s="11" t="s">
+      <c r="AF81" s="25"/>
+      <c r="AG81" s="29"/>
+    </row>
+    <row r="82" spans="2:33" ht="31.2" customHeight="1">
+      <c r="B82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="6"/>
+      <c r="V82" s="6"/>
+      <c r="W82" s="6"/>
+      <c r="X82" s="6"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="6"/>
+      <c r="AA82" s="6"/>
+      <c r="AB82" s="6"/>
+      <c r="AC82" s="6"/>
+      <c r="AD82" s="6"/>
+      <c r="AE82" s="6"/>
+      <c r="AF82" s="25"/>
+      <c r="AG82" s="29"/>
+    </row>
+    <row r="83" spans="2:33" ht="31.2" customHeight="1" thickBot="1">
+      <c r="B83" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="12"/>
-      <c r="N82" s="12"/>
-      <c r="O82" s="12"/>
-      <c r="P82" s="12"/>
-      <c r="Q82" s="12"/>
-      <c r="R82" s="12"/>
-      <c r="S82" s="12"/>
-      <c r="T82" s="12"/>
-      <c r="U82" s="12"/>
-      <c r="V82" s="12"/>
-      <c r="W82" s="12"/>
-      <c r="X82" s="12"/>
-      <c r="Y82" s="12"/>
-      <c r="Z82" s="12"/>
-      <c r="AA82" s="12"/>
-      <c r="AB82" s="12"/>
-      <c r="AC82" s="12"/>
-      <c r="AD82" s="12"/>
-      <c r="AE82" s="12"/>
-      <c r="AF82" s="29"/>
-      <c r="AG82" s="32"/>
-    </row>
-    <row r="83" spans="2:33" ht="31.2" customHeight="1" thickTop="1"/>
-    <row r="84" spans="2:33" ht="31.2" customHeight="1">
-      <c r="B84" s="45"/>
-      <c r="C84" s="45" t="s">
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12"/>
+      <c r="S83" s="12"/>
+      <c r="T83" s="12"/>
+      <c r="U83" s="12"/>
+      <c r="V83" s="12"/>
+      <c r="W83" s="12"/>
+      <c r="X83" s="12"/>
+      <c r="Y83" s="12"/>
+      <c r="Z83" s="12"/>
+      <c r="AA83" s="12"/>
+      <c r="AB83" s="12"/>
+      <c r="AC83" s="12"/>
+      <c r="AD83" s="12"/>
+      <c r="AE83" s="12"/>
+      <c r="AF83" s="27"/>
+      <c r="AG83" s="30"/>
+    </row>
+    <row r="84" spans="2:33" ht="31.2" customHeight="1" thickTop="1"/>
+    <row r="85" spans="2:33" ht="31.2" customHeight="1">
+      <c r="B85" s="43"/>
+      <c r="C85" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D84" s="45" t="s">
+      <c r="D85" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E84" s="45" t="s">
+      <c r="E85" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F84" s="45" t="s">
+      <c r="F85" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G84" s="45" t="s">
+      <c r="G85" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="H84" s="45" t="s">
+      <c r="H85" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="I84" s="45" t="s">
+      <c r="I85" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="J84" s="45" t="s">
+      <c r="J85" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="K84" s="45" t="s">
+      <c r="K85" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="L84" s="45" t="s">
+      <c r="L85" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="M84" s="45" t="s">
+      <c r="M85" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="N84" s="45" t="s">
+      <c r="N85" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="O84" s="45" t="s">
+      <c r="O85" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="P84" s="45" t="s">
+      <c r="P85" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="Q84" s="45" t="s">
+      <c r="Q85" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="R84" s="45" t="s">
+      <c r="R85" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="S84" s="45" t="s">
+      <c r="S85" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="T84" s="45" t="s">
+      <c r="T85" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="U84" s="45" t="s">
+      <c r="U85" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="V84" s="45" t="s">
+      <c r="V85" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="W84" s="45" t="s">
+      <c r="W85" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="X84" s="45" t="s">
+      <c r="X85" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="Y84" s="45" t="s">
+      <c r="Y85" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="Z84" s="45" t="s">
+      <c r="Z85" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="AA84" s="45" t="s">
+      <c r="AA85" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="AB84" s="45" t="s">
+      <c r="AB85" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="AC84" s="45" t="s">
+      <c r="AC85" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="AD84" s="45" t="s">
+      <c r="AD85" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="AE84" s="45" t="s">
+      <c r="AE85" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="AF84" s="45" t="s">
+      <c r="AF85" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AG84" s="45" t="s">
+      <c r="AG85" s="43" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="85" spans="2:33" ht="31.2" customHeight="1">
-      <c r="B85" s="45" t="s">
+    <row r="86" spans="2:33" ht="31.2" customHeight="1">
+      <c r="B86" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C85" s="46" t="s">
+      <c r="C86" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="D85" s="46" t="s">
+      <c r="D86" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="E85" s="46" t="s">
+      <c r="E86" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="F85" s="46" t="s">
+      <c r="F86" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="G85" s="46" t="s">
+      <c r="G86" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="H85" s="46" t="s">
+      <c r="H86" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="I85" s="46" t="s">
+      <c r="I86" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="J85" s="46" t="s">
+      <c r="J86" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="K85" s="46" t="s">
+      <c r="K86" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="L85" s="46" t="s">
+      <c r="L86" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="M85" s="46" t="s">
+      <c r="M86" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="N85" s="46" t="s">
+      <c r="N86" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="O85" s="46" t="s">
+      <c r="O86" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="P85" s="46" t="s">
+      <c r="P86" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="Q85" s="46" t="s">
+      <c r="Q86" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="R85" s="46" t="s">
+      <c r="R86" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="S85" s="46" t="s">
+      <c r="S86" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="T85" s="46" t="s">
+      <c r="T86" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="U85" s="46" t="s">
+      <c r="U86" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="V85" s="46" t="s">
+      <c r="V86" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="W85" s="46" t="s">
+      <c r="W86" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="X85" s="46"/>
-      <c r="Y85" s="46"/>
-      <c r="Z85" s="46"/>
-      <c r="AA85" s="46"/>
-      <c r="AB85" s="46"/>
-      <c r="AC85" s="46"/>
-      <c r="AD85" s="46"/>
-      <c r="AE85" s="46"/>
-      <c r="AF85" s="46"/>
-      <c r="AG85" s="46"/>
-    </row>
-    <row r="86" spans="2:33" ht="31.2" customHeight="1">
-      <c r="B86" s="45" t="s">
+      <c r="X86" s="44"/>
+      <c r="Y86" s="44"/>
+      <c r="Z86" s="44"/>
+      <c r="AA86" s="44"/>
+      <c r="AB86" s="44"/>
+      <c r="AC86" s="44"/>
+      <c r="AD86" s="44"/>
+      <c r="AE86" s="44"/>
+      <c r="AF86" s="44"/>
+      <c r="AG86" s="44"/>
+    </row>
+    <row r="87" spans="2:33" ht="31.2" customHeight="1">
+      <c r="B87" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C86" s="46" t="s">
+      <c r="C87" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="D86" s="46" t="s">
+      <c r="D87" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="E86" s="46" t="s">
+      <c r="E87" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="F86" s="46" t="s">
+      <c r="F87" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="G86" s="46" t="s">
+      <c r="G87" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="H86" s="46" t="s">
+      <c r="H87" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="I86" s="46">
+      <c r="I87" s="44">
         <v>27</v>
       </c>
-      <c r="J86" s="46" t="s">
+      <c r="J87" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="K86" s="46" t="s">
+      <c r="K87" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="L86" s="46" t="s">
+      <c r="L87" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="M86" s="46" t="s">
+      <c r="M87" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="N86" s="46" t="s">
+      <c r="N87" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="O86" s="46" t="s">
+      <c r="O87" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="P86" s="46" t="s">
+      <c r="P87" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="Q86" s="46" t="s">
+      <c r="Q87" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="R86" s="46" t="s">
+      <c r="R87" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="S86" s="46" t="s">
+      <c r="S87" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="T86" s="46" t="s">
+      <c r="T87" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="U86" s="46" t="s">
+      <c r="U87" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="V86" s="46" t="s">
+      <c r="V87" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="W86" s="46" t="s">
+      <c r="W87" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="X86" s="46" t="s">
+      <c r="X87" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="Y86" s="46" t="s">
+      <c r="Y87" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="Z86" s="46" t="s">
+      <c r="Z87" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="AA86" s="46" t="s">
+      <c r="AA87" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="AB86" s="46" t="s">
+      <c r="AB87" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="AC86" s="46" t="s">
+      <c r="AC87" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="AD86" s="46" t="s">
+      <c r="AD87" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="AE86" s="46" t="s">
+      <c r="AE87" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="AF86" s="46"/>
-      <c r="AG86" s="46"/>
-    </row>
-    <row r="87" spans="2:33" ht="31.2" customHeight="1">
-      <c r="B87" s="45" t="s">
+      <c r="AF87" s="44"/>
+      <c r="AG87" s="44"/>
+    </row>
+    <row r="88" spans="2:33" ht="31.2" customHeight="1">
+      <c r="B88" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C87" s="46" t="s">
+      <c r="C88" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="D87" s="46" t="s">
+      <c r="D88" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="E87" s="46" t="s">
+      <c r="E88" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="F87" s="46" t="s">
+      <c r="F88" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="G87" s="46" t="s">
+      <c r="G88" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="H87" s="46" t="s">
+      <c r="H88" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="I87" s="46" t="s">
+      <c r="I88" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="J87" s="46"/>
-      <c r="K87" s="46"/>
-      <c r="L87" s="46"/>
-      <c r="M87" s="46"/>
-      <c r="N87" s="46"/>
-      <c r="O87" s="46"/>
-      <c r="P87" s="46"/>
-      <c r="Q87" s="46"/>
-      <c r="R87" s="46"/>
-      <c r="S87" s="46"/>
-      <c r="T87" s="46"/>
-      <c r="U87" s="46"/>
-      <c r="V87" s="46"/>
-      <c r="W87" s="46"/>
-      <c r="X87" s="46"/>
-      <c r="Y87" s="46"/>
-      <c r="Z87" s="46"/>
-      <c r="AA87" s="46"/>
-      <c r="AB87" s="46"/>
-      <c r="AC87" s="46"/>
-      <c r="AD87" s="46"/>
-      <c r="AE87" s="46"/>
-      <c r="AF87" s="46"/>
-      <c r="AG87" s="46"/>
-    </row>
-    <row r="88" spans="2:33" ht="31.2" customHeight="1">
-      <c r="B88" s="45" t="s">
+      <c r="J88" s="44"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="44"/>
+      <c r="M88" s="44"/>
+      <c r="N88" s="44"/>
+      <c r="O88" s="44"/>
+      <c r="P88" s="44"/>
+      <c r="Q88" s="44"/>
+      <c r="R88" s="44"/>
+      <c r="S88" s="44"/>
+      <c r="T88" s="44"/>
+      <c r="U88" s="44"/>
+      <c r="V88" s="44"/>
+      <c r="W88" s="44"/>
+      <c r="X88" s="44"/>
+      <c r="Y88" s="44"/>
+      <c r="Z88" s="44"/>
+      <c r="AA88" s="44"/>
+      <c r="AB88" s="44"/>
+      <c r="AC88" s="44"/>
+      <c r="AD88" s="44"/>
+      <c r="AE88" s="44"/>
+      <c r="AF88" s="44"/>
+      <c r="AG88" s="44"/>
+    </row>
+    <row r="89" spans="2:33" ht="31.2" customHeight="1">
+      <c r="B89" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C88" s="46" t="s">
+      <c r="C89" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="D88" s="46" t="s">
+      <c r="D89" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="E88" s="46" t="s">
+      <c r="E89" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="F88" s="46" t="s">
+      <c r="F89" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="G88" s="46" t="s">
+      <c r="G89" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="H88" s="46" t="s">
+      <c r="H89" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="I88" s="46" t="s">
+      <c r="I89" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="J88" s="46" t="s">
+      <c r="J89" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="K88" s="46" t="s">
+      <c r="K89" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="L88" s="46"/>
-      <c r="M88" s="46"/>
-      <c r="N88" s="46"/>
-      <c r="O88" s="46"/>
-      <c r="P88" s="46"/>
-      <c r="Q88" s="46"/>
-      <c r="R88" s="46"/>
-      <c r="S88" s="46"/>
-      <c r="T88" s="46"/>
-      <c r="U88" s="46"/>
-      <c r="V88" s="46"/>
-      <c r="W88" s="46"/>
-      <c r="X88" s="46"/>
-      <c r="Y88" s="46"/>
-      <c r="Z88" s="46"/>
-      <c r="AA88" s="46"/>
-      <c r="AB88" s="46"/>
-      <c r="AC88" s="46"/>
-      <c r="AD88" s="46"/>
-      <c r="AE88" s="46"/>
-      <c r="AF88" s="46"/>
-      <c r="AG88" s="46"/>
-    </row>
-    <row r="89" spans="2:33" ht="31.2" customHeight="1">
-      <c r="B89" s="45" t="s">
+      <c r="L89" s="44"/>
+      <c r="M89" s="44"/>
+      <c r="N89" s="44"/>
+      <c r="O89" s="44"/>
+      <c r="P89" s="44"/>
+      <c r="Q89" s="44"/>
+      <c r="R89" s="44"/>
+      <c r="S89" s="44"/>
+      <c r="T89" s="44"/>
+      <c r="U89" s="44"/>
+      <c r="V89" s="44"/>
+      <c r="W89" s="44"/>
+      <c r="X89" s="44"/>
+      <c r="Y89" s="44"/>
+      <c r="Z89" s="44"/>
+      <c r="AA89" s="44"/>
+      <c r="AB89" s="44"/>
+      <c r="AC89" s="44"/>
+      <c r="AD89" s="44"/>
+      <c r="AE89" s="44"/>
+      <c r="AF89" s="44"/>
+      <c r="AG89" s="44"/>
+    </row>
+    <row r="90" spans="2:33" ht="31.2" customHeight="1">
+      <c r="B90" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C89" s="46" t="s">
+      <c r="C90" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="D89" s="46" t="s">
+      <c r="D90" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="E89" s="46" t="s">
+      <c r="E90" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="F89" s="46" t="s">
+      <c r="F90" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="G89" s="46" t="s">
+      <c r="G90" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="H89" s="46" t="s">
+      <c r="H90" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="I89" s="46" t="s">
+      <c r="I90" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="J89" s="46">
+      <c r="J90" s="44">
         <v>73</v>
       </c>
-      <c r="K89" s="46" t="s">
+      <c r="K90" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="L89" s="46" t="s">
+      <c r="L90" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="M89" s="46" t="s">
+      <c r="M90" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="N89" s="46" t="s">
+      <c r="N90" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="O89" s="46" t="s">
+      <c r="O90" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="P89" s="46" t="s">
+      <c r="P90" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="Q89" s="46" t="s">
+      <c r="Q90" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="R89" s="46" t="s">
+      <c r="R90" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="S89" s="46" t="s">
+      <c r="S90" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="T89" s="46" t="s">
+      <c r="T90" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="U89" s="46" t="s">
+      <c r="U90" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="V89" s="46" t="s">
+      <c r="V90" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="W89" s="46" t="s">
+      <c r="W90" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="X89" s="46" t="s">
+      <c r="X90" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="Y89" s="46" t="s">
+      <c r="Y90" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="Z89" s="46" t="s">
+      <c r="Z90" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="AA89" s="46" t="s">
+      <c r="AA90" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="AB89" s="46" t="s">
+      <c r="AB90" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="AC89" s="46" t="s">
+      <c r="AC90" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="AD89" s="46" t="s">
+      <c r="AD90" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="AE89" s="46" t="s">
+      <c r="AE90" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="AF89" s="46" t="s">
+      <c r="AF90" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="AG89" s="46" t="s">
+      <c r="AG90" s="44" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="90" spans="2:33" ht="31.2" customHeight="1">
-      <c r="B90" s="45" t="s">
+    <row r="91" spans="2:33" ht="31.2" customHeight="1">
+      <c r="B91" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C90" s="46" t="s">
+      <c r="C91" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="D90" s="46" t="s">
+      <c r="D91" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="E90" s="46" t="s">
+      <c r="E91" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="F90" s="46" t="s">
+      <c r="F91" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="G90" s="46" t="s">
+      <c r="G91" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="H90" s="46" t="s">
+      <c r="H91" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="I90" s="46" t="s">
+      <c r="I91" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="J90" s="46" t="s">
+      <c r="J91" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="K90" s="46" t="s">
+      <c r="K91" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="L90" s="46" t="s">
+      <c r="L91" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="M90" s="46"/>
-      <c r="N90" s="46"/>
-      <c r="O90" s="46"/>
-      <c r="P90" s="46"/>
-      <c r="Q90" s="46"/>
-      <c r="R90" s="46"/>
-      <c r="S90" s="46"/>
-      <c r="T90" s="46"/>
-      <c r="U90" s="46"/>
-      <c r="V90" s="46"/>
-      <c r="W90" s="46"/>
-      <c r="X90" s="46"/>
-      <c r="Y90" s="46"/>
-      <c r="Z90" s="46"/>
-      <c r="AA90" s="46"/>
-      <c r="AB90" s="46"/>
-      <c r="AC90" s="46"/>
-      <c r="AD90" s="46"/>
-      <c r="AE90" s="46"/>
-      <c r="AF90" s="46"/>
-      <c r="AG90" s="46"/>
-    </row>
-    <row r="91" spans="2:33" ht="31.2" customHeight="1">
-      <c r="B91" s="45" t="s">
+      <c r="M91" s="44"/>
+      <c r="N91" s="44"/>
+      <c r="O91" s="44"/>
+      <c r="P91" s="44"/>
+      <c r="Q91" s="44"/>
+      <c r="R91" s="44"/>
+      <c r="S91" s="44"/>
+      <c r="T91" s="44"/>
+      <c r="U91" s="44"/>
+      <c r="V91" s="44"/>
+      <c r="W91" s="44"/>
+      <c r="X91" s="44"/>
+      <c r="Y91" s="44"/>
+      <c r="Z91" s="44"/>
+      <c r="AA91" s="44"/>
+      <c r="AB91" s="44"/>
+      <c r="AC91" s="44"/>
+      <c r="AD91" s="44"/>
+      <c r="AE91" s="44"/>
+      <c r="AF91" s="44"/>
+      <c r="AG91" s="44"/>
+    </row>
+    <row r="92" spans="2:33" ht="31.2" customHeight="1">
+      <c r="B92" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="46" t="s">
+      <c r="C92" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="D91" s="46" t="s">
+      <c r="D92" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="E91" s="46" t="s">
+      <c r="E92" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="F91" s="46" t="s">
+      <c r="F92" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="G91" s="46" t="s">
+      <c r="G92" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="H91" s="46" t="s">
+      <c r="H92" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="I91" s="46" t="s">
+      <c r="I92" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="J91" s="46" t="s">
+      <c r="J92" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="K91" s="46" t="s">
+      <c r="K92" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="L91" s="46"/>
-      <c r="M91" s="46"/>
-      <c r="N91" s="46"/>
-      <c r="O91" s="46"/>
-      <c r="P91" s="46"/>
-      <c r="Q91" s="46"/>
-      <c r="R91" s="46"/>
-      <c r="S91" s="46"/>
-      <c r="T91" s="46"/>
-      <c r="U91" s="46"/>
-      <c r="V91" s="46"/>
-      <c r="W91" s="46"/>
-      <c r="X91" s="46"/>
-      <c r="Y91" s="46"/>
-      <c r="Z91" s="46"/>
-      <c r="AA91" s="46"/>
-      <c r="AB91" s="46"/>
-      <c r="AC91" s="46"/>
-      <c r="AD91" s="46"/>
-      <c r="AE91" s="46"/>
-      <c r="AF91" s="46"/>
-      <c r="AG91" s="46"/>
-    </row>
-    <row r="92" spans="2:33" ht="31.2" customHeight="1">
-      <c r="B92" s="45" t="s">
+      <c r="L92" s="44"/>
+      <c r="M92" s="44"/>
+      <c r="N92" s="44"/>
+      <c r="O92" s="44"/>
+      <c r="P92" s="44"/>
+      <c r="Q92" s="44"/>
+      <c r="R92" s="44"/>
+      <c r="S92" s="44"/>
+      <c r="T92" s="44"/>
+      <c r="U92" s="44"/>
+      <c r="V92" s="44"/>
+      <c r="W92" s="44"/>
+      <c r="X92" s="44"/>
+      <c r="Y92" s="44"/>
+      <c r="Z92" s="44"/>
+      <c r="AA92" s="44"/>
+      <c r="AB92" s="44"/>
+      <c r="AC92" s="44"/>
+      <c r="AD92" s="44"/>
+      <c r="AE92" s="44"/>
+      <c r="AF92" s="44"/>
+      <c r="AG92" s="44"/>
+    </row>
+    <row r="93" spans="2:33" ht="31.2" customHeight="1">
+      <c r="B93" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C92" s="46" t="s">
+      <c r="C93" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="D92" s="46" t="s">
+      <c r="D93" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="E92" s="46" t="s">
+      <c r="E93" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="F92" s="46" t="s">
+      <c r="F93" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="G92" s="46" t="s">
+      <c r="G93" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="H92" s="46" t="s">
+      <c r="H93" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="I92" s="46" t="s">
+      <c r="I93" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="J92" s="46" t="s">
+      <c r="J93" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="K92" s="46" t="s">
+      <c r="K93" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="L92" s="46" t="s">
+      <c r="L93" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="M92" s="46" t="s">
+      <c r="M93" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="N92" s="46" t="s">
+      <c r="N93" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="O92" s="46" t="s">
+      <c r="O93" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="P92" s="46" t="s">
+      <c r="P93" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="Q92" s="46" t="s">
+      <c r="Q93" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="R92" s="46" t="s">
+      <c r="R93" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="S92" s="46" t="s">
+      <c r="S93" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="T92" s="46" t="s">
+      <c r="T93" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="U92" s="46" t="s">
+      <c r="U93" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="V92" s="46" t="s">
+      <c r="V93" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="W92" s="46" t="s">
+      <c r="W93" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="X92" s="46" t="s">
+      <c r="X93" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="Y92" s="46" t="s">
+      <c r="Y93" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="Z92" s="46" t="s">
+      <c r="Z93" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="AA92" s="46" t="s">
+      <c r="AA93" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="AB92" s="46" t="s">
+      <c r="AB93" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="AC92" s="46" t="s">
+      <c r="AC93" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="AD92" s="46" t="s">
+      <c r="AD93" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="AE92" s="46" t="s">
+      <c r="AE93" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AF92" s="46" t="s">
+      <c r="AF93" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="AG92" s="46" t="s">
+      <c r="AG93" s="44" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="93" spans="2:33" ht="31.2" customHeight="1">
-      <c r="B93" s="45" t="s">
+    <row r="94" spans="2:33" ht="31.2" customHeight="1">
+      <c r="B94" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C93" s="46" t="s">
+      <c r="C94" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="D93" s="46" t="s">
+      <c r="D94" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="E93" s="46" t="s">
+      <c r="E94" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="F93" s="46" t="s">
+      <c r="F94" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="G93" s="46" t="s">
+      <c r="G94" s="44" t="s">
         <v>231</v>
       </c>
-      <c r="H93" s="46" t="s">
+      <c r="H94" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="I93" s="46" t="s">
+      <c r="I94" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="J93" s="46" t="s">
+      <c r="J94" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="K93" s="46" t="s">
+      <c r="K94" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="L93" s="46" t="s">
+      <c r="L94" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="M93" s="46"/>
-      <c r="N93" s="46"/>
-      <c r="O93" s="46"/>
-      <c r="P93" s="46"/>
-      <c r="Q93" s="46"/>
-      <c r="R93" s="46"/>
-      <c r="S93" s="46"/>
-      <c r="T93" s="46"/>
-      <c r="U93" s="46"/>
-      <c r="V93" s="46"/>
-      <c r="W93" s="46"/>
-      <c r="X93" s="46"/>
-      <c r="Y93" s="46"/>
-      <c r="Z93" s="46"/>
-      <c r="AA93" s="46"/>
-      <c r="AB93" s="46"/>
-      <c r="AC93" s="46"/>
-      <c r="AD93" s="46"/>
-      <c r="AE93" s="46"/>
-      <c r="AF93" s="46"/>
-      <c r="AG93" s="46"/>
-    </row>
-    <row r="94" spans="2:33" ht="31.2" customHeight="1">
-      <c r="B94" s="45" t="s">
+      <c r="M94" s="44"/>
+      <c r="N94" s="44"/>
+      <c r="O94" s="44"/>
+      <c r="P94" s="44"/>
+      <c r="Q94" s="44"/>
+      <c r="R94" s="44"/>
+      <c r="S94" s="44"/>
+      <c r="T94" s="44"/>
+      <c r="U94" s="44"/>
+      <c r="V94" s="44"/>
+      <c r="W94" s="44"/>
+      <c r="X94" s="44"/>
+      <c r="Y94" s="44"/>
+      <c r="Z94" s="44"/>
+      <c r="AA94" s="44"/>
+      <c r="AB94" s="44"/>
+      <c r="AC94" s="44"/>
+      <c r="AD94" s="44"/>
+      <c r="AE94" s="44"/>
+      <c r="AF94" s="44"/>
+      <c r="AG94" s="44"/>
+    </row>
+    <row r="95" spans="2:33" ht="31.2" customHeight="1">
+      <c r="B95" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="46" t="s">
+      <c r="C95" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="D94" s="46" t="s">
+      <c r="D95" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="E94" s="46" t="s">
+      <c r="E95" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="F94" s="46" t="s">
+      <c r="F95" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="G94" s="46" t="s">
+      <c r="G95" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="H94" s="46" t="s">
+      <c r="H95" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="I94" s="46" t="s">
+      <c r="I95" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="J94" s="46" t="s">
+      <c r="J95" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="K94" s="46"/>
-      <c r="L94" s="46"/>
-      <c r="M94" s="46"/>
-      <c r="N94" s="46"/>
-      <c r="O94" s="46"/>
-      <c r="P94" s="46"/>
-      <c r="Q94" s="46"/>
-      <c r="R94" s="46"/>
-      <c r="S94" s="46"/>
-      <c r="T94" s="46"/>
-      <c r="U94" s="46"/>
-      <c r="V94" s="46"/>
-      <c r="W94" s="46"/>
-      <c r="X94" s="46"/>
-      <c r="Y94" s="46"/>
-      <c r="Z94" s="46"/>
-      <c r="AA94" s="46"/>
-      <c r="AB94" s="46"/>
-      <c r="AC94" s="46"/>
-      <c r="AD94" s="46"/>
-      <c r="AE94" s="46"/>
-      <c r="AF94" s="46"/>
-      <c r="AG94" s="46"/>
-    </row>
-    <row r="95" spans="2:33" ht="31.2" customHeight="1">
-      <c r="B95" s="45" t="s">
+      <c r="K95" s="44"/>
+      <c r="L95" s="44"/>
+      <c r="M95" s="44"/>
+      <c r="N95" s="44"/>
+      <c r="O95" s="44"/>
+      <c r="P95" s="44"/>
+      <c r="Q95" s="44"/>
+      <c r="R95" s="44"/>
+      <c r="S95" s="44"/>
+      <c r="T95" s="44"/>
+      <c r="U95" s="44"/>
+      <c r="V95" s="44"/>
+      <c r="W95" s="44"/>
+      <c r="X95" s="44"/>
+      <c r="Y95" s="44"/>
+      <c r="Z95" s="44"/>
+      <c r="AA95" s="44"/>
+      <c r="AB95" s="44"/>
+      <c r="AC95" s="44"/>
+      <c r="AD95" s="44"/>
+      <c r="AE95" s="44"/>
+      <c r="AF95" s="44"/>
+      <c r="AG95" s="44"/>
+    </row>
+    <row r="96" spans="2:33" ht="31.2" customHeight="1">
+      <c r="B96" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="46" t="s">
+      <c r="C96" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="D95" s="46" t="s">
+      <c r="D96" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="E95" s="46" t="s">
+      <c r="E96" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="F95" s="46" t="s">
+      <c r="F96" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="G95" s="46" t="s">
+      <c r="G96" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="H95" s="46" t="s">
+      <c r="H96" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="I95" s="46" t="s">
+      <c r="I96" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="J95" s="46"/>
-      <c r="K95" s="46"/>
-      <c r="L95" s="46"/>
-      <c r="M95" s="46"/>
-      <c r="N95" s="46"/>
-      <c r="O95" s="46"/>
-      <c r="P95" s="46"/>
-      <c r="Q95" s="46"/>
-      <c r="R95" s="46"/>
-      <c r="S95" s="46"/>
-      <c r="T95" s="46"/>
-      <c r="U95" s="46"/>
-      <c r="V95" s="46"/>
-      <c r="W95" s="46"/>
-      <c r="X95" s="46"/>
-      <c r="Y95" s="46"/>
-      <c r="Z95" s="46"/>
-      <c r="AA95" s="46"/>
-      <c r="AB95" s="46"/>
-      <c r="AC95" s="46"/>
-      <c r="AD95" s="46"/>
-      <c r="AE95" s="46"/>
-      <c r="AF95" s="46"/>
-      <c r="AG95" s="46"/>
-    </row>
-    <row r="96" spans="2:33" ht="31.2" customHeight="1"/>
-    <row r="97" ht="31.2" customHeight="1"/>
-    <row r="98" ht="31.2" customHeight="1"/>
-    <row r="99" ht="31.2" customHeight="1"/>
-    <row r="100" ht="31.2" customHeight="1"/>
-    <row r="101" ht="31.2" customHeight="1"/>
-    <row r="102" ht="31.2" customHeight="1"/>
-    <row r="103" ht="31.2" customHeight="1"/>
-    <row r="104" ht="31.2" customHeight="1"/>
-    <row r="105" ht="31.2" customHeight="1"/>
-    <row r="106" ht="31.2" customHeight="1"/>
-    <row r="107" ht="31.2" customHeight="1"/>
-    <row r="108" ht="31.2" customHeight="1"/>
-    <row r="109" ht="31.2" customHeight="1"/>
-    <row r="110" ht="31.2" customHeight="1"/>
-    <row r="111" ht="31.2" customHeight="1"/>
-    <row r="112" ht="31.2" customHeight="1"/>
+      <c r="J96" s="44"/>
+      <c r="K96" s="44"/>
+      <c r="L96" s="44"/>
+      <c r="M96" s="44"/>
+      <c r="N96" s="44"/>
+      <c r="O96" s="44"/>
+      <c r="P96" s="44"/>
+      <c r="Q96" s="44"/>
+      <c r="R96" s="44"/>
+      <c r="S96" s="44"/>
+      <c r="T96" s="44"/>
+      <c r="U96" s="44"/>
+      <c r="V96" s="44"/>
+      <c r="W96" s="44"/>
+      <c r="X96" s="44"/>
+      <c r="Y96" s="44"/>
+      <c r="Z96" s="44"/>
+      <c r="AA96" s="44"/>
+      <c r="AB96" s="44"/>
+      <c r="AC96" s="44"/>
+      <c r="AD96" s="44"/>
+      <c r="AE96" s="44"/>
+      <c r="AF96" s="44"/>
+      <c r="AG96" s="44"/>
+    </row>
+    <row r="97" spans="2:33" ht="31.2" customHeight="1"/>
+    <row r="98" spans="2:33" ht="31.2" customHeight="1"/>
+    <row r="99" spans="2:33" ht="31.2" customHeight="1"/>
+    <row r="100" spans="2:33" ht="31.2" customHeight="1">
+      <c r="B100" s="43"/>
+      <c r="C100" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E100" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F100" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="J100" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="K100" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="M100" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="N100" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="O100" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="P100" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q100" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="R100" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="S100" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="T100" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="U100" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="V100" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="W100" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="X100" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y100" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z100" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA100" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB100" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC100" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD100" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE100" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF100" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG100" s="43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="101" spans="2:33" ht="31.2" customHeight="1">
+      <c r="B101" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D101" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="E101" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F101" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="G101" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H101" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I101" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="J101" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="K101" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="L101" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="M101" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="N101" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="O101" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="P101" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q101" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="R101" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="S101" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="T101" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="U101" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="V101" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="W101" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="X101" s="44"/>
+      <c r="Y101" s="44"/>
+      <c r="Z101" s="44"/>
+      <c r="AA101" s="44"/>
+      <c r="AB101" s="44"/>
+      <c r="AC101" s="44"/>
+      <c r="AD101" s="44"/>
+      <c r="AE101" s="44"/>
+      <c r="AF101" s="44"/>
+      <c r="AG101" s="44"/>
+    </row>
+    <row r="102" spans="2:33" ht="31.2" customHeight="1">
+      <c r="B102" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="D102" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="E102" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="F102" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="G102" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="H102" s="44">
+        <v>27</v>
+      </c>
+      <c r="I102" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="J102" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="K102" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="L102" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="M102" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="N102" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="O102" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="P102" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q102" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="R102" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="S102" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="T102" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="U102" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="V102" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="W102" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="X102" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y102" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z102" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA102" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB102" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC102" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD102" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE102" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="AG102" s="44"/>
+    </row>
+    <row r="103" spans="2:33" ht="31.2" customHeight="1">
+      <c r="B103" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="D103" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="E103" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="F103" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="G103" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="H103" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="I103" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="K103" s="44"/>
+      <c r="L103" s="44"/>
+      <c r="M103" s="44"/>
+      <c r="N103" s="44"/>
+      <c r="O103" s="44"/>
+      <c r="P103" s="44"/>
+      <c r="Q103" s="44"/>
+      <c r="R103" s="44"/>
+      <c r="S103" s="44"/>
+      <c r="T103" s="44"/>
+      <c r="U103" s="44"/>
+      <c r="V103" s="44"/>
+      <c r="W103" s="44"/>
+      <c r="X103" s="44"/>
+      <c r="Y103" s="44"/>
+      <c r="Z103" s="44"/>
+      <c r="AA103" s="44"/>
+      <c r="AB103" s="44"/>
+      <c r="AC103" s="44"/>
+      <c r="AD103" s="44"/>
+      <c r="AE103" s="44"/>
+      <c r="AF103" s="44"/>
+      <c r="AG103" s="44"/>
+    </row>
+    <row r="104" spans="2:33" ht="31.2" customHeight="1">
+      <c r="B104" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D104" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="E104" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="F104" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="G104" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="H104" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I104" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="J104" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="K104" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="M104" s="44"/>
+      <c r="N104" s="44"/>
+      <c r="O104" s="44"/>
+      <c r="P104" s="44"/>
+      <c r="Q104" s="44"/>
+      <c r="R104" s="44"/>
+      <c r="S104" s="44"/>
+      <c r="T104" s="44"/>
+      <c r="U104" s="44"/>
+      <c r="V104" s="44"/>
+      <c r="W104" s="44"/>
+      <c r="X104" s="44"/>
+      <c r="Y104" s="44"/>
+      <c r="Z104" s="44"/>
+      <c r="AA104" s="44"/>
+      <c r="AB104" s="44"/>
+      <c r="AC104" s="44"/>
+      <c r="AD104" s="44"/>
+      <c r="AE104" s="44"/>
+      <c r="AF104" s="44"/>
+      <c r="AG104" s="44"/>
+    </row>
+    <row r="105" spans="2:33" ht="31.2" customHeight="1">
+      <c r="B105" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D105" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="E105" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F105" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="G105" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="H105" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="I105" s="44">
+        <v>73</v>
+      </c>
+      <c r="J105" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="K105" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="L105" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="M105" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="N105" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="O105" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="P105" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q105" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="R105" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="S105" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="T105" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="U105" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="V105" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="W105" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="X105" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y105" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z105" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA105" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB105" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC105" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD105" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE105" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF105" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG105" s="44" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="106" spans="2:33" ht="31.2" customHeight="1">
+      <c r="B106" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D106" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="E106" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="F106" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="G106" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="H106" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="I106" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="J106" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="K106" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="L106" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="M106" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="N106" s="44"/>
+      <c r="O106" s="44"/>
+      <c r="P106" s="44"/>
+      <c r="Q106" s="44"/>
+      <c r="R106" s="44"/>
+      <c r="S106" s="44"/>
+      <c r="T106" s="44"/>
+      <c r="U106" s="44"/>
+      <c r="V106" s="44"/>
+      <c r="W106" s="44"/>
+      <c r="X106" s="44"/>
+      <c r="Y106" s="44"/>
+      <c r="Z106" s="44"/>
+      <c r="AA106" s="44"/>
+      <c r="AB106" s="44"/>
+      <c r="AC106" s="44"/>
+      <c r="AD106" s="44"/>
+      <c r="AE106" s="44"/>
+      <c r="AF106" s="44"/>
+      <c r="AG106" s="44"/>
+    </row>
+    <row r="107" spans="2:33" ht="31.2" customHeight="1">
+      <c r="B107" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="D107" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="E107" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="F107" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="G107" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="H107" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="I107" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="J107" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="K107" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="M107" s="44"/>
+      <c r="N107" s="44"/>
+      <c r="O107" s="44"/>
+      <c r="P107" s="44"/>
+      <c r="Q107" s="44"/>
+      <c r="R107" s="44"/>
+      <c r="S107" s="44"/>
+      <c r="T107" s="44"/>
+      <c r="U107" s="44"/>
+      <c r="V107" s="44"/>
+      <c r="W107" s="44"/>
+      <c r="X107" s="44"/>
+      <c r="Y107" s="44"/>
+      <c r="Z107" s="44"/>
+      <c r="AA107" s="44"/>
+      <c r="AB107" s="44"/>
+      <c r="AC107" s="44"/>
+      <c r="AD107" s="44"/>
+      <c r="AE107" s="44"/>
+      <c r="AF107" s="44"/>
+      <c r="AG107" s="44"/>
+    </row>
+    <row r="108" spans="2:33" ht="31.2" customHeight="1">
+      <c r="B108" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="D108" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="E108" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="F108" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="G108" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="H108" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="I108" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="J108" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="K108" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="L108" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="M108" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="N108" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="O108" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="P108" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q108" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="R108" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="S108" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="T108" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="U108" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="V108" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="W108" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="X108" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y108" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z108" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA108" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB108" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC108" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD108" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE108" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF108" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG108" s="44" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="109" spans="2:33" ht="31.2" customHeight="1">
+      <c r="B109" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="D109" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="E109" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="F109" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="G109" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="H109" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="I109" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="J109" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="K109" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="L109" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="N109" s="44"/>
+      <c r="O109" s="44"/>
+      <c r="P109" s="44"/>
+      <c r="Q109" s="44"/>
+      <c r="R109" s="44"/>
+      <c r="S109" s="44"/>
+      <c r="T109" s="44"/>
+      <c r="U109" s="44"/>
+      <c r="V109" s="44"/>
+      <c r="W109" s="44"/>
+      <c r="X109" s="44"/>
+      <c r="Y109" s="44"/>
+      <c r="Z109" s="44"/>
+      <c r="AA109" s="44"/>
+      <c r="AB109" s="44"/>
+      <c r="AC109" s="44"/>
+      <c r="AD109" s="44"/>
+      <c r="AE109" s="44"/>
+      <c r="AF109" s="44"/>
+      <c r="AG109" s="44"/>
+    </row>
+    <row r="110" spans="2:33" ht="31.2" customHeight="1">
+      <c r="B110" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D110" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="E110" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="F110" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="G110" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="H110" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="I110" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="J110" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="L110" s="44"/>
+      <c r="M110" s="44"/>
+      <c r="N110" s="44"/>
+      <c r="O110" s="44"/>
+      <c r="P110" s="44"/>
+      <c r="Q110" s="44"/>
+      <c r="R110" s="44"/>
+      <c r="S110" s="44"/>
+      <c r="T110" s="44"/>
+      <c r="U110" s="44"/>
+      <c r="V110" s="44"/>
+      <c r="W110" s="44"/>
+      <c r="X110" s="44"/>
+      <c r="Y110" s="44"/>
+      <c r="Z110" s="44"/>
+      <c r="AA110" s="44"/>
+      <c r="AB110" s="44"/>
+      <c r="AC110" s="44"/>
+      <c r="AD110" s="44"/>
+      <c r="AE110" s="44"/>
+      <c r="AF110" s="44"/>
+      <c r="AG110" s="44"/>
+    </row>
+    <row r="111" spans="2:33" ht="31.2" customHeight="1">
+      <c r="B111" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="D111" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="E111" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="F111" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="G111" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="H111" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="J111" s="44"/>
+      <c r="K111" s="44"/>
+      <c r="L111" s="44"/>
+      <c r="M111" s="44"/>
+      <c r="N111" s="44"/>
+      <c r="O111" s="44"/>
+      <c r="P111" s="44"/>
+      <c r="Q111" s="44"/>
+      <c r="R111" s="44"/>
+      <c r="S111" s="44"/>
+      <c r="T111" s="44"/>
+      <c r="U111" s="44"/>
+      <c r="V111" s="44"/>
+      <c r="W111" s="44"/>
+      <c r="X111" s="44"/>
+      <c r="Y111" s="44"/>
+      <c r="Z111" s="44"/>
+      <c r="AA111" s="44"/>
+      <c r="AB111" s="44"/>
+      <c r="AC111" s="44"/>
+      <c r="AD111" s="44"/>
+      <c r="AE111" s="44"/>
+      <c r="AF111" s="44"/>
+      <c r="AG111" s="44"/>
+    </row>
+    <row r="112" spans="2:33" ht="31.2" customHeight="1"/>
     <row r="113" ht="31.2" customHeight="1"/>
     <row r="114" ht="31.2" customHeight="1"/>
     <row r="115" ht="31.2" customHeight="1"/>
@@ -14406,6 +15297,7 @@
     <row r="243" ht="31.2" customHeight="1"/>
     <row r="244" ht="31.2" customHeight="1"/>
     <row r="245" ht="31.2" customHeight="1"/>
+    <row r="246" ht="31.2" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/files/分词.xlsx
+++ b/docs/files/分词.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="273">
   <si>
     <r>
       <rPr>
@@ -700,19 +700,6 @@
   </si>
   <si>
     <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一共 11 行， 10 个 \n 换行符，所以总长度为 171</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1375,6 +1362,26 @@
   </si>
   <si>
     <t>165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一共 11 行， 10 个 \n 换行符，所以总长度为 171</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1417,13 +1424,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="16"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
@@ -1460,6 +1460,13 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -1880,16 +1887,16 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1952,7 +1959,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1979,7 +1986,7 @@
     <xf numFmtId="49" fontId="3" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1988,23 +1995,23 @@
     <xf numFmtId="49" fontId="3" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2381,46 +2388,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="409.6">
       <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
         <v>76</v>
       </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF200"/>
+  <dimension ref="A1:AG200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AF13"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="32" width="4.09765625" customWidth="1"/>
-    <col min="33" max="33" width="4.3984375" customWidth="1"/>
+    <col min="1" max="33" width="4.09765625" customWidth="1"/>
+    <col min="34" max="34" width="4.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="27" customHeight="1" thickBot="1">
+    <row r="1" spans="1:33" ht="27" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2453,8 +2460,9 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
-    </row>
-    <row r="2" spans="1:32" ht="27" customHeight="1" thickTop="1" thickBot="1">
+      <c r="AG1" s="1"/>
+    </row>
+    <row r="2" spans="1:33" ht="27" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
@@ -2542,13 +2550,16 @@
         <v>27</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="27" customHeight="1" thickTop="1">
+        <v>268</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="27" customHeight="1" thickTop="1">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -2620,9 +2631,10 @@
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
-      <c r="AF3" s="7"/>
-    </row>
-    <row r="4" spans="1:32" ht="27" customHeight="1">
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="7"/>
+    </row>
+    <row r="4" spans="1:33" ht="27" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>1</v>
@@ -2706,9 +2718,10 @@
         <v>54</v>
       </c>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="7"/>
-    </row>
-    <row r="5" spans="1:32" ht="27" customHeight="1">
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="7"/>
+    </row>
+    <row r="5" spans="1:33" ht="27" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
         <v>2</v>
@@ -2750,9 +2763,10 @@
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
       <c r="AE5" s="6"/>
-      <c r="AF5" s="7"/>
-    </row>
-    <row r="6" spans="1:32" ht="27" customHeight="1">
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="7"/>
+    </row>
+    <row r="6" spans="1:33" ht="27" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
         <v>3</v>
@@ -2794,9 +2808,10 @@
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
       <c r="AE6" s="6"/>
-      <c r="AF6" s="7"/>
-    </row>
-    <row r="7" spans="1:32" ht="27" customHeight="1">
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="7"/>
+    </row>
+    <row r="7" spans="1:33" ht="27" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
         <v>4</v>
@@ -2872,13 +2887,14 @@
         <v>61</v>
       </c>
       <c r="AE7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF7" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF7" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" ht="27" customHeight="1">
+      <c r="AG7" s="7"/>
+    </row>
+    <row r="8" spans="1:33" ht="27" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
         <v>5</v>
@@ -2922,9 +2938,10 @@
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
       <c r="AE8" s="6"/>
-      <c r="AF8" s="7"/>
-    </row>
-    <row r="9" spans="1:32" ht="27" customHeight="1">
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="7"/>
+    </row>
+    <row r="9" spans="1:33" ht="27" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
         <v>6</v>
@@ -2966,9 +2983,10 @@
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
       <c r="AE9" s="6"/>
-      <c r="AF9" s="7"/>
-    </row>
-    <row r="10" spans="1:32" ht="27" customHeight="1">
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="7"/>
+    </row>
+    <row r="10" spans="1:33" ht="27" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
         <v>7</v>
@@ -3044,13 +3062,14 @@
         <v>61</v>
       </c>
       <c r="AE10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF10" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" ht="27" customHeight="1">
+      <c r="AG10" s="7"/>
+    </row>
+    <row r="11" spans="1:33" ht="27" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
         <v>8</v>
@@ -3094,9 +3113,10 @@
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
       <c r="AE11" s="6"/>
-      <c r="AF11" s="7"/>
-    </row>
-    <row r="12" spans="1:32" ht="27" customHeight="1">
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="7"/>
+    </row>
+    <row r="12" spans="1:33" ht="27" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
         <v>9</v>
@@ -3140,9 +3160,10 @@
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
       <c r="AE12" s="6"/>
-      <c r="AF12" s="7"/>
-    </row>
-    <row r="13" spans="1:32" ht="27" customHeight="1" thickBot="1">
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="7"/>
+    </row>
+    <row r="13" spans="1:33" ht="27" customHeight="1" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="11" t="s">
         <v>10</v>
@@ -3188,9 +3209,10 @@
       <c r="AC13" s="12"/>
       <c r="AD13" s="12"/>
       <c r="AE13" s="12"/>
-      <c r="AF13" s="14"/>
-    </row>
-    <row r="14" spans="1:32" ht="27.75" customHeight="1" thickTop="1">
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="14"/>
+    </row>
+    <row r="14" spans="1:33" ht="27.75" customHeight="1" thickTop="1">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -3221,46 +3243,48 @@
       <c r="AB14" s="15"/>
       <c r="AC14" s="15"/>
       <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
+      <c r="AE14" s="56"/>
       <c r="AF14" s="15"/>
-    </row>
-    <row r="15" spans="1:32" ht="27.75" customHeight="1">
+      <c r="AG14" s="15"/>
+    </row>
+    <row r="15" spans="1:33" ht="27.75" customHeight="1">
       <c r="A15" s="15"/>
-      <c r="B15" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
+      <c r="B15" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
       <c r="AB15" s="15"/>
       <c r="AC15" s="15"/>
       <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
+      <c r="AE15" s="56"/>
       <c r="AF15" s="15"/>
-    </row>
-    <row r="16" spans="1:32" ht="27.75" customHeight="1">
+      <c r="AG15" s="15"/>
+    </row>
+    <row r="16" spans="1:33" ht="27.75" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -3291,10 +3315,11 @@
       <c r="AB16" s="15"/>
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
-      <c r="AE16" s="15"/>
+      <c r="AE16" s="56"/>
       <c r="AF16" s="15"/>
-    </row>
-    <row r="17" spans="1:32" ht="27.75" customHeight="1">
+      <c r="AG16" s="15"/>
+    </row>
+    <row r="17" spans="1:33" ht="27.75" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -3325,10 +3350,11 @@
       <c r="AB17" s="15"/>
       <c r="AC17" s="15"/>
       <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
+      <c r="AE17" s="56"/>
       <c r="AF17" s="15"/>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="AG17" s="15"/>
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -3359,10 +3385,11 @@
       <c r="AB18" s="15"/>
       <c r="AC18" s="15"/>
       <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
+      <c r="AE18" s="56"/>
       <c r="AF18" s="15"/>
-    </row>
-    <row r="19" spans="1:32">
+      <c r="AG18" s="15"/>
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -3393,10 +3420,11 @@
       <c r="AB19" s="15"/>
       <c r="AC19" s="15"/>
       <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
+      <c r="AE19" s="56"/>
       <c r="AF19" s="15"/>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="AG19" s="15"/>
+    </row>
+    <row r="20" spans="1:33">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -3427,10 +3455,11 @@
       <c r="AB20" s="15"/>
       <c r="AC20" s="15"/>
       <c r="AD20" s="15"/>
-      <c r="AE20" s="15"/>
+      <c r="AE20" s="56"/>
       <c r="AF20" s="15"/>
-    </row>
-    <row r="21" spans="1:32">
+      <c r="AG20" s="15"/>
+    </row>
+    <row r="21" spans="1:33">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -3461,10 +3490,11 @@
       <c r="AB21" s="15"/>
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
-      <c r="AE21" s="15"/>
+      <c r="AE21" s="56"/>
       <c r="AF21" s="15"/>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AG21" s="15"/>
+    </row>
+    <row r="22" spans="1:33">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -3495,10 +3525,11 @@
       <c r="AB22" s="15"/>
       <c r="AC22" s="15"/>
       <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
+      <c r="AE22" s="56"/>
       <c r="AF22" s="15"/>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="AG22" s="15"/>
+    </row>
+    <row r="23" spans="1:33">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -3529,10 +3560,11 @@
       <c r="AB23" s="15"/>
       <c r="AC23" s="15"/>
       <c r="AD23" s="15"/>
-      <c r="AE23" s="15"/>
+      <c r="AE23" s="56"/>
       <c r="AF23" s="15"/>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="AG23" s="15"/>
+    </row>
+    <row r="24" spans="1:33">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -3563,10 +3595,11 @@
       <c r="AB24" s="15"/>
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
-      <c r="AE24" s="15"/>
+      <c r="AE24" s="56"/>
       <c r="AF24" s="15"/>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="AG24" s="15"/>
+    </row>
+    <row r="25" spans="1:33">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -3597,10 +3630,11 @@
       <c r="AB25" s="15"/>
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
-      <c r="AE25" s="15"/>
+      <c r="AE25" s="56"/>
       <c r="AF25" s="15"/>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="AG25" s="15"/>
+    </row>
+    <row r="26" spans="1:33">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -3631,10 +3665,11 @@
       <c r="AB26" s="15"/>
       <c r="AC26" s="15"/>
       <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
+      <c r="AE26" s="56"/>
       <c r="AF26" s="15"/>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="AG26" s="15"/>
+    </row>
+    <row r="27" spans="1:33">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -3665,10 +3700,11 @@
       <c r="AB27" s="15"/>
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
-      <c r="AE27" s="15"/>
+      <c r="AE27" s="56"/>
       <c r="AF27" s="15"/>
-    </row>
-    <row r="28" spans="1:32">
+      <c r="AG27" s="15"/>
+    </row>
+    <row r="28" spans="1:33">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -3699,10 +3735,11 @@
       <c r="AB28" s="15"/>
       <c r="AC28" s="15"/>
       <c r="AD28" s="15"/>
-      <c r="AE28" s="15"/>
+      <c r="AE28" s="56"/>
       <c r="AF28" s="15"/>
-    </row>
-    <row r="29" spans="1:32">
+      <c r="AG28" s="15"/>
+    </row>
+    <row r="29" spans="1:33">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -3733,10 +3770,11 @@
       <c r="AB29" s="15"/>
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
-      <c r="AE29" s="15"/>
+      <c r="AE29" s="56"/>
       <c r="AF29" s="15"/>
-    </row>
-    <row r="30" spans="1:32">
+      <c r="AG29" s="15"/>
+    </row>
+    <row r="30" spans="1:33">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -3767,10 +3805,11 @@
       <c r="AB30" s="15"/>
       <c r="AC30" s="15"/>
       <c r="AD30" s="15"/>
-      <c r="AE30" s="15"/>
+      <c r="AE30" s="56"/>
       <c r="AF30" s="15"/>
-    </row>
-    <row r="31" spans="1:32">
+      <c r="AG30" s="15"/>
+    </row>
+    <row r="31" spans="1:33">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -3801,10 +3840,11 @@
       <c r="AB31" s="15"/>
       <c r="AC31" s="15"/>
       <c r="AD31" s="15"/>
-      <c r="AE31" s="15"/>
+      <c r="AE31" s="56"/>
       <c r="AF31" s="15"/>
-    </row>
-    <row r="32" spans="1:32">
+      <c r="AG31" s="15"/>
+    </row>
+    <row r="32" spans="1:33">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -3835,10 +3875,11 @@
       <c r="AB32" s="15"/>
       <c r="AC32" s="15"/>
       <c r="AD32" s="15"/>
-      <c r="AE32" s="15"/>
+      <c r="AE32" s="56"/>
       <c r="AF32" s="15"/>
-    </row>
-    <row r="33" spans="1:32">
+      <c r="AG32" s="15"/>
+    </row>
+    <row r="33" spans="1:33">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -3869,10 +3910,11 @@
       <c r="AB33" s="15"/>
       <c r="AC33" s="15"/>
       <c r="AD33" s="15"/>
-      <c r="AE33" s="15"/>
+      <c r="AE33" s="56"/>
       <c r="AF33" s="15"/>
-    </row>
-    <row r="34" spans="1:32">
+      <c r="AG33" s="15"/>
+    </row>
+    <row r="34" spans="1:33">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -3903,10 +3945,11 @@
       <c r="AB34" s="15"/>
       <c r="AC34" s="15"/>
       <c r="AD34" s="15"/>
-      <c r="AE34" s="15"/>
+      <c r="AE34" s="56"/>
       <c r="AF34" s="15"/>
-    </row>
-    <row r="35" spans="1:32">
+      <c r="AG34" s="15"/>
+    </row>
+    <row r="35" spans="1:33">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -3937,10 +3980,11 @@
       <c r="AB35" s="15"/>
       <c r="AC35" s="15"/>
       <c r="AD35" s="15"/>
-      <c r="AE35" s="15"/>
+      <c r="AE35" s="56"/>
       <c r="AF35" s="15"/>
-    </row>
-    <row r="36" spans="1:32">
+      <c r="AG35" s="15"/>
+    </row>
+    <row r="36" spans="1:33">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -3971,10 +4015,11 @@
       <c r="AB36" s="15"/>
       <c r="AC36" s="15"/>
       <c r="AD36" s="15"/>
-      <c r="AE36" s="15"/>
+      <c r="AE36" s="56"/>
       <c r="AF36" s="15"/>
-    </row>
-    <row r="37" spans="1:32">
+      <c r="AG36" s="15"/>
+    </row>
+    <row r="37" spans="1:33">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -4005,10 +4050,11 @@
       <c r="AB37" s="15"/>
       <c r="AC37" s="15"/>
       <c r="AD37" s="15"/>
-      <c r="AE37" s="15"/>
+      <c r="AE37" s="56"/>
       <c r="AF37" s="15"/>
-    </row>
-    <row r="38" spans="1:32">
+      <c r="AG37" s="15"/>
+    </row>
+    <row r="38" spans="1:33">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -4039,10 +4085,11 @@
       <c r="AB38" s="15"/>
       <c r="AC38" s="15"/>
       <c r="AD38" s="15"/>
-      <c r="AE38" s="15"/>
+      <c r="AE38" s="56"/>
       <c r="AF38" s="15"/>
-    </row>
-    <row r="39" spans="1:32">
+      <c r="AG38" s="15"/>
+    </row>
+    <row r="39" spans="1:33">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -4073,10 +4120,11 @@
       <c r="AB39" s="15"/>
       <c r="AC39" s="15"/>
       <c r="AD39" s="15"/>
-      <c r="AE39" s="15"/>
+      <c r="AE39" s="56"/>
       <c r="AF39" s="15"/>
-    </row>
-    <row r="40" spans="1:32">
+      <c r="AG39" s="15"/>
+    </row>
+    <row r="40" spans="1:33">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -4107,10 +4155,11 @@
       <c r="AB40" s="15"/>
       <c r="AC40" s="15"/>
       <c r="AD40" s="15"/>
-      <c r="AE40" s="15"/>
+      <c r="AE40" s="56"/>
       <c r="AF40" s="15"/>
-    </row>
-    <row r="41" spans="1:32">
+      <c r="AG40" s="15"/>
+    </row>
+    <row r="41" spans="1:33">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -4141,10 +4190,11 @@
       <c r="AB41" s="15"/>
       <c r="AC41" s="15"/>
       <c r="AD41" s="15"/>
-      <c r="AE41" s="15"/>
+      <c r="AE41" s="56"/>
       <c r="AF41" s="15"/>
-    </row>
-    <row r="42" spans="1:32">
+      <c r="AG41" s="15"/>
+    </row>
+    <row r="42" spans="1:33">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
@@ -4175,10 +4225,11 @@
       <c r="AB42" s="15"/>
       <c r="AC42" s="15"/>
       <c r="AD42" s="15"/>
-      <c r="AE42" s="15"/>
+      <c r="AE42" s="56"/>
       <c r="AF42" s="15"/>
-    </row>
-    <row r="43" spans="1:32">
+      <c r="AG42" s="15"/>
+    </row>
+    <row r="43" spans="1:33">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -4209,10 +4260,11 @@
       <c r="AB43" s="15"/>
       <c r="AC43" s="15"/>
       <c r="AD43" s="15"/>
-      <c r="AE43" s="15"/>
+      <c r="AE43" s="56"/>
       <c r="AF43" s="15"/>
-    </row>
-    <row r="44" spans="1:32">
+      <c r="AG43" s="15"/>
+    </row>
+    <row r="44" spans="1:33">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
@@ -4243,10 +4295,11 @@
       <c r="AB44" s="15"/>
       <c r="AC44" s="15"/>
       <c r="AD44" s="15"/>
-      <c r="AE44" s="15"/>
+      <c r="AE44" s="56"/>
       <c r="AF44" s="15"/>
-    </row>
-    <row r="45" spans="1:32">
+      <c r="AG44" s="15"/>
+    </row>
+    <row r="45" spans="1:33">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -4277,10 +4330,11 @@
       <c r="AB45" s="15"/>
       <c r="AC45" s="15"/>
       <c r="AD45" s="15"/>
-      <c r="AE45" s="15"/>
+      <c r="AE45" s="56"/>
       <c r="AF45" s="15"/>
-    </row>
-    <row r="46" spans="1:32">
+      <c r="AG45" s="15"/>
+    </row>
+    <row r="46" spans="1:33">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -4311,10 +4365,11 @@
       <c r="AB46" s="15"/>
       <c r="AC46" s="15"/>
       <c r="AD46" s="15"/>
-      <c r="AE46" s="15"/>
+      <c r="AE46" s="56"/>
       <c r="AF46" s="15"/>
-    </row>
-    <row r="47" spans="1:32">
+      <c r="AG46" s="15"/>
+    </row>
+    <row r="47" spans="1:33">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -4345,10 +4400,11 @@
       <c r="AB47" s="15"/>
       <c r="AC47" s="15"/>
       <c r="AD47" s="15"/>
-      <c r="AE47" s="15"/>
+      <c r="AE47" s="56"/>
       <c r="AF47" s="15"/>
-    </row>
-    <row r="48" spans="1:32">
+      <c r="AG47" s="15"/>
+    </row>
+    <row r="48" spans="1:33">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -4379,10 +4435,11 @@
       <c r="AB48" s="15"/>
       <c r="AC48" s="15"/>
       <c r="AD48" s="15"/>
-      <c r="AE48" s="15"/>
+      <c r="AE48" s="56"/>
       <c r="AF48" s="15"/>
-    </row>
-    <row r="49" spans="1:32">
+      <c r="AG48" s="15"/>
+    </row>
+    <row r="49" spans="1:33">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -4413,10 +4470,11 @@
       <c r="AB49" s="15"/>
       <c r="AC49" s="15"/>
       <c r="AD49" s="15"/>
-      <c r="AE49" s="15"/>
+      <c r="AE49" s="56"/>
       <c r="AF49" s="15"/>
-    </row>
-    <row r="50" spans="1:32">
+      <c r="AG49" s="15"/>
+    </row>
+    <row r="50" spans="1:33">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -4447,10 +4505,11 @@
       <c r="AB50" s="15"/>
       <c r="AC50" s="15"/>
       <c r="AD50" s="15"/>
-      <c r="AE50" s="15"/>
+      <c r="AE50" s="56"/>
       <c r="AF50" s="15"/>
-    </row>
-    <row r="51" spans="1:32">
+      <c r="AG50" s="15"/>
+    </row>
+    <row r="51" spans="1:33">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -4481,10 +4540,11 @@
       <c r="AB51" s="15"/>
       <c r="AC51" s="15"/>
       <c r="AD51" s="15"/>
-      <c r="AE51" s="15"/>
+      <c r="AE51" s="56"/>
       <c r="AF51" s="15"/>
-    </row>
-    <row r="52" spans="1:32">
+      <c r="AG51" s="15"/>
+    </row>
+    <row r="52" spans="1:33">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -4515,10 +4575,11 @@
       <c r="AB52" s="15"/>
       <c r="AC52" s="15"/>
       <c r="AD52" s="15"/>
-      <c r="AE52" s="15"/>
+      <c r="AE52" s="56"/>
       <c r="AF52" s="15"/>
-    </row>
-    <row r="53" spans="1:32">
+      <c r="AG52" s="15"/>
+    </row>
+    <row r="53" spans="1:33">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -4549,10 +4610,11 @@
       <c r="AB53" s="15"/>
       <c r="AC53" s="15"/>
       <c r="AD53" s="15"/>
-      <c r="AE53" s="15"/>
+      <c r="AE53" s="56"/>
       <c r="AF53" s="15"/>
-    </row>
-    <row r="54" spans="1:32">
+      <c r="AG53" s="15"/>
+    </row>
+    <row r="54" spans="1:33">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -4583,10 +4645,11 @@
       <c r="AB54" s="15"/>
       <c r="AC54" s="15"/>
       <c r="AD54" s="15"/>
-      <c r="AE54" s="15"/>
+      <c r="AE54" s="56"/>
       <c r="AF54" s="15"/>
-    </row>
-    <row r="55" spans="1:32">
+      <c r="AG54" s="15"/>
+    </row>
+    <row r="55" spans="1:33">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
@@ -4617,10 +4680,11 @@
       <c r="AB55" s="15"/>
       <c r="AC55" s="15"/>
       <c r="AD55" s="15"/>
-      <c r="AE55" s="15"/>
+      <c r="AE55" s="56"/>
       <c r="AF55" s="15"/>
-    </row>
-    <row r="56" spans="1:32">
+      <c r="AG55" s="15"/>
+    </row>
+    <row r="56" spans="1:33">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -4651,10 +4715,11 @@
       <c r="AB56" s="15"/>
       <c r="AC56" s="15"/>
       <c r="AD56" s="15"/>
-      <c r="AE56" s="15"/>
+      <c r="AE56" s="56"/>
       <c r="AF56" s="15"/>
-    </row>
-    <row r="57" spans="1:32">
+      <c r="AG56" s="15"/>
+    </row>
+    <row r="57" spans="1:33">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -4685,10 +4750,11 @@
       <c r="AB57" s="15"/>
       <c r="AC57" s="15"/>
       <c r="AD57" s="15"/>
-      <c r="AE57" s="15"/>
+      <c r="AE57" s="56"/>
       <c r="AF57" s="15"/>
-    </row>
-    <row r="58" spans="1:32">
+      <c r="AG57" s="15"/>
+    </row>
+    <row r="58" spans="1:33">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
@@ -4719,10 +4785,11 @@
       <c r="AB58" s="15"/>
       <c r="AC58" s="15"/>
       <c r="AD58" s="15"/>
-      <c r="AE58" s="15"/>
+      <c r="AE58" s="56"/>
       <c r="AF58" s="15"/>
-    </row>
-    <row r="59" spans="1:32">
+      <c r="AG58" s="15"/>
+    </row>
+    <row r="59" spans="1:33">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
@@ -4753,10 +4820,11 @@
       <c r="AB59" s="15"/>
       <c r="AC59" s="15"/>
       <c r="AD59" s="15"/>
-      <c r="AE59" s="15"/>
+      <c r="AE59" s="56"/>
       <c r="AF59" s="15"/>
-    </row>
-    <row r="60" spans="1:32">
+      <c r="AG59" s="15"/>
+    </row>
+    <row r="60" spans="1:33">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -4787,10 +4855,11 @@
       <c r="AB60" s="15"/>
       <c r="AC60" s="15"/>
       <c r="AD60" s="15"/>
-      <c r="AE60" s="15"/>
+      <c r="AE60" s="56"/>
       <c r="AF60" s="15"/>
-    </row>
-    <row r="61" spans="1:32">
+      <c r="AG60" s="15"/>
+    </row>
+    <row r="61" spans="1:33">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -4821,10 +4890,11 @@
       <c r="AB61" s="15"/>
       <c r="AC61" s="15"/>
       <c r="AD61" s="15"/>
-      <c r="AE61" s="15"/>
+      <c r="AE61" s="56"/>
       <c r="AF61" s="15"/>
-    </row>
-    <row r="62" spans="1:32">
+      <c r="AG61" s="15"/>
+    </row>
+    <row r="62" spans="1:33">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
@@ -4855,10 +4925,11 @@
       <c r="AB62" s="15"/>
       <c r="AC62" s="15"/>
       <c r="AD62" s="15"/>
-      <c r="AE62" s="15"/>
+      <c r="AE62" s="56"/>
       <c r="AF62" s="15"/>
-    </row>
-    <row r="63" spans="1:32">
+      <c r="AG62" s="15"/>
+    </row>
+    <row r="63" spans="1:33">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -4889,10 +4960,11 @@
       <c r="AB63" s="15"/>
       <c r="AC63" s="15"/>
       <c r="AD63" s="15"/>
-      <c r="AE63" s="15"/>
+      <c r="AE63" s="56"/>
       <c r="AF63" s="15"/>
-    </row>
-    <row r="64" spans="1:32">
+      <c r="AG63" s="15"/>
+    </row>
+    <row r="64" spans="1:33">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
@@ -4923,10 +4995,11 @@
       <c r="AB64" s="15"/>
       <c r="AC64" s="15"/>
       <c r="AD64" s="15"/>
-      <c r="AE64" s="15"/>
+      <c r="AE64" s="56"/>
       <c r="AF64" s="15"/>
-    </row>
-    <row r="65" spans="1:32">
+      <c r="AG64" s="15"/>
+    </row>
+    <row r="65" spans="1:33">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
@@ -4957,10 +5030,11 @@
       <c r="AB65" s="15"/>
       <c r="AC65" s="15"/>
       <c r="AD65" s="15"/>
-      <c r="AE65" s="15"/>
+      <c r="AE65" s="56"/>
       <c r="AF65" s="15"/>
-    </row>
-    <row r="66" spans="1:32">
+      <c r="AG65" s="15"/>
+    </row>
+    <row r="66" spans="1:33">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
@@ -4991,10 +5065,11 @@
       <c r="AB66" s="15"/>
       <c r="AC66" s="15"/>
       <c r="AD66" s="15"/>
-      <c r="AE66" s="15"/>
+      <c r="AE66" s="56"/>
       <c r="AF66" s="15"/>
-    </row>
-    <row r="67" spans="1:32">
+      <c r="AG66" s="15"/>
+    </row>
+    <row r="67" spans="1:33">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
@@ -5025,10 +5100,11 @@
       <c r="AB67" s="15"/>
       <c r="AC67" s="15"/>
       <c r="AD67" s="15"/>
-      <c r="AE67" s="15"/>
+      <c r="AE67" s="56"/>
       <c r="AF67" s="15"/>
-    </row>
-    <row r="68" spans="1:32">
+      <c r="AG67" s="15"/>
+    </row>
+    <row r="68" spans="1:33">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
@@ -5059,10 +5135,11 @@
       <c r="AB68" s="15"/>
       <c r="AC68" s="15"/>
       <c r="AD68" s="15"/>
-      <c r="AE68" s="15"/>
+      <c r="AE68" s="56"/>
       <c r="AF68" s="15"/>
-    </row>
-    <row r="69" spans="1:32">
+      <c r="AG68" s="15"/>
+    </row>
+    <row r="69" spans="1:33">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -5093,10 +5170,11 @@
       <c r="AB69" s="15"/>
       <c r="AC69" s="15"/>
       <c r="AD69" s="15"/>
-      <c r="AE69" s="15"/>
+      <c r="AE69" s="56"/>
       <c r="AF69" s="15"/>
-    </row>
-    <row r="70" spans="1:32">
+      <c r="AG69" s="15"/>
+    </row>
+    <row r="70" spans="1:33">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -5127,10 +5205,11 @@
       <c r="AB70" s="15"/>
       <c r="AC70" s="15"/>
       <c r="AD70" s="15"/>
-      <c r="AE70" s="15"/>
+      <c r="AE70" s="56"/>
       <c r="AF70" s="15"/>
-    </row>
-    <row r="71" spans="1:32">
+      <c r="AG70" s="15"/>
+    </row>
+    <row r="71" spans="1:33">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -5161,10 +5240,11 @@
       <c r="AB71" s="15"/>
       <c r="AC71" s="15"/>
       <c r="AD71" s="15"/>
-      <c r="AE71" s="15"/>
+      <c r="AE71" s="56"/>
       <c r="AF71" s="15"/>
-    </row>
-    <row r="72" spans="1:32">
+      <c r="AG71" s="15"/>
+    </row>
+    <row r="72" spans="1:33">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -5195,10 +5275,11 @@
       <c r="AB72" s="15"/>
       <c r="AC72" s="15"/>
       <c r="AD72" s="15"/>
-      <c r="AE72" s="15"/>
+      <c r="AE72" s="56"/>
       <c r="AF72" s="15"/>
-    </row>
-    <row r="73" spans="1:32">
+      <c r="AG72" s="15"/>
+    </row>
+    <row r="73" spans="1:33">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -5229,10 +5310,11 @@
       <c r="AB73" s="15"/>
       <c r="AC73" s="15"/>
       <c r="AD73" s="15"/>
-      <c r="AE73" s="15"/>
+      <c r="AE73" s="56"/>
       <c r="AF73" s="15"/>
-    </row>
-    <row r="74" spans="1:32">
+      <c r="AG73" s="15"/>
+    </row>
+    <row r="74" spans="1:33">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -5263,10 +5345,11 @@
       <c r="AB74" s="15"/>
       <c r="AC74" s="15"/>
       <c r="AD74" s="15"/>
-      <c r="AE74" s="15"/>
+      <c r="AE74" s="56"/>
       <c r="AF74" s="15"/>
-    </row>
-    <row r="75" spans="1:32">
+      <c r="AG74" s="15"/>
+    </row>
+    <row r="75" spans="1:33">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -5297,10 +5380,11 @@
       <c r="AB75" s="15"/>
       <c r="AC75" s="15"/>
       <c r="AD75" s="15"/>
-      <c r="AE75" s="15"/>
+      <c r="AE75" s="56"/>
       <c r="AF75" s="15"/>
-    </row>
-    <row r="76" spans="1:32">
+      <c r="AG75" s="15"/>
+    </row>
+    <row r="76" spans="1:33">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -5331,10 +5415,11 @@
       <c r="AB76" s="15"/>
       <c r="AC76" s="15"/>
       <c r="AD76" s="15"/>
-      <c r="AE76" s="15"/>
+      <c r="AE76" s="56"/>
       <c r="AF76" s="15"/>
-    </row>
-    <row r="77" spans="1:32">
+      <c r="AG76" s="15"/>
+    </row>
+    <row r="77" spans="1:33">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -5365,10 +5450,11 @@
       <c r="AB77" s="15"/>
       <c r="AC77" s="15"/>
       <c r="AD77" s="15"/>
-      <c r="AE77" s="15"/>
+      <c r="AE77" s="56"/>
       <c r="AF77" s="15"/>
-    </row>
-    <row r="78" spans="1:32">
+      <c r="AG77" s="15"/>
+    </row>
+    <row r="78" spans="1:33">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -5399,10 +5485,11 @@
       <c r="AB78" s="15"/>
       <c r="AC78" s="15"/>
       <c r="AD78" s="15"/>
-      <c r="AE78" s="15"/>
+      <c r="AE78" s="56"/>
       <c r="AF78" s="15"/>
-    </row>
-    <row r="79" spans="1:32">
+      <c r="AG78" s="15"/>
+    </row>
+    <row r="79" spans="1:33">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -5433,10 +5520,11 @@
       <c r="AB79" s="15"/>
       <c r="AC79" s="15"/>
       <c r="AD79" s="15"/>
-      <c r="AE79" s="15"/>
+      <c r="AE79" s="56"/>
       <c r="AF79" s="15"/>
-    </row>
-    <row r="80" spans="1:32">
+      <c r="AG79" s="15"/>
+    </row>
+    <row r="80" spans="1:33">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -5467,10 +5555,11 @@
       <c r="AB80" s="15"/>
       <c r="AC80" s="15"/>
       <c r="AD80" s="15"/>
-      <c r="AE80" s="15"/>
+      <c r="AE80" s="56"/>
       <c r="AF80" s="15"/>
-    </row>
-    <row r="81" spans="1:32">
+      <c r="AG80" s="15"/>
+    </row>
+    <row r="81" spans="1:33">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -5501,10 +5590,11 @@
       <c r="AB81" s="15"/>
       <c r="AC81" s="15"/>
       <c r="AD81" s="15"/>
-      <c r="AE81" s="15"/>
+      <c r="AE81" s="56"/>
       <c r="AF81" s="15"/>
-    </row>
-    <row r="82" spans="1:32">
+      <c r="AG81" s="15"/>
+    </row>
+    <row r="82" spans="1:33">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -5535,10 +5625,11 @@
       <c r="AB82" s="15"/>
       <c r="AC82" s="15"/>
       <c r="AD82" s="15"/>
-      <c r="AE82" s="15"/>
+      <c r="AE82" s="56"/>
       <c r="AF82" s="15"/>
-    </row>
-    <row r="83" spans="1:32">
+      <c r="AG82" s="15"/>
+    </row>
+    <row r="83" spans="1:33">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -5569,10 +5660,11 @@
       <c r="AB83" s="15"/>
       <c r="AC83" s="15"/>
       <c r="AD83" s="15"/>
-      <c r="AE83" s="15"/>
+      <c r="AE83" s="56"/>
       <c r="AF83" s="15"/>
-    </row>
-    <row r="84" spans="1:32">
+      <c r="AG83" s="15"/>
+    </row>
+    <row r="84" spans="1:33">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -5603,10 +5695,11 @@
       <c r="AB84" s="15"/>
       <c r="AC84" s="15"/>
       <c r="AD84" s="15"/>
-      <c r="AE84" s="15"/>
+      <c r="AE84" s="56"/>
       <c r="AF84" s="15"/>
-    </row>
-    <row r="85" spans="1:32">
+      <c r="AG84" s="15"/>
+    </row>
+    <row r="85" spans="1:33">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -5637,10 +5730,11 @@
       <c r="AB85" s="15"/>
       <c r="AC85" s="15"/>
       <c r="AD85" s="15"/>
-      <c r="AE85" s="15"/>
+      <c r="AE85" s="56"/>
       <c r="AF85" s="15"/>
-    </row>
-    <row r="86" spans="1:32">
+      <c r="AG85" s="15"/>
+    </row>
+    <row r="86" spans="1:33">
       <c r="A86" s="15"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
@@ -5671,10 +5765,11 @@
       <c r="AB86" s="15"/>
       <c r="AC86" s="15"/>
       <c r="AD86" s="15"/>
-      <c r="AE86" s="15"/>
+      <c r="AE86" s="56"/>
       <c r="AF86" s="15"/>
-    </row>
-    <row r="87" spans="1:32">
+      <c r="AG86" s="15"/>
+    </row>
+    <row r="87" spans="1:33">
       <c r="A87" s="15"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -5705,10 +5800,11 @@
       <c r="AB87" s="15"/>
       <c r="AC87" s="15"/>
       <c r="AD87" s="15"/>
-      <c r="AE87" s="15"/>
+      <c r="AE87" s="56"/>
       <c r="AF87" s="15"/>
-    </row>
-    <row r="88" spans="1:32">
+      <c r="AG87" s="15"/>
+    </row>
+    <row r="88" spans="1:33">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -5739,10 +5835,11 @@
       <c r="AB88" s="15"/>
       <c r="AC88" s="15"/>
       <c r="AD88" s="15"/>
-      <c r="AE88" s="15"/>
+      <c r="AE88" s="56"/>
       <c r="AF88" s="15"/>
-    </row>
-    <row r="89" spans="1:32">
+      <c r="AG88" s="15"/>
+    </row>
+    <row r="89" spans="1:33">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -5773,10 +5870,11 @@
       <c r="AB89" s="15"/>
       <c r="AC89" s="15"/>
       <c r="AD89" s="15"/>
-      <c r="AE89" s="15"/>
+      <c r="AE89" s="56"/>
       <c r="AF89" s="15"/>
-    </row>
-    <row r="90" spans="1:32">
+      <c r="AG89" s="15"/>
+    </row>
+    <row r="90" spans="1:33">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -5807,10 +5905,11 @@
       <c r="AB90" s="15"/>
       <c r="AC90" s="15"/>
       <c r="AD90" s="15"/>
-      <c r="AE90" s="15"/>
+      <c r="AE90" s="56"/>
       <c r="AF90" s="15"/>
-    </row>
-    <row r="91" spans="1:32">
+      <c r="AG90" s="15"/>
+    </row>
+    <row r="91" spans="1:33">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -5841,10 +5940,11 @@
       <c r="AB91" s="15"/>
       <c r="AC91" s="15"/>
       <c r="AD91" s="15"/>
-      <c r="AE91" s="15"/>
+      <c r="AE91" s="56"/>
       <c r="AF91" s="15"/>
-    </row>
-    <row r="92" spans="1:32">
+      <c r="AG91" s="15"/>
+    </row>
+    <row r="92" spans="1:33">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -5875,10 +5975,11 @@
       <c r="AB92" s="15"/>
       <c r="AC92" s="15"/>
       <c r="AD92" s="15"/>
-      <c r="AE92" s="15"/>
+      <c r="AE92" s="56"/>
       <c r="AF92" s="15"/>
-    </row>
-    <row r="93" spans="1:32">
+      <c r="AG92" s="15"/>
+    </row>
+    <row r="93" spans="1:33">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -5909,10 +6010,11 @@
       <c r="AB93" s="15"/>
       <c r="AC93" s="15"/>
       <c r="AD93" s="15"/>
-      <c r="AE93" s="15"/>
+      <c r="AE93" s="56"/>
       <c r="AF93" s="15"/>
-    </row>
-    <row r="94" spans="1:32">
+      <c r="AG93" s="15"/>
+    </row>
+    <row r="94" spans="1:33">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -5943,10 +6045,11 @@
       <c r="AB94" s="15"/>
       <c r="AC94" s="15"/>
       <c r="AD94" s="15"/>
-      <c r="AE94" s="15"/>
+      <c r="AE94" s="56"/>
       <c r="AF94" s="15"/>
-    </row>
-    <row r="95" spans="1:32">
+      <c r="AG94" s="15"/>
+    </row>
+    <row r="95" spans="1:33">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -5977,10 +6080,11 @@
       <c r="AB95" s="15"/>
       <c r="AC95" s="15"/>
       <c r="AD95" s="15"/>
-      <c r="AE95" s="15"/>
+      <c r="AE95" s="56"/>
       <c r="AF95" s="15"/>
-    </row>
-    <row r="96" spans="1:32">
+      <c r="AG95" s="15"/>
+    </row>
+    <row r="96" spans="1:33">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -6011,10 +6115,11 @@
       <c r="AB96" s="15"/>
       <c r="AC96" s="15"/>
       <c r="AD96" s="15"/>
-      <c r="AE96" s="15"/>
+      <c r="AE96" s="56"/>
       <c r="AF96" s="15"/>
-    </row>
-    <row r="97" spans="1:32">
+      <c r="AG96" s="15"/>
+    </row>
+    <row r="97" spans="1:33">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -6045,10 +6150,11 @@
       <c r="AB97" s="15"/>
       <c r="AC97" s="15"/>
       <c r="AD97" s="15"/>
-      <c r="AE97" s="15"/>
+      <c r="AE97" s="56"/>
       <c r="AF97" s="15"/>
-    </row>
-    <row r="98" spans="1:32">
+      <c r="AG97" s="15"/>
+    </row>
+    <row r="98" spans="1:33">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -6079,10 +6185,11 @@
       <c r="AB98" s="15"/>
       <c r="AC98" s="15"/>
       <c r="AD98" s="15"/>
-      <c r="AE98" s="15"/>
+      <c r="AE98" s="56"/>
       <c r="AF98" s="15"/>
-    </row>
-    <row r="99" spans="1:32">
+      <c r="AG98" s="15"/>
+    </row>
+    <row r="99" spans="1:33">
       <c r="A99" s="15"/>
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
@@ -6113,10 +6220,11 @@
       <c r="AB99" s="15"/>
       <c r="AC99" s="15"/>
       <c r="AD99" s="15"/>
-      <c r="AE99" s="15"/>
+      <c r="AE99" s="56"/>
       <c r="AF99" s="15"/>
-    </row>
-    <row r="100" spans="1:32">
+      <c r="AG99" s="15"/>
+    </row>
+    <row r="100" spans="1:33">
       <c r="A100" s="15"/>
       <c r="B100" s="15"/>
       <c r="C100" s="15"/>
@@ -6147,10 +6255,11 @@
       <c r="AB100" s="15"/>
       <c r="AC100" s="15"/>
       <c r="AD100" s="15"/>
-      <c r="AE100" s="15"/>
+      <c r="AE100" s="56"/>
       <c r="AF100" s="15"/>
-    </row>
-    <row r="101" spans="1:32">
+      <c r="AG100" s="15"/>
+    </row>
+    <row r="101" spans="1:33">
       <c r="A101" s="15"/>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
@@ -6181,10 +6290,11 @@
       <c r="AB101" s="15"/>
       <c r="AC101" s="15"/>
       <c r="AD101" s="15"/>
-      <c r="AE101" s="15"/>
+      <c r="AE101" s="56"/>
       <c r="AF101" s="15"/>
-    </row>
-    <row r="102" spans="1:32">
+      <c r="AG101" s="15"/>
+    </row>
+    <row r="102" spans="1:33">
       <c r="A102" s="15"/>
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
@@ -6215,10 +6325,11 @@
       <c r="AB102" s="15"/>
       <c r="AC102" s="15"/>
       <c r="AD102" s="15"/>
-      <c r="AE102" s="15"/>
+      <c r="AE102" s="56"/>
       <c r="AF102" s="15"/>
-    </row>
-    <row r="103" spans="1:32">
+      <c r="AG102" s="15"/>
+    </row>
+    <row r="103" spans="1:33">
       <c r="A103" s="15"/>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
@@ -6249,10 +6360,11 @@
       <c r="AB103" s="15"/>
       <c r="AC103" s="15"/>
       <c r="AD103" s="15"/>
-      <c r="AE103" s="15"/>
+      <c r="AE103" s="56"/>
       <c r="AF103" s="15"/>
-    </row>
-    <row r="104" spans="1:32">
+      <c r="AG103" s="15"/>
+    </row>
+    <row r="104" spans="1:33">
       <c r="A104" s="15"/>
       <c r="B104" s="15"/>
       <c r="C104" s="15"/>
@@ -6283,10 +6395,11 @@
       <c r="AB104" s="15"/>
       <c r="AC104" s="15"/>
       <c r="AD104" s="15"/>
-      <c r="AE104" s="15"/>
+      <c r="AE104" s="56"/>
       <c r="AF104" s="15"/>
-    </row>
-    <row r="105" spans="1:32">
+      <c r="AG104" s="15"/>
+    </row>
+    <row r="105" spans="1:33">
       <c r="A105" s="15"/>
       <c r="B105" s="15"/>
       <c r="C105" s="15"/>
@@ -6317,10 +6430,11 @@
       <c r="AB105" s="15"/>
       <c r="AC105" s="15"/>
       <c r="AD105" s="15"/>
-      <c r="AE105" s="15"/>
+      <c r="AE105" s="56"/>
       <c r="AF105" s="15"/>
-    </row>
-    <row r="106" spans="1:32">
+      <c r="AG105" s="15"/>
+    </row>
+    <row r="106" spans="1:33">
       <c r="A106" s="15"/>
       <c r="B106" s="15"/>
       <c r="C106" s="15"/>
@@ -6351,10 +6465,11 @@
       <c r="AB106" s="15"/>
       <c r="AC106" s="15"/>
       <c r="AD106" s="15"/>
-      <c r="AE106" s="15"/>
+      <c r="AE106" s="56"/>
       <c r="AF106" s="15"/>
-    </row>
-    <row r="107" spans="1:32">
+      <c r="AG106" s="15"/>
+    </row>
+    <row r="107" spans="1:33">
       <c r="A107" s="15"/>
       <c r="B107" s="15"/>
       <c r="C107" s="15"/>
@@ -6385,10 +6500,11 @@
       <c r="AB107" s="15"/>
       <c r="AC107" s="15"/>
       <c r="AD107" s="15"/>
-      <c r="AE107" s="15"/>
+      <c r="AE107" s="56"/>
       <c r="AF107" s="15"/>
-    </row>
-    <row r="108" spans="1:32">
+      <c r="AG107" s="15"/>
+    </row>
+    <row r="108" spans="1:33">
       <c r="A108" s="15"/>
       <c r="B108" s="15"/>
       <c r="C108" s="15"/>
@@ -6419,10 +6535,11 @@
       <c r="AB108" s="15"/>
       <c r="AC108" s="15"/>
       <c r="AD108" s="15"/>
-      <c r="AE108" s="15"/>
+      <c r="AE108" s="56"/>
       <c r="AF108" s="15"/>
-    </row>
-    <row r="109" spans="1:32">
+      <c r="AG108" s="15"/>
+    </row>
+    <row r="109" spans="1:33">
       <c r="A109" s="15"/>
       <c r="B109" s="15"/>
       <c r="C109" s="15"/>
@@ -6453,10 +6570,11 @@
       <c r="AB109" s="15"/>
       <c r="AC109" s="15"/>
       <c r="AD109" s="15"/>
-      <c r="AE109" s="15"/>
+      <c r="AE109" s="56"/>
       <c r="AF109" s="15"/>
-    </row>
-    <row r="110" spans="1:32">
+      <c r="AG109" s="15"/>
+    </row>
+    <row r="110" spans="1:33">
       <c r="A110" s="15"/>
       <c r="B110" s="15"/>
       <c r="C110" s="15"/>
@@ -6487,10 +6605,11 @@
       <c r="AB110" s="15"/>
       <c r="AC110" s="15"/>
       <c r="AD110" s="15"/>
-      <c r="AE110" s="15"/>
+      <c r="AE110" s="56"/>
       <c r="AF110" s="15"/>
-    </row>
-    <row r="111" spans="1:32">
+      <c r="AG110" s="15"/>
+    </row>
+    <row r="111" spans="1:33">
       <c r="A111" s="15"/>
       <c r="B111" s="15"/>
       <c r="C111" s="15"/>
@@ -6521,10 +6640,11 @@
       <c r="AB111" s="15"/>
       <c r="AC111" s="15"/>
       <c r="AD111" s="15"/>
-      <c r="AE111" s="15"/>
+      <c r="AE111" s="56"/>
       <c r="AF111" s="15"/>
-    </row>
-    <row r="112" spans="1:32">
+      <c r="AG111" s="15"/>
+    </row>
+    <row r="112" spans="1:33">
       <c r="A112" s="15"/>
       <c r="B112" s="15"/>
       <c r="C112" s="15"/>
@@ -6555,10 +6675,11 @@
       <c r="AB112" s="15"/>
       <c r="AC112" s="15"/>
       <c r="AD112" s="15"/>
-      <c r="AE112" s="15"/>
+      <c r="AE112" s="56"/>
       <c r="AF112" s="15"/>
-    </row>
-    <row r="113" spans="1:32">
+      <c r="AG112" s="15"/>
+    </row>
+    <row r="113" spans="1:33">
       <c r="A113" s="15"/>
       <c r="B113" s="15"/>
       <c r="C113" s="15"/>
@@ -6589,10 +6710,11 @@
       <c r="AB113" s="15"/>
       <c r="AC113" s="15"/>
       <c r="AD113" s="15"/>
-      <c r="AE113" s="15"/>
+      <c r="AE113" s="56"/>
       <c r="AF113" s="15"/>
-    </row>
-    <row r="114" spans="1:32">
+      <c r="AG113" s="15"/>
+    </row>
+    <row r="114" spans="1:33">
       <c r="A114" s="15"/>
       <c r="B114" s="15"/>
       <c r="C114" s="15"/>
@@ -6623,10 +6745,11 @@
       <c r="AB114" s="15"/>
       <c r="AC114" s="15"/>
       <c r="AD114" s="15"/>
-      <c r="AE114" s="15"/>
+      <c r="AE114" s="56"/>
       <c r="AF114" s="15"/>
-    </row>
-    <row r="115" spans="1:32">
+      <c r="AG114" s="15"/>
+    </row>
+    <row r="115" spans="1:33">
       <c r="A115" s="15"/>
       <c r="B115" s="15"/>
       <c r="C115" s="15"/>
@@ -6657,10 +6780,11 @@
       <c r="AB115" s="15"/>
       <c r="AC115" s="15"/>
       <c r="AD115" s="15"/>
-      <c r="AE115" s="15"/>
+      <c r="AE115" s="56"/>
       <c r="AF115" s="15"/>
-    </row>
-    <row r="116" spans="1:32">
+      <c r="AG115" s="15"/>
+    </row>
+    <row r="116" spans="1:33">
       <c r="A116" s="15"/>
       <c r="B116" s="15"/>
       <c r="C116" s="15"/>
@@ -6691,10 +6815,11 @@
       <c r="AB116" s="15"/>
       <c r="AC116" s="15"/>
       <c r="AD116" s="15"/>
-      <c r="AE116" s="15"/>
+      <c r="AE116" s="56"/>
       <c r="AF116" s="15"/>
-    </row>
-    <row r="117" spans="1:32">
+      <c r="AG116" s="15"/>
+    </row>
+    <row r="117" spans="1:33">
       <c r="A117" s="15"/>
       <c r="B117" s="15"/>
       <c r="C117" s="15"/>
@@ -6725,10 +6850,11 @@
       <c r="AB117" s="15"/>
       <c r="AC117" s="15"/>
       <c r="AD117" s="15"/>
-      <c r="AE117" s="15"/>
+      <c r="AE117" s="56"/>
       <c r="AF117" s="15"/>
-    </row>
-    <row r="118" spans="1:32">
+      <c r="AG117" s="15"/>
+    </row>
+    <row r="118" spans="1:33">
       <c r="A118" s="15"/>
       <c r="B118" s="15"/>
       <c r="C118" s="15"/>
@@ -6759,10 +6885,11 @@
       <c r="AB118" s="15"/>
       <c r="AC118" s="15"/>
       <c r="AD118" s="15"/>
-      <c r="AE118" s="15"/>
+      <c r="AE118" s="56"/>
       <c r="AF118" s="15"/>
-    </row>
-    <row r="119" spans="1:32">
+      <c r="AG118" s="15"/>
+    </row>
+    <row r="119" spans="1:33">
       <c r="A119" s="15"/>
       <c r="B119" s="15"/>
       <c r="C119" s="15"/>
@@ -6793,10 +6920,11 @@
       <c r="AB119" s="15"/>
       <c r="AC119" s="15"/>
       <c r="AD119" s="15"/>
-      <c r="AE119" s="15"/>
+      <c r="AE119" s="56"/>
       <c r="AF119" s="15"/>
-    </row>
-    <row r="120" spans="1:32">
+      <c r="AG119" s="15"/>
+    </row>
+    <row r="120" spans="1:33">
       <c r="A120" s="15"/>
       <c r="B120" s="15"/>
       <c r="C120" s="15"/>
@@ -6827,10 +6955,11 @@
       <c r="AB120" s="15"/>
       <c r="AC120" s="15"/>
       <c r="AD120" s="15"/>
-      <c r="AE120" s="15"/>
+      <c r="AE120" s="56"/>
       <c r="AF120" s="15"/>
-    </row>
-    <row r="121" spans="1:32">
+      <c r="AG120" s="15"/>
+    </row>
+    <row r="121" spans="1:33">
       <c r="A121" s="15"/>
       <c r="B121" s="15"/>
       <c r="C121" s="15"/>
@@ -6861,10 +6990,11 @@
       <c r="AB121" s="15"/>
       <c r="AC121" s="15"/>
       <c r="AD121" s="15"/>
-      <c r="AE121" s="15"/>
+      <c r="AE121" s="56"/>
       <c r="AF121" s="15"/>
-    </row>
-    <row r="122" spans="1:32">
+      <c r="AG121" s="15"/>
+    </row>
+    <row r="122" spans="1:33">
       <c r="A122" s="15"/>
       <c r="B122" s="15"/>
       <c r="C122" s="15"/>
@@ -6895,10 +7025,11 @@
       <c r="AB122" s="15"/>
       <c r="AC122" s="15"/>
       <c r="AD122" s="15"/>
-      <c r="AE122" s="15"/>
+      <c r="AE122" s="56"/>
       <c r="AF122" s="15"/>
-    </row>
-    <row r="123" spans="1:32">
+      <c r="AG122" s="15"/>
+    </row>
+    <row r="123" spans="1:33">
       <c r="A123" s="15"/>
       <c r="B123" s="15"/>
       <c r="C123" s="15"/>
@@ -6929,10 +7060,11 @@
       <c r="AB123" s="15"/>
       <c r="AC123" s="15"/>
       <c r="AD123" s="15"/>
-      <c r="AE123" s="15"/>
+      <c r="AE123" s="56"/>
       <c r="AF123" s="15"/>
-    </row>
-    <row r="124" spans="1:32">
+      <c r="AG123" s="15"/>
+    </row>
+    <row r="124" spans="1:33">
       <c r="A124" s="15"/>
       <c r="B124" s="15"/>
       <c r="C124" s="15"/>
@@ -6963,10 +7095,11 @@
       <c r="AB124" s="15"/>
       <c r="AC124" s="15"/>
       <c r="AD124" s="15"/>
-      <c r="AE124" s="15"/>
+      <c r="AE124" s="56"/>
       <c r="AF124" s="15"/>
-    </row>
-    <row r="125" spans="1:32">
+      <c r="AG124" s="15"/>
+    </row>
+    <row r="125" spans="1:33">
       <c r="A125" s="15"/>
       <c r="B125" s="15"/>
       <c r="C125" s="15"/>
@@ -6997,10 +7130,11 @@
       <c r="AB125" s="15"/>
       <c r="AC125" s="15"/>
       <c r="AD125" s="15"/>
-      <c r="AE125" s="15"/>
+      <c r="AE125" s="56"/>
       <c r="AF125" s="15"/>
-    </row>
-    <row r="126" spans="1:32">
+      <c r="AG125" s="15"/>
+    </row>
+    <row r="126" spans="1:33">
       <c r="A126" s="15"/>
       <c r="B126" s="15"/>
       <c r="C126" s="15"/>
@@ -7031,10 +7165,11 @@
       <c r="AB126" s="15"/>
       <c r="AC126" s="15"/>
       <c r="AD126" s="15"/>
-      <c r="AE126" s="15"/>
+      <c r="AE126" s="56"/>
       <c r="AF126" s="15"/>
-    </row>
-    <row r="127" spans="1:32">
+      <c r="AG126" s="15"/>
+    </row>
+    <row r="127" spans="1:33">
       <c r="A127" s="15"/>
       <c r="B127" s="15"/>
       <c r="C127" s="15"/>
@@ -7065,10 +7200,11 @@
       <c r="AB127" s="15"/>
       <c r="AC127" s="15"/>
       <c r="AD127" s="15"/>
-      <c r="AE127" s="15"/>
+      <c r="AE127" s="56"/>
       <c r="AF127" s="15"/>
-    </row>
-    <row r="128" spans="1:32">
+      <c r="AG127" s="15"/>
+    </row>
+    <row r="128" spans="1:33">
       <c r="A128" s="15"/>
       <c r="B128" s="15"/>
       <c r="C128" s="15"/>
@@ -7099,10 +7235,11 @@
       <c r="AB128" s="15"/>
       <c r="AC128" s="15"/>
       <c r="AD128" s="15"/>
-      <c r="AE128" s="15"/>
+      <c r="AE128" s="56"/>
       <c r="AF128" s="15"/>
-    </row>
-    <row r="129" spans="1:32">
+      <c r="AG128" s="15"/>
+    </row>
+    <row r="129" spans="1:33">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -7133,10 +7270,11 @@
       <c r="AB129" s="15"/>
       <c r="AC129" s="15"/>
       <c r="AD129" s="15"/>
-      <c r="AE129" s="15"/>
+      <c r="AE129" s="56"/>
       <c r="AF129" s="15"/>
-    </row>
-    <row r="130" spans="1:32">
+      <c r="AG129" s="15"/>
+    </row>
+    <row r="130" spans="1:33">
       <c r="A130" s="15"/>
       <c r="B130" s="15"/>
       <c r="C130" s="15"/>
@@ -7167,10 +7305,11 @@
       <c r="AB130" s="15"/>
       <c r="AC130" s="15"/>
       <c r="AD130" s="15"/>
-      <c r="AE130" s="15"/>
+      <c r="AE130" s="56"/>
       <c r="AF130" s="15"/>
-    </row>
-    <row r="131" spans="1:32">
+      <c r="AG130" s="15"/>
+    </row>
+    <row r="131" spans="1:33">
       <c r="A131" s="15"/>
       <c r="B131" s="15"/>
       <c r="C131" s="15"/>
@@ -7201,10 +7340,11 @@
       <c r="AB131" s="15"/>
       <c r="AC131" s="15"/>
       <c r="AD131" s="15"/>
-      <c r="AE131" s="15"/>
+      <c r="AE131" s="56"/>
       <c r="AF131" s="15"/>
-    </row>
-    <row r="132" spans="1:32">
+      <c r="AG131" s="15"/>
+    </row>
+    <row r="132" spans="1:33">
       <c r="A132" s="15"/>
       <c r="B132" s="15"/>
       <c r="C132" s="15"/>
@@ -7235,10 +7375,11 @@
       <c r="AB132" s="15"/>
       <c r="AC132" s="15"/>
       <c r="AD132" s="15"/>
-      <c r="AE132" s="15"/>
+      <c r="AE132" s="56"/>
       <c r="AF132" s="15"/>
-    </row>
-    <row r="133" spans="1:32">
+      <c r="AG132" s="15"/>
+    </row>
+    <row r="133" spans="1:33">
       <c r="A133" s="15"/>
       <c r="B133" s="15"/>
       <c r="C133" s="15"/>
@@ -7269,10 +7410,11 @@
       <c r="AB133" s="15"/>
       <c r="AC133" s="15"/>
       <c r="AD133" s="15"/>
-      <c r="AE133" s="15"/>
+      <c r="AE133" s="56"/>
       <c r="AF133" s="15"/>
-    </row>
-    <row r="134" spans="1:32">
+      <c r="AG133" s="15"/>
+    </row>
+    <row r="134" spans="1:33">
       <c r="A134" s="15"/>
       <c r="B134" s="15"/>
       <c r="C134" s="15"/>
@@ -7303,10 +7445,11 @@
       <c r="AB134" s="15"/>
       <c r="AC134" s="15"/>
       <c r="AD134" s="15"/>
-      <c r="AE134" s="15"/>
+      <c r="AE134" s="56"/>
       <c r="AF134" s="15"/>
-    </row>
-    <row r="135" spans="1:32">
+      <c r="AG134" s="15"/>
+    </row>
+    <row r="135" spans="1:33">
       <c r="A135" s="15"/>
       <c r="B135" s="15"/>
       <c r="C135" s="15"/>
@@ -7337,10 +7480,11 @@
       <c r="AB135" s="15"/>
       <c r="AC135" s="15"/>
       <c r="AD135" s="15"/>
-      <c r="AE135" s="15"/>
+      <c r="AE135" s="56"/>
       <c r="AF135" s="15"/>
-    </row>
-    <row r="136" spans="1:32">
+      <c r="AG135" s="15"/>
+    </row>
+    <row r="136" spans="1:33">
       <c r="A136" s="15"/>
       <c r="B136" s="15"/>
       <c r="C136" s="15"/>
@@ -7371,10 +7515,11 @@
       <c r="AB136" s="15"/>
       <c r="AC136" s="15"/>
       <c r="AD136" s="15"/>
-      <c r="AE136" s="15"/>
+      <c r="AE136" s="56"/>
       <c r="AF136" s="15"/>
-    </row>
-    <row r="137" spans="1:32">
+      <c r="AG136" s="15"/>
+    </row>
+    <row r="137" spans="1:33">
       <c r="A137" s="15"/>
       <c r="B137" s="15"/>
       <c r="C137" s="15"/>
@@ -7405,10 +7550,11 @@
       <c r="AB137" s="15"/>
       <c r="AC137" s="15"/>
       <c r="AD137" s="15"/>
-      <c r="AE137" s="15"/>
+      <c r="AE137" s="56"/>
       <c r="AF137" s="15"/>
-    </row>
-    <row r="138" spans="1:32">
+      <c r="AG137" s="15"/>
+    </row>
+    <row r="138" spans="1:33">
       <c r="A138" s="15"/>
       <c r="B138" s="15"/>
       <c r="C138" s="15"/>
@@ -7439,10 +7585,11 @@
       <c r="AB138" s="15"/>
       <c r="AC138" s="15"/>
       <c r="AD138" s="15"/>
-      <c r="AE138" s="15"/>
+      <c r="AE138" s="56"/>
       <c r="AF138" s="15"/>
-    </row>
-    <row r="139" spans="1:32">
+      <c r="AG138" s="15"/>
+    </row>
+    <row r="139" spans="1:33">
       <c r="A139" s="15"/>
       <c r="B139" s="15"/>
       <c r="C139" s="15"/>
@@ -7473,10 +7620,11 @@
       <c r="AB139" s="15"/>
       <c r="AC139" s="15"/>
       <c r="AD139" s="15"/>
-      <c r="AE139" s="15"/>
+      <c r="AE139" s="56"/>
       <c r="AF139" s="15"/>
-    </row>
-    <row r="140" spans="1:32">
+      <c r="AG139" s="15"/>
+    </row>
+    <row r="140" spans="1:33">
       <c r="A140" s="15"/>
       <c r="B140" s="15"/>
       <c r="C140" s="15"/>
@@ -7507,10 +7655,11 @@
       <c r="AB140" s="15"/>
       <c r="AC140" s="15"/>
       <c r="AD140" s="15"/>
-      <c r="AE140" s="15"/>
+      <c r="AE140" s="56"/>
       <c r="AF140" s="15"/>
-    </row>
-    <row r="141" spans="1:32">
+      <c r="AG140" s="15"/>
+    </row>
+    <row r="141" spans="1:33">
       <c r="A141" s="15"/>
       <c r="B141" s="15"/>
       <c r="C141" s="15"/>
@@ -7541,10 +7690,11 @@
       <c r="AB141" s="15"/>
       <c r="AC141" s="15"/>
       <c r="AD141" s="15"/>
-      <c r="AE141" s="15"/>
+      <c r="AE141" s="56"/>
       <c r="AF141" s="15"/>
-    </row>
-    <row r="142" spans="1:32">
+      <c r="AG141" s="15"/>
+    </row>
+    <row r="142" spans="1:33">
       <c r="A142" s="15"/>
       <c r="B142" s="15"/>
       <c r="C142" s="15"/>
@@ -7575,10 +7725,11 @@
       <c r="AB142" s="15"/>
       <c r="AC142" s="15"/>
       <c r="AD142" s="15"/>
-      <c r="AE142" s="15"/>
+      <c r="AE142" s="56"/>
       <c r="AF142" s="15"/>
-    </row>
-    <row r="143" spans="1:32">
+      <c r="AG142" s="15"/>
+    </row>
+    <row r="143" spans="1:33">
       <c r="A143" s="15"/>
       <c r="B143" s="15"/>
       <c r="C143" s="15"/>
@@ -7609,10 +7760,11 @@
       <c r="AB143" s="15"/>
       <c r="AC143" s="15"/>
       <c r="AD143" s="15"/>
-      <c r="AE143" s="15"/>
+      <c r="AE143" s="56"/>
       <c r="AF143" s="15"/>
-    </row>
-    <row r="144" spans="1:32">
+      <c r="AG143" s="15"/>
+    </row>
+    <row r="144" spans="1:33">
       <c r="A144" s="15"/>
       <c r="B144" s="15"/>
       <c r="C144" s="15"/>
@@ -7643,10 +7795,11 @@
       <c r="AB144" s="15"/>
       <c r="AC144" s="15"/>
       <c r="AD144" s="15"/>
-      <c r="AE144" s="15"/>
+      <c r="AE144" s="56"/>
       <c r="AF144" s="15"/>
-    </row>
-    <row r="145" spans="1:32">
+      <c r="AG144" s="15"/>
+    </row>
+    <row r="145" spans="1:33">
       <c r="A145" s="15"/>
       <c r="B145" s="15"/>
       <c r="C145" s="15"/>
@@ -7677,10 +7830,11 @@
       <c r="AB145" s="15"/>
       <c r="AC145" s="15"/>
       <c r="AD145" s="15"/>
-      <c r="AE145" s="15"/>
+      <c r="AE145" s="56"/>
       <c r="AF145" s="15"/>
-    </row>
-    <row r="146" spans="1:32">
+      <c r="AG145" s="15"/>
+    </row>
+    <row r="146" spans="1:33">
       <c r="A146" s="15"/>
       <c r="B146" s="15"/>
       <c r="C146" s="15"/>
@@ -7711,10 +7865,11 @@
       <c r="AB146" s="15"/>
       <c r="AC146" s="15"/>
       <c r="AD146" s="15"/>
-      <c r="AE146" s="15"/>
+      <c r="AE146" s="56"/>
       <c r="AF146" s="15"/>
-    </row>
-    <row r="147" spans="1:32">
+      <c r="AG146" s="15"/>
+    </row>
+    <row r="147" spans="1:33">
       <c r="A147" s="15"/>
       <c r="B147" s="15"/>
       <c r="C147" s="15"/>
@@ -7745,10 +7900,11 @@
       <c r="AB147" s="15"/>
       <c r="AC147" s="15"/>
       <c r="AD147" s="15"/>
-      <c r="AE147" s="15"/>
+      <c r="AE147" s="56"/>
       <c r="AF147" s="15"/>
-    </row>
-    <row r="148" spans="1:32">
+      <c r="AG147" s="15"/>
+    </row>
+    <row r="148" spans="1:33">
       <c r="A148" s="15"/>
       <c r="B148" s="15"/>
       <c r="C148" s="15"/>
@@ -7779,10 +7935,11 @@
       <c r="AB148" s="15"/>
       <c r="AC148" s="15"/>
       <c r="AD148" s="15"/>
-      <c r="AE148" s="15"/>
+      <c r="AE148" s="56"/>
       <c r="AF148" s="15"/>
-    </row>
-    <row r="149" spans="1:32">
+      <c r="AG148" s="15"/>
+    </row>
+    <row r="149" spans="1:33">
       <c r="A149" s="15"/>
       <c r="B149" s="15"/>
       <c r="C149" s="15"/>
@@ -7813,10 +7970,11 @@
       <c r="AB149" s="15"/>
       <c r="AC149" s="15"/>
       <c r="AD149" s="15"/>
-      <c r="AE149" s="15"/>
+      <c r="AE149" s="56"/>
       <c r="AF149" s="15"/>
-    </row>
-    <row r="150" spans="1:32">
+      <c r="AG149" s="15"/>
+    </row>
+    <row r="150" spans="1:33">
       <c r="A150" s="15"/>
       <c r="B150" s="15"/>
       <c r="C150" s="15"/>
@@ -7847,10 +8005,11 @@
       <c r="AB150" s="15"/>
       <c r="AC150" s="15"/>
       <c r="AD150" s="15"/>
-      <c r="AE150" s="15"/>
+      <c r="AE150" s="56"/>
       <c r="AF150" s="15"/>
-    </row>
-    <row r="151" spans="1:32">
+      <c r="AG150" s="15"/>
+    </row>
+    <row r="151" spans="1:33">
       <c r="A151" s="15"/>
       <c r="B151" s="15"/>
       <c r="C151" s="15"/>
@@ -7881,10 +8040,11 @@
       <c r="AB151" s="15"/>
       <c r="AC151" s="15"/>
       <c r="AD151" s="15"/>
-      <c r="AE151" s="15"/>
+      <c r="AE151" s="56"/>
       <c r="AF151" s="15"/>
-    </row>
-    <row r="152" spans="1:32">
+      <c r="AG151" s="15"/>
+    </row>
+    <row r="152" spans="1:33">
       <c r="A152" s="15"/>
       <c r="B152" s="15"/>
       <c r="C152" s="15"/>
@@ -7915,10 +8075,11 @@
       <c r="AB152" s="15"/>
       <c r="AC152" s="15"/>
       <c r="AD152" s="15"/>
-      <c r="AE152" s="15"/>
+      <c r="AE152" s="56"/>
       <c r="AF152" s="15"/>
-    </row>
-    <row r="153" spans="1:32">
+      <c r="AG152" s="15"/>
+    </row>
+    <row r="153" spans="1:33">
       <c r="A153" s="15"/>
       <c r="B153" s="15"/>
       <c r="C153" s="15"/>
@@ -7949,10 +8110,11 @@
       <c r="AB153" s="15"/>
       <c r="AC153" s="15"/>
       <c r="AD153" s="15"/>
-      <c r="AE153" s="15"/>
+      <c r="AE153" s="56"/>
       <c r="AF153" s="15"/>
-    </row>
-    <row r="154" spans="1:32">
+      <c r="AG153" s="15"/>
+    </row>
+    <row r="154" spans="1:33">
       <c r="A154" s="15"/>
       <c r="B154" s="15"/>
       <c r="C154" s="15"/>
@@ -7983,10 +8145,11 @@
       <c r="AB154" s="15"/>
       <c r="AC154" s="15"/>
       <c r="AD154" s="15"/>
-      <c r="AE154" s="15"/>
+      <c r="AE154" s="56"/>
       <c r="AF154" s="15"/>
-    </row>
-    <row r="155" spans="1:32">
+      <c r="AG154" s="15"/>
+    </row>
+    <row r="155" spans="1:33">
       <c r="A155" s="15"/>
       <c r="B155" s="15"/>
       <c r="C155" s="15"/>
@@ -8017,10 +8180,11 @@
       <c r="AB155" s="15"/>
       <c r="AC155" s="15"/>
       <c r="AD155" s="15"/>
-      <c r="AE155" s="15"/>
+      <c r="AE155" s="56"/>
       <c r="AF155" s="15"/>
-    </row>
-    <row r="156" spans="1:32">
+      <c r="AG155" s="15"/>
+    </row>
+    <row r="156" spans="1:33">
       <c r="A156" s="15"/>
       <c r="B156" s="15"/>
       <c r="C156" s="15"/>
@@ -8051,10 +8215,11 @@
       <c r="AB156" s="15"/>
       <c r="AC156" s="15"/>
       <c r="AD156" s="15"/>
-      <c r="AE156" s="15"/>
+      <c r="AE156" s="56"/>
       <c r="AF156" s="15"/>
-    </row>
-    <row r="157" spans="1:32">
+      <c r="AG156" s="15"/>
+    </row>
+    <row r="157" spans="1:33">
       <c r="A157" s="15"/>
       <c r="B157" s="15"/>
       <c r="C157" s="15"/>
@@ -8085,10 +8250,11 @@
       <c r="AB157" s="15"/>
       <c r="AC157" s="15"/>
       <c r="AD157" s="15"/>
-      <c r="AE157" s="15"/>
+      <c r="AE157" s="56"/>
       <c r="AF157" s="15"/>
-    </row>
-    <row r="158" spans="1:32">
+      <c r="AG157" s="15"/>
+    </row>
+    <row r="158" spans="1:33">
       <c r="A158" s="15"/>
       <c r="B158" s="15"/>
       <c r="C158" s="15"/>
@@ -8119,10 +8285,11 @@
       <c r="AB158" s="15"/>
       <c r="AC158" s="15"/>
       <c r="AD158" s="15"/>
-      <c r="AE158" s="15"/>
+      <c r="AE158" s="56"/>
       <c r="AF158" s="15"/>
-    </row>
-    <row r="159" spans="1:32">
+      <c r="AG158" s="15"/>
+    </row>
+    <row r="159" spans="1:33">
       <c r="A159" s="15"/>
       <c r="B159" s="15"/>
       <c r="C159" s="15"/>
@@ -8153,10 +8320,11 @@
       <c r="AB159" s="15"/>
       <c r="AC159" s="15"/>
       <c r="AD159" s="15"/>
-      <c r="AE159" s="15"/>
+      <c r="AE159" s="56"/>
       <c r="AF159" s="15"/>
-    </row>
-    <row r="160" spans="1:32">
+      <c r="AG159" s="15"/>
+    </row>
+    <row r="160" spans="1:33">
       <c r="A160" s="15"/>
       <c r="B160" s="15"/>
       <c r="C160" s="15"/>
@@ -8187,10 +8355,11 @@
       <c r="AB160" s="15"/>
       <c r="AC160" s="15"/>
       <c r="AD160" s="15"/>
-      <c r="AE160" s="15"/>
+      <c r="AE160" s="56"/>
       <c r="AF160" s="15"/>
-    </row>
-    <row r="161" spans="1:32">
+      <c r="AG160" s="15"/>
+    </row>
+    <row r="161" spans="1:33">
       <c r="A161" s="15"/>
       <c r="B161" s="15"/>
       <c r="C161" s="15"/>
@@ -8221,10 +8390,11 @@
       <c r="AB161" s="15"/>
       <c r="AC161" s="15"/>
       <c r="AD161" s="15"/>
-      <c r="AE161" s="15"/>
+      <c r="AE161" s="56"/>
       <c r="AF161" s="15"/>
-    </row>
-    <row r="162" spans="1:32">
+      <c r="AG161" s="15"/>
+    </row>
+    <row r="162" spans="1:33">
       <c r="A162" s="15"/>
       <c r="B162" s="15"/>
       <c r="C162" s="15"/>
@@ -8255,10 +8425,11 @@
       <c r="AB162" s="15"/>
       <c r="AC162" s="15"/>
       <c r="AD162" s="15"/>
-      <c r="AE162" s="15"/>
+      <c r="AE162" s="56"/>
       <c r="AF162" s="15"/>
-    </row>
-    <row r="163" spans="1:32">
+      <c r="AG162" s="15"/>
+    </row>
+    <row r="163" spans="1:33">
       <c r="A163" s="15"/>
       <c r="B163" s="15"/>
       <c r="C163" s="15"/>
@@ -8289,10 +8460,11 @@
       <c r="AB163" s="15"/>
       <c r="AC163" s="15"/>
       <c r="AD163" s="15"/>
-      <c r="AE163" s="15"/>
+      <c r="AE163" s="56"/>
       <c r="AF163" s="15"/>
-    </row>
-    <row r="164" spans="1:32">
+      <c r="AG163" s="15"/>
+    </row>
+    <row r="164" spans="1:33">
       <c r="A164" s="15"/>
       <c r="B164" s="15"/>
       <c r="C164" s="15"/>
@@ -8323,10 +8495,11 @@
       <c r="AB164" s="15"/>
       <c r="AC164" s="15"/>
       <c r="AD164" s="15"/>
-      <c r="AE164" s="15"/>
+      <c r="AE164" s="56"/>
       <c r="AF164" s="15"/>
-    </row>
-    <row r="165" spans="1:32">
+      <c r="AG164" s="15"/>
+    </row>
+    <row r="165" spans="1:33">
       <c r="A165" s="15"/>
       <c r="B165" s="15"/>
       <c r="C165" s="15"/>
@@ -8357,10 +8530,11 @@
       <c r="AB165" s="15"/>
       <c r="AC165" s="15"/>
       <c r="AD165" s="15"/>
-      <c r="AE165" s="15"/>
+      <c r="AE165" s="56"/>
       <c r="AF165" s="15"/>
-    </row>
-    <row r="166" spans="1:32">
+      <c r="AG165" s="15"/>
+    </row>
+    <row r="166" spans="1:33">
       <c r="A166" s="15"/>
       <c r="B166" s="15"/>
       <c r="C166" s="15"/>
@@ -8391,10 +8565,11 @@
       <c r="AB166" s="15"/>
       <c r="AC166" s="15"/>
       <c r="AD166" s="15"/>
-      <c r="AE166" s="15"/>
+      <c r="AE166" s="56"/>
       <c r="AF166" s="15"/>
-    </row>
-    <row r="167" spans="1:32">
+      <c r="AG166" s="15"/>
+    </row>
+    <row r="167" spans="1:33">
       <c r="A167" s="15"/>
       <c r="B167" s="15"/>
       <c r="C167" s="15"/>
@@ -8425,10 +8600,11 @@
       <c r="AB167" s="15"/>
       <c r="AC167" s="15"/>
       <c r="AD167" s="15"/>
-      <c r="AE167" s="15"/>
+      <c r="AE167" s="56"/>
       <c r="AF167" s="15"/>
-    </row>
-    <row r="168" spans="1:32">
+      <c r="AG167" s="15"/>
+    </row>
+    <row r="168" spans="1:33">
       <c r="A168" s="15"/>
       <c r="B168" s="15"/>
       <c r="C168" s="15"/>
@@ -8459,10 +8635,11 @@
       <c r="AB168" s="15"/>
       <c r="AC168" s="15"/>
       <c r="AD168" s="15"/>
-      <c r="AE168" s="15"/>
+      <c r="AE168" s="56"/>
       <c r="AF168" s="15"/>
-    </row>
-    <row r="169" spans="1:32">
+      <c r="AG168" s="15"/>
+    </row>
+    <row r="169" spans="1:33">
       <c r="A169" s="15"/>
       <c r="B169" s="15"/>
       <c r="C169" s="15"/>
@@ -8493,10 +8670,11 @@
       <c r="AB169" s="15"/>
       <c r="AC169" s="15"/>
       <c r="AD169" s="15"/>
-      <c r="AE169" s="15"/>
+      <c r="AE169" s="56"/>
       <c r="AF169" s="15"/>
-    </row>
-    <row r="170" spans="1:32">
+      <c r="AG169" s="15"/>
+    </row>
+    <row r="170" spans="1:33">
       <c r="A170" s="15"/>
       <c r="B170" s="15"/>
       <c r="C170" s="15"/>
@@ -8527,10 +8705,11 @@
       <c r="AB170" s="15"/>
       <c r="AC170" s="15"/>
       <c r="AD170" s="15"/>
-      <c r="AE170" s="15"/>
+      <c r="AE170" s="56"/>
       <c r="AF170" s="15"/>
-    </row>
-    <row r="171" spans="1:32">
+      <c r="AG170" s="15"/>
+    </row>
+    <row r="171" spans="1:33">
       <c r="A171" s="15"/>
       <c r="B171" s="15"/>
       <c r="C171" s="15"/>
@@ -8561,10 +8740,11 @@
       <c r="AB171" s="15"/>
       <c r="AC171" s="15"/>
       <c r="AD171" s="15"/>
-      <c r="AE171" s="15"/>
+      <c r="AE171" s="56"/>
       <c r="AF171" s="15"/>
-    </row>
-    <row r="172" spans="1:32">
+      <c r="AG171" s="15"/>
+    </row>
+    <row r="172" spans="1:33">
       <c r="A172" s="15"/>
       <c r="B172" s="15"/>
       <c r="C172" s="15"/>
@@ -8595,10 +8775,11 @@
       <c r="AB172" s="15"/>
       <c r="AC172" s="15"/>
       <c r="AD172" s="15"/>
-      <c r="AE172" s="15"/>
+      <c r="AE172" s="56"/>
       <c r="AF172" s="15"/>
-    </row>
-    <row r="173" spans="1:32">
+      <c r="AG172" s="15"/>
+    </row>
+    <row r="173" spans="1:33">
       <c r="A173" s="15"/>
       <c r="B173" s="15"/>
       <c r="C173" s="15"/>
@@ -8629,10 +8810,11 @@
       <c r="AB173" s="15"/>
       <c r="AC173" s="15"/>
       <c r="AD173" s="15"/>
-      <c r="AE173" s="15"/>
+      <c r="AE173" s="56"/>
       <c r="AF173" s="15"/>
-    </row>
-    <row r="174" spans="1:32">
+      <c r="AG173" s="15"/>
+    </row>
+    <row r="174" spans="1:33">
       <c r="A174" s="15"/>
       <c r="B174" s="15"/>
       <c r="C174" s="15"/>
@@ -8663,10 +8845,11 @@
       <c r="AB174" s="15"/>
       <c r="AC174" s="15"/>
       <c r="AD174" s="15"/>
-      <c r="AE174" s="15"/>
+      <c r="AE174" s="56"/>
       <c r="AF174" s="15"/>
-    </row>
-    <row r="175" spans="1:32">
+      <c r="AG174" s="15"/>
+    </row>
+    <row r="175" spans="1:33">
       <c r="A175" s="15"/>
       <c r="B175" s="15"/>
       <c r="C175" s="15"/>
@@ -8697,10 +8880,11 @@
       <c r="AB175" s="15"/>
       <c r="AC175" s="15"/>
       <c r="AD175" s="15"/>
-      <c r="AE175" s="15"/>
+      <c r="AE175" s="56"/>
       <c r="AF175" s="15"/>
-    </row>
-    <row r="176" spans="1:32">
+      <c r="AG175" s="15"/>
+    </row>
+    <row r="176" spans="1:33">
       <c r="A176" s="15"/>
       <c r="B176" s="15"/>
       <c r="C176" s="15"/>
@@ -8731,10 +8915,11 @@
       <c r="AB176" s="15"/>
       <c r="AC176" s="15"/>
       <c r="AD176" s="15"/>
-      <c r="AE176" s="15"/>
+      <c r="AE176" s="56"/>
       <c r="AF176" s="15"/>
-    </row>
-    <row r="177" spans="1:32">
+      <c r="AG176" s="15"/>
+    </row>
+    <row r="177" spans="1:33">
       <c r="A177" s="15"/>
       <c r="B177" s="15"/>
       <c r="C177" s="15"/>
@@ -8765,10 +8950,11 @@
       <c r="AB177" s="15"/>
       <c r="AC177" s="15"/>
       <c r="AD177" s="15"/>
-      <c r="AE177" s="15"/>
+      <c r="AE177" s="56"/>
       <c r="AF177" s="15"/>
-    </row>
-    <row r="178" spans="1:32">
+      <c r="AG177" s="15"/>
+    </row>
+    <row r="178" spans="1:33">
       <c r="A178" s="15"/>
       <c r="B178" s="15"/>
       <c r="C178" s="15"/>
@@ -8799,10 +8985,11 @@
       <c r="AB178" s="15"/>
       <c r="AC178" s="15"/>
       <c r="AD178" s="15"/>
-      <c r="AE178" s="15"/>
+      <c r="AE178" s="56"/>
       <c r="AF178" s="15"/>
-    </row>
-    <row r="179" spans="1:32">
+      <c r="AG178" s="15"/>
+    </row>
+    <row r="179" spans="1:33">
       <c r="A179" s="15"/>
       <c r="B179" s="15"/>
       <c r="C179" s="15"/>
@@ -8833,10 +9020,11 @@
       <c r="AB179" s="15"/>
       <c r="AC179" s="15"/>
       <c r="AD179" s="15"/>
-      <c r="AE179" s="15"/>
+      <c r="AE179" s="56"/>
       <c r="AF179" s="15"/>
-    </row>
-    <row r="180" spans="1:32">
+      <c r="AG179" s="15"/>
+    </row>
+    <row r="180" spans="1:33">
       <c r="A180" s="15"/>
       <c r="B180" s="15"/>
       <c r="C180" s="15"/>
@@ -8867,10 +9055,11 @@
       <c r="AB180" s="15"/>
       <c r="AC180" s="15"/>
       <c r="AD180" s="15"/>
-      <c r="AE180" s="15"/>
+      <c r="AE180" s="56"/>
       <c r="AF180" s="15"/>
-    </row>
-    <row r="181" spans="1:32">
+      <c r="AG180" s="15"/>
+    </row>
+    <row r="181" spans="1:33">
       <c r="A181" s="15"/>
       <c r="B181" s="15"/>
       <c r="C181" s="15"/>
@@ -8901,10 +9090,11 @@
       <c r="AB181" s="15"/>
       <c r="AC181" s="15"/>
       <c r="AD181" s="15"/>
-      <c r="AE181" s="15"/>
+      <c r="AE181" s="56"/>
       <c r="AF181" s="15"/>
-    </row>
-    <row r="182" spans="1:32">
+      <c r="AG181" s="15"/>
+    </row>
+    <row r="182" spans="1:33">
       <c r="A182" s="15"/>
       <c r="B182" s="15"/>
       <c r="C182" s="15"/>
@@ -8935,10 +9125,11 @@
       <c r="AB182" s="15"/>
       <c r="AC182" s="15"/>
       <c r="AD182" s="15"/>
-      <c r="AE182" s="15"/>
+      <c r="AE182" s="56"/>
       <c r="AF182" s="15"/>
-    </row>
-    <row r="183" spans="1:32">
+      <c r="AG182" s="15"/>
+    </row>
+    <row r="183" spans="1:33">
       <c r="A183" s="15"/>
       <c r="B183" s="15"/>
       <c r="C183" s="15"/>
@@ -8969,10 +9160,11 @@
       <c r="AB183" s="15"/>
       <c r="AC183" s="15"/>
       <c r="AD183" s="15"/>
-      <c r="AE183" s="15"/>
+      <c r="AE183" s="56"/>
       <c r="AF183" s="15"/>
-    </row>
-    <row r="184" spans="1:32">
+      <c r="AG183" s="15"/>
+    </row>
+    <row r="184" spans="1:33">
       <c r="A184" s="15"/>
       <c r="B184" s="15"/>
       <c r="C184" s="15"/>
@@ -9003,10 +9195,11 @@
       <c r="AB184" s="15"/>
       <c r="AC184" s="15"/>
       <c r="AD184" s="15"/>
-      <c r="AE184" s="15"/>
+      <c r="AE184" s="56"/>
       <c r="AF184" s="15"/>
-    </row>
-    <row r="185" spans="1:32">
+      <c r="AG184" s="15"/>
+    </row>
+    <row r="185" spans="1:33">
       <c r="A185" s="15"/>
       <c r="B185" s="15"/>
       <c r="C185" s="15"/>
@@ -9037,10 +9230,11 @@
       <c r="AB185" s="15"/>
       <c r="AC185" s="15"/>
       <c r="AD185" s="15"/>
-      <c r="AE185" s="15"/>
+      <c r="AE185" s="56"/>
       <c r="AF185" s="15"/>
-    </row>
-    <row r="186" spans="1:32">
+      <c r="AG185" s="15"/>
+    </row>
+    <row r="186" spans="1:33">
       <c r="A186" s="15"/>
       <c r="B186" s="15"/>
       <c r="C186" s="15"/>
@@ -9071,10 +9265,11 @@
       <c r="AB186" s="15"/>
       <c r="AC186" s="15"/>
       <c r="AD186" s="15"/>
-      <c r="AE186" s="15"/>
+      <c r="AE186" s="56"/>
       <c r="AF186" s="15"/>
-    </row>
-    <row r="187" spans="1:32">
+      <c r="AG186" s="15"/>
+    </row>
+    <row r="187" spans="1:33">
       <c r="A187" s="15"/>
       <c r="B187" s="15"/>
       <c r="C187" s="15"/>
@@ -9105,10 +9300,11 @@
       <c r="AB187" s="15"/>
       <c r="AC187" s="15"/>
       <c r="AD187" s="15"/>
-      <c r="AE187" s="15"/>
+      <c r="AE187" s="56"/>
       <c r="AF187" s="15"/>
-    </row>
-    <row r="188" spans="1:32">
+      <c r="AG187" s="15"/>
+    </row>
+    <row r="188" spans="1:33">
       <c r="A188" s="15"/>
       <c r="B188" s="15"/>
       <c r="C188" s="15"/>
@@ -9139,10 +9335,11 @@
       <c r="AB188" s="15"/>
       <c r="AC188" s="15"/>
       <c r="AD188" s="15"/>
-      <c r="AE188" s="15"/>
+      <c r="AE188" s="56"/>
       <c r="AF188" s="15"/>
-    </row>
-    <row r="189" spans="1:32">
+      <c r="AG188" s="15"/>
+    </row>
+    <row r="189" spans="1:33">
       <c r="A189" s="15"/>
       <c r="B189" s="15"/>
       <c r="C189" s="15"/>
@@ -9173,10 +9370,11 @@
       <c r="AB189" s="15"/>
       <c r="AC189" s="15"/>
       <c r="AD189" s="15"/>
-      <c r="AE189" s="15"/>
+      <c r="AE189" s="56"/>
       <c r="AF189" s="15"/>
-    </row>
-    <row r="190" spans="1:32">
+      <c r="AG189" s="15"/>
+    </row>
+    <row r="190" spans="1:33">
       <c r="A190" s="15"/>
       <c r="B190" s="15"/>
       <c r="C190" s="15"/>
@@ -9207,10 +9405,11 @@
       <c r="AB190" s="15"/>
       <c r="AC190" s="15"/>
       <c r="AD190" s="15"/>
-      <c r="AE190" s="15"/>
+      <c r="AE190" s="56"/>
       <c r="AF190" s="15"/>
-    </row>
-    <row r="191" spans="1:32">
+      <c r="AG190" s="15"/>
+    </row>
+    <row r="191" spans="1:33">
       <c r="A191" s="15"/>
       <c r="B191" s="15"/>
       <c r="C191" s="15"/>
@@ -9241,10 +9440,11 @@
       <c r="AB191" s="15"/>
       <c r="AC191" s="15"/>
       <c r="AD191" s="15"/>
-      <c r="AE191" s="15"/>
+      <c r="AE191" s="56"/>
       <c r="AF191" s="15"/>
-    </row>
-    <row r="192" spans="1:32">
+      <c r="AG191" s="15"/>
+    </row>
+    <row r="192" spans="1:33">
       <c r="A192" s="15"/>
       <c r="B192" s="15"/>
       <c r="C192" s="15"/>
@@ -9275,10 +9475,11 @@
       <c r="AB192" s="15"/>
       <c r="AC192" s="15"/>
       <c r="AD192" s="15"/>
-      <c r="AE192" s="15"/>
+      <c r="AE192" s="56"/>
       <c r="AF192" s="15"/>
-    </row>
-    <row r="193" spans="1:32">
+      <c r="AG192" s="15"/>
+    </row>
+    <row r="193" spans="1:33">
       <c r="A193" s="15"/>
       <c r="B193" s="15"/>
       <c r="C193" s="15"/>
@@ -9309,10 +9510,11 @@
       <c r="AB193" s="15"/>
       <c r="AC193" s="15"/>
       <c r="AD193" s="15"/>
-      <c r="AE193" s="15"/>
+      <c r="AE193" s="56"/>
       <c r="AF193" s="15"/>
-    </row>
-    <row r="194" spans="1:32">
+      <c r="AG193" s="15"/>
+    </row>
+    <row r="194" spans="1:33">
       <c r="A194" s="15"/>
       <c r="B194" s="15"/>
       <c r="C194" s="15"/>
@@ -9343,10 +9545,11 @@
       <c r="AB194" s="15"/>
       <c r="AC194" s="15"/>
       <c r="AD194" s="15"/>
-      <c r="AE194" s="15"/>
+      <c r="AE194" s="56"/>
       <c r="AF194" s="15"/>
-    </row>
-    <row r="195" spans="1:32">
+      <c r="AG194" s="15"/>
+    </row>
+    <row r="195" spans="1:33">
       <c r="A195" s="15"/>
       <c r="B195" s="15"/>
       <c r="C195" s="15"/>
@@ -9377,10 +9580,11 @@
       <c r="AB195" s="15"/>
       <c r="AC195" s="15"/>
       <c r="AD195" s="15"/>
-      <c r="AE195" s="15"/>
+      <c r="AE195" s="56"/>
       <c r="AF195" s="15"/>
-    </row>
-    <row r="196" spans="1:32">
+      <c r="AG195" s="15"/>
+    </row>
+    <row r="196" spans="1:33">
       <c r="A196" s="15"/>
       <c r="B196" s="15"/>
       <c r="C196" s="15"/>
@@ -9411,10 +9615,11 @@
       <c r="AB196" s="15"/>
       <c r="AC196" s="15"/>
       <c r="AD196" s="15"/>
-      <c r="AE196" s="15"/>
+      <c r="AE196" s="56"/>
       <c r="AF196" s="15"/>
-    </row>
-    <row r="197" spans="1:32">
+      <c r="AG196" s="15"/>
+    </row>
+    <row r="197" spans="1:33">
       <c r="A197" s="15"/>
       <c r="B197" s="15"/>
       <c r="C197" s="15"/>
@@ -9445,10 +9650,11 @@
       <c r="AB197" s="15"/>
       <c r="AC197" s="15"/>
       <c r="AD197" s="15"/>
-      <c r="AE197" s="15"/>
+      <c r="AE197" s="56"/>
       <c r="AF197" s="15"/>
-    </row>
-    <row r="198" spans="1:32">
+      <c r="AG197" s="15"/>
+    </row>
+    <row r="198" spans="1:33">
       <c r="A198" s="15"/>
       <c r="B198" s="15"/>
       <c r="C198" s="15"/>
@@ -9479,10 +9685,11 @@
       <c r="AB198" s="15"/>
       <c r="AC198" s="15"/>
       <c r="AD198" s="15"/>
-      <c r="AE198" s="15"/>
+      <c r="AE198" s="56"/>
       <c r="AF198" s="15"/>
-    </row>
-    <row r="199" spans="1:32">
+      <c r="AG198" s="15"/>
+    </row>
+    <row r="199" spans="1:33">
       <c r="A199" s="15"/>
       <c r="B199" s="15"/>
       <c r="C199" s="15"/>
@@ -9513,10 +9720,11 @@
       <c r="AB199" s="15"/>
       <c r="AC199" s="15"/>
       <c r="AD199" s="15"/>
-      <c r="AE199" s="15"/>
+      <c r="AE199" s="56"/>
       <c r="AF199" s="15"/>
-    </row>
-    <row r="200" spans="1:32">
+      <c r="AG199" s="15"/>
+    </row>
+    <row r="200" spans="1:33">
       <c r="A200" s="15"/>
       <c r="B200" s="15"/>
       <c r="C200" s="15"/>
@@ -9547,12 +9755,13 @@
       <c r="AB200" s="15"/>
       <c r="AC200" s="15"/>
       <c r="AD200" s="15"/>
-      <c r="AE200" s="15"/>
+      <c r="AE200" s="56"/>
       <c r="AF200" s="15"/>
+      <c r="AG200" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B15:X15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9562,18 +9771,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AK246"/>
+  <dimension ref="B1:AL246"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O103" sqref="O103"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A111" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T113" sqref="T113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="34" width="5" customWidth="1"/>
     <col min="35" max="35" width="9.296875" customWidth="1"/>
-    <col min="36" max="36" width="13.5" customWidth="1"/>
-    <col min="38" max="46" width="5" customWidth="1"/>
+    <col min="36" max="36" width="8.19921875" customWidth="1"/>
+    <col min="37" max="37" width="10.59765625" customWidth="1"/>
+    <col min="38" max="38" width="9.09765625" customWidth="1"/>
+    <col min="39" max="46" width="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:37" ht="29.4" customHeight="1" thickBot="1"/>
@@ -9670,16 +9881,16 @@
         <v>29</v>
       </c>
       <c r="AG2" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AI2" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AJ2" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK2" s="20" t="s">
         <v>252</v>
-      </c>
-      <c r="AK2" s="20" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="3" spans="2:37" ht="30.6" customHeight="1" thickTop="1">
@@ -10285,16 +10496,16 @@
         <v>29</v>
       </c>
       <c r="AG18" s="53" t="s">
-        <v>260</v>
-      </c>
-      <c r="AI18" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="AJ18" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI18" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ18" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK18" s="57" t="s">
         <v>252</v>
-      </c>
-      <c r="AK18" s="58" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="19" spans="2:37" ht="29.4" customHeight="1" thickTop="1">
@@ -10370,13 +10581,13 @@
       <c r="AE19" s="36"/>
       <c r="AF19" s="45"/>
       <c r="AG19" s="48"/>
-      <c r="AI19" s="59">
+      <c r="AI19" s="58">
         <v>20</v>
       </c>
-      <c r="AJ19" s="59">
+      <c r="AJ19" s="58">
         <v>1</v>
       </c>
-      <c r="AK19" s="59">
+      <c r="AK19" s="58">
         <f>AI19+AJ19</f>
         <v>21</v>
       </c>
@@ -10466,13 +10677,13 @@
       <c r="AE20" s="52"/>
       <c r="AF20" s="45"/>
       <c r="AG20" s="49"/>
-      <c r="AI20" s="59">
+      <c r="AI20" s="58">
         <v>28</v>
       </c>
-      <c r="AJ20" s="59">
+      <c r="AJ20" s="58">
         <v>1</v>
       </c>
-      <c r="AK20" s="59">
+      <c r="AK20" s="58">
         <f t="shared" ref="AK20:AK29" si="1">AI20+AJ20</f>
         <v>29</v>
       </c>
@@ -10520,13 +10731,13 @@
       <c r="AE21" s="36"/>
       <c r="AF21" s="45"/>
       <c r="AG21" s="49"/>
-      <c r="AI21" s="59">
+      <c r="AI21" s="58">
         <v>6</v>
       </c>
-      <c r="AJ21" s="59">
+      <c r="AJ21" s="58">
         <v>1</v>
       </c>
-      <c r="AK21" s="59">
+      <c r="AK21" s="58">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -10574,13 +10785,13 @@
       <c r="AE22" s="36"/>
       <c r="AF22" s="45"/>
       <c r="AG22" s="49"/>
-      <c r="AI22" s="59">
+      <c r="AI22" s="58">
         <v>8</v>
       </c>
-      <c r="AJ22" s="59">
+      <c r="AJ22" s="58">
         <v>1</v>
       </c>
-      <c r="AK22" s="59">
+      <c r="AK22" s="58">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -10666,13 +10877,13 @@
         <v>54</v>
       </c>
       <c r="AG23" s="54"/>
-      <c r="AI23" s="59">
+      <c r="AI23" s="58">
         <v>30</v>
       </c>
-      <c r="AJ23" s="59">
+      <c r="AJ23" s="58">
         <v>1</v>
       </c>
-      <c r="AK23" s="59">
+      <c r="AK23" s="58">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
@@ -10722,13 +10933,13 @@
       <c r="AE24" s="36"/>
       <c r="AF24" s="45"/>
       <c r="AG24" s="49"/>
-      <c r="AI24" s="59">
+      <c r="AI24" s="58">
         <v>9</v>
       </c>
-      <c r="AJ24" s="59">
+      <c r="AJ24" s="58">
         <v>1</v>
       </c>
-      <c r="AK24" s="59">
+      <c r="AK24" s="58">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -10776,13 +10987,13 @@
       <c r="AE25" s="36"/>
       <c r="AF25" s="45"/>
       <c r="AG25" s="49"/>
-      <c r="AI25" s="59">
+      <c r="AI25" s="58">
         <v>8</v>
       </c>
-      <c r="AJ25" s="59">
+      <c r="AJ25" s="58">
         <v>1</v>
       </c>
-      <c r="AK25" s="59">
+      <c r="AK25" s="58">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -10868,13 +11079,13 @@
         <v>54</v>
       </c>
       <c r="AG26" s="54"/>
-      <c r="AI26" s="59">
+      <c r="AI26" s="58">
         <v>30</v>
       </c>
-      <c r="AJ26" s="59">
+      <c r="AJ26" s="58">
         <v>1</v>
       </c>
-      <c r="AK26" s="59">
+      <c r="AK26" s="58">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
@@ -10924,13 +11135,13 @@
       <c r="AE27" s="36"/>
       <c r="AF27" s="45"/>
       <c r="AG27" s="49"/>
-      <c r="AI27" s="59">
+      <c r="AI27" s="58">
         <v>9</v>
       </c>
-      <c r="AJ27" s="59">
+      <c r="AJ27" s="58">
         <v>1</v>
       </c>
-      <c r="AK27" s="59">
+      <c r="AK27" s="58">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -10980,13 +11191,13 @@
       <c r="AE28" s="36"/>
       <c r="AF28" s="45"/>
       <c r="AG28" s="49"/>
-      <c r="AI28" s="59">
+      <c r="AI28" s="58">
         <v>7</v>
       </c>
-      <c r="AJ28" s="59">
+      <c r="AJ28" s="58">
         <v>1</v>
       </c>
-      <c r="AK28" s="59">
+      <c r="AK28" s="58">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -11038,27 +11249,27 @@
       <c r="AE29" s="42"/>
       <c r="AF29" s="47"/>
       <c r="AG29" s="50"/>
-      <c r="AI29" s="59">
+      <c r="AI29" s="58">
         <v>6</v>
       </c>
-      <c r="AJ29" s="59">
+      <c r="AJ29" s="58">
         <v>0</v>
       </c>
-      <c r="AK29" s="59">
+      <c r="AK29" s="58">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="2:37" ht="29.4" customHeight="1" thickTop="1">
-      <c r="AI30" s="60">
+      <c r="AI30" s="59">
         <f>SUM(AI19:AI29)</f>
         <v>161</v>
       </c>
-      <c r="AJ30" s="60">
+      <c r="AJ30" s="59">
         <f>SUM(AJ19:AJ29)</f>
         <v>10</v>
       </c>
-      <c r="AK30" s="61">
+      <c r="AK30" s="60">
         <f>SUM(AK19:AK29)</f>
         <v>171</v>
       </c>
@@ -11160,7 +11371,7 @@
         <v>29</v>
       </c>
       <c r="AG33" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="2:33" ht="29.4" customHeight="1" thickTop="1">
@@ -11168,67 +11379,67 @@
         <v>0</v>
       </c>
       <c r="C34" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K34" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="M34" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="N34" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="O34" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="P34" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q34" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="R34" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="S34" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="T34" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="U34" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="V34" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="W34" s="33" t="s">
         <v>181</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="J34" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="K34" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="L34" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="M34" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="N34" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="O34" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="P34" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q34" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="R34" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="S34" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="T34" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="U34" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="V34" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="W34" s="33" t="s">
-        <v>182</v>
       </c>
       <c r="X34" s="6"/>
       <c r="Y34" s="6"/>
@@ -11246,91 +11457,91 @@
         <v>1</v>
       </c>
       <c r="C35" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="L35" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="E35" s="17" t="s">
+      <c r="M35" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="O35" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="P35" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q35" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="R35" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="S35" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="T35" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="U35" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="V35" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="W35" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="X35" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y35" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z35" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA35" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB35" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC35" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD35" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE35" s="33" t="s">
         <v>186</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="J35" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="K35" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="L35" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="M35" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="N35" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="O35" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="P35" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q35" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="R35" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="S35" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="T35" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="U35" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="V35" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="W35" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="X35" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y35" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z35" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA35" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB35" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC35" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD35" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE35" s="33" t="s">
-        <v>187</v>
       </c>
       <c r="AF35" s="25"/>
       <c r="AG35" s="29"/>
@@ -11340,25 +11551,25 @@
         <v>2</v>
       </c>
       <c r="C36" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="E36" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="I36" s="33" t="s">
         <v>189</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="I36" s="33" t="s">
-        <v>190</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
@@ -11390,31 +11601,31 @@
         <v>3</v>
       </c>
       <c r="C37" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="D37" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F37" s="22" t="s">
+      <c r="H37" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="G37" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="H37" s="17" t="s">
+      <c r="I37" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="I37" s="17" t="s">
+      <c r="J37" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="J37" s="17" t="s">
-        <v>131</v>
-      </c>
       <c r="K37" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
@@ -11444,97 +11655,97 @@
         <v>4</v>
       </c>
       <c r="C38" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="I38" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="D38" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="H38" s="22" t="s">
+      <c r="J38" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="I38" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="J38" s="17" t="s">
+      <c r="K38" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="K38" s="17" t="s">
+      <c r="L38" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="L38" s="17" t="s">
+      <c r="M38" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="M38" s="17" t="s">
+      <c r="N38" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="N38" s="17" t="s">
+      <c r="O38" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="O38" s="17" t="s">
+      <c r="P38" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="P38" s="17" t="s">
+      <c r="Q38" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="Q38" s="17" t="s">
+      <c r="R38" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="R38" s="17" t="s">
+      <c r="S38" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="S38" s="17" t="s">
+      <c r="T38" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="T38" s="17" t="s">
+      <c r="U38" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="U38" s="17" t="s">
+      <c r="V38" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="V38" s="17" t="s">
+      <c r="W38" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="W38" s="17" t="s">
+      <c r="X38" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="X38" s="17" t="s">
+      <c r="Y38" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="Y38" s="17" t="s">
+      <c r="Z38" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="Z38" s="17" t="s">
+      <c r="AA38" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="AA38" s="17" t="s">
+      <c r="AB38" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="AB38" s="17" t="s">
+      <c r="AC38" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="AC38" s="17" t="s">
+      <c r="AD38" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="AD38" s="17" t="s">
+      <c r="AE38" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="AE38" s="17" t="s">
+      <c r="AF38" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="AF38" s="26" t="s">
-        <v>159</v>
-      </c>
       <c r="AG38" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="2:33" ht="29.4" customHeight="1">
@@ -11542,34 +11753,34 @@
         <v>5</v>
       </c>
       <c r="C39" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="G39" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="D39" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="F39" s="22" t="s">
+      <c r="H39" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="G39" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="H39" s="17" t="s">
+      <c r="I39" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="I39" s="17" t="s">
+      <c r="J39" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="J39" s="17" t="s">
+      <c r="K39" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="K39" s="17" t="s">
-        <v>166</v>
-      </c>
       <c r="L39" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
@@ -11598,31 +11809,31 @@
         <v>6</v>
       </c>
       <c r="C40" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G40" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="D40" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="F40" s="22" t="s">
+      <c r="H40" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="I40" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K40" s="33" t="s">
         <v>202</v>
-      </c>
-      <c r="H40" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="I40" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="J40" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="K40" s="33" t="s">
-        <v>203</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
@@ -11652,97 +11863,97 @@
         <v>7</v>
       </c>
       <c r="C41" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="I41" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="D41" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="G41" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="H41" s="22" t="s">
+      <c r="J41" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="I41" s="17" t="s">
+      <c r="K41" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="L41" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="M41" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="J41" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="K41" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="L41" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="M41" s="17" t="s">
+      <c r="N41" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="N41" s="17" t="s">
+      <c r="O41" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="O41" s="17" t="s">
+      <c r="P41" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="P41" s="17" t="s">
+      <c r="Q41" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="Q41" s="17" t="s">
+      <c r="R41" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="R41" s="17" t="s">
+      <c r="S41" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="S41" s="17" t="s">
+      <c r="T41" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="T41" s="17" t="s">
+      <c r="U41" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="U41" s="17" t="s">
+      <c r="V41" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="V41" s="17" t="s">
+      <c r="W41" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="W41" s="17" t="s">
+      <c r="X41" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="X41" s="17" t="s">
+      <c r="Y41" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="Y41" s="17" t="s">
+      <c r="Z41" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="Z41" s="17" t="s">
+      <c r="AA41" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="AA41" s="17" t="s">
+      <c r="AB41" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="AB41" s="17" t="s">
+      <c r="AC41" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="AC41" s="17" t="s">
+      <c r="AD41" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="AD41" s="17" t="s">
+      <c r="AE41" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="AE41" s="17" t="s">
+      <c r="AF41" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="AF41" s="17" t="s">
+      <c r="AG41" s="33" t="s">
         <v>225</v>
-      </c>
-      <c r="AG41" s="33" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="42" spans="2:33" ht="29.4" customHeight="1">
@@ -11750,34 +11961,34 @@
         <v>8</v>
       </c>
       <c r="C42" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D42" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="E42" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="F42" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="G42" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="H42" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="H42" s="17" t="s">
+      <c r="I42" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="I42" s="17" t="s">
+      <c r="J42" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="J42" s="17" t="s">
+      <c r="K42" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="K42" s="17" t="s">
-        <v>235</v>
-      </c>
       <c r="L42" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
@@ -11806,28 +12017,28 @@
         <v>9</v>
       </c>
       <c r="C43" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D43" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="E43" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="F43" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="G43" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="H43" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="H43" s="17" t="s">
+      <c r="I43" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="I43" s="17" t="s">
-        <v>243</v>
-      </c>
       <c r="J43" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
@@ -11858,25 +12069,25 @@
         <v>10</v>
       </c>
       <c r="C44" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="D44" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="E44" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="F44" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="G44" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="H44" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="H44" s="18" t="s">
-        <v>250</v>
-      </c>
       <c r="I44" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
@@ -11997,7 +12208,7 @@
         <v>29</v>
       </c>
       <c r="AG46" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="2:33" ht="29.4" customHeight="1" thickTop="1">
@@ -12025,7 +12236,7 @@
       <c r="U47" s="17"/>
       <c r="V47" s="17"/>
       <c r="W47" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X47" s="6"/>
       <c r="Y47" s="6"/>
@@ -12043,10 +12254,10 @@
         <v>1</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
@@ -12075,7 +12286,7 @@
       <c r="AC48" s="17"/>
       <c r="AD48" s="17"/>
       <c r="AE48" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF48" s="25"/>
       <c r="AG48" s="29"/>
@@ -12085,17 +12296,17 @@
         <v>2</v>
       </c>
       <c r="C49" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D49" s="22" t="s">
         <v>188</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>189</v>
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
       <c r="I49" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -12127,23 +12338,23 @@
         <v>3</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D50" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="F50" s="22" t="s">
         <v>127</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>128</v>
       </c>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
       <c r="J50" s="17"/>
       <c r="K50" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
@@ -12173,22 +12384,22 @@
         <v>4</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D51" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E51" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E51" s="22" t="s">
+      <c r="F51" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="G51" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="G51" s="22" t="s">
+      <c r="H51" s="22" t="s">
         <v>135</v>
-      </c>
-      <c r="H51" s="22" t="s">
-        <v>136</v>
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="17"/>
@@ -12215,7 +12426,7 @@
       <c r="AE51" s="17"/>
       <c r="AF51" s="26"/>
       <c r="AG51" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="2:33" ht="29.4" customHeight="1">
@@ -12223,16 +12434,16 @@
         <v>5</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D52" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="F52" s="22" t="s">
         <v>161</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>162</v>
       </c>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
@@ -12240,7 +12451,7 @@
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
       <c r="L52" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
@@ -12269,23 +12480,23 @@
         <v>6</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D53" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E53" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="E53" s="22" t="s">
+      <c r="F53" s="22" t="s">
         <v>168</v>
-      </c>
-      <c r="F53" s="22" t="s">
-        <v>169</v>
       </c>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
       <c r="J53" s="17"/>
       <c r="K53" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
@@ -12315,22 +12526,22 @@
         <v>7</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D54" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E54" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="F54" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="F54" s="22" t="s">
+      <c r="G54" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="G54" s="22" t="s">
+      <c r="H54" s="22" t="s">
         <v>176</v>
-      </c>
-      <c r="H54" s="22" t="s">
-        <v>177</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="17"/>
@@ -12357,7 +12568,7 @@
       <c r="AE54" s="17"/>
       <c r="AF54" s="17"/>
       <c r="AG54" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="2:33" ht="29.4" customHeight="1">
@@ -12365,16 +12576,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D55" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="E55" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="F55" s="22" t="s">
         <v>229</v>
-      </c>
-      <c r="F55" s="22" t="s">
-        <v>230</v>
       </c>
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
@@ -12382,7 +12593,7 @@
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
       <c r="L55" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
@@ -12411,10 +12622,10 @@
         <v>9</v>
       </c>
       <c r="C56" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D56" s="22" t="s">
         <v>237</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>238</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
@@ -12422,7 +12633,7 @@
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
       <c r="J56" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
@@ -12459,7 +12670,7 @@
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
       <c r="I57" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
@@ -12580,7 +12791,7 @@
         <v>29</v>
       </c>
       <c r="AG59" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="2:33" ht="29.4" customHeight="1" thickTop="1">
@@ -12608,7 +12819,7 @@
       <c r="U60" s="17"/>
       <c r="V60" s="17"/>
       <c r="W60" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X60" s="6"/>
       <c r="Y60" s="6"/>
@@ -12654,7 +12865,7 @@
       <c r="AC61" s="17"/>
       <c r="AD61" s="17"/>
       <c r="AE61" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF61" s="25"/>
       <c r="AG61" s="29"/>
@@ -12670,7 +12881,7 @@
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
       <c r="I62" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
@@ -12710,7 +12921,7 @@
       <c r="I63" s="17"/>
       <c r="J63" s="17"/>
       <c r="K63" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
@@ -12770,7 +12981,7 @@
       <c r="AE64" s="17"/>
       <c r="AF64" s="26"/>
       <c r="AG64" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="2:33" ht="29.4" customHeight="1">
@@ -12787,7 +12998,7 @@
       <c r="J65" s="17"/>
       <c r="K65" s="17"/>
       <c r="L65" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
@@ -12824,7 +13035,7 @@
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
       <c r="K66" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
@@ -12884,7 +13095,7 @@
       <c r="AE67" s="17"/>
       <c r="AF67" s="17"/>
       <c r="AG67" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="2:33" ht="29.4" customHeight="1">
@@ -12901,7 +13112,7 @@
       <c r="J68" s="17"/>
       <c r="K68" s="17"/>
       <c r="L68" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
@@ -12937,7 +13148,7 @@
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
       <c r="J69" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
@@ -12974,7 +13185,7 @@
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
       <c r="I70" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
@@ -13095,7 +13306,7 @@
         <v>29</v>
       </c>
       <c r="AG72" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="2:33" ht="31.2" customHeight="1" thickTop="1">
@@ -13588,7 +13799,7 @@
         <v>29</v>
       </c>
       <c r="AG85" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="2:33" ht="31.2" customHeight="1">
@@ -13596,67 +13807,67 @@
         <v>0</v>
       </c>
       <c r="C86" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="D86" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E86" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F86" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="G86" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="H86" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="I86" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="J86" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="K86" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="L86" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="M86" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="N86" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="O86" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="P86" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q86" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="R86" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="S86" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="T86" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="U86" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="V86" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="W86" s="44" t="s">
         <v>181</v>
-      </c>
-      <c r="D86" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="E86" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="F86" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="G86" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="H86" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="I86" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="J86" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="K86" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="L86" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="M86" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="N86" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="O86" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="P86" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q86" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="R86" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="S86" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="T86" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="U86" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="V86" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="W86" s="44" t="s">
-        <v>182</v>
       </c>
       <c r="X86" s="44"/>
       <c r="Y86" s="44"/>
@@ -13674,91 +13885,91 @@
         <v>1</v>
       </c>
       <c r="C87" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D87" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="E87" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="E87" s="44" t="s">
-        <v>186</v>
-      </c>
       <c r="F87" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="G87" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="G87" s="44" t="s">
+      <c r="H87" s="44" t="s">
         <v>98</v>
-      </c>
-      <c r="H87" s="44" t="s">
-        <v>99</v>
       </c>
       <c r="I87" s="44">
         <v>27</v>
       </c>
       <c r="J87" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="K87" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="K87" s="44" t="s">
-        <v>102</v>
-      </c>
       <c r="L87" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="M87" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="M87" s="44" t="s">
-        <v>105</v>
-      </c>
       <c r="N87" s="44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O87" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="P87" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="P87" s="44" t="s">
+      <c r="Q87" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="Q87" s="44" t="s">
+      <c r="R87" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="R87" s="44" t="s">
+      <c r="S87" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="S87" s="44" t="s">
+      <c r="T87" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="T87" s="44" t="s">
+      <c r="U87" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="U87" s="44" t="s">
+      <c r="V87" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="V87" s="44" t="s">
+      <c r="W87" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="W87" s="44" t="s">
+      <c r="X87" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="X87" s="44" t="s">
+      <c r="Y87" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="Y87" s="44" t="s">
+      <c r="Z87" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="Z87" s="44" t="s">
+      <c r="AA87" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="AA87" s="44" t="s">
+      <c r="AB87" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="AB87" s="44" t="s">
+      <c r="AC87" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="AC87" s="44" t="s">
+      <c r="AD87" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="AD87" s="44" t="s">
-        <v>122</v>
-      </c>
       <c r="AE87" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF87" s="44"/>
       <c r="AG87" s="44"/>
@@ -13768,25 +13979,25 @@
         <v>2</v>
       </c>
       <c r="C88" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="D88" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="D88" s="44" t="s">
+      <c r="E88" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="F88" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="G88" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="H88" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="I88" s="44" t="s">
         <v>189</v>
-      </c>
-      <c r="E88" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="F88" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="G88" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="H88" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="I88" s="44" t="s">
-        <v>190</v>
       </c>
       <c r="J88" s="44"/>
       <c r="K88" s="44"/>
@@ -13818,31 +14029,31 @@
         <v>3</v>
       </c>
       <c r="C89" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="D89" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="E89" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="F89" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="G89" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="D89" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="E89" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="F89" s="44" t="s">
+      <c r="H89" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="G89" s="44" t="s">
+      <c r="I89" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="J89" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="K89" s="44" t="s">
         <v>192</v>
-      </c>
-      <c r="H89" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="I89" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="J89" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="K89" s="44" t="s">
-        <v>193</v>
       </c>
       <c r="L89" s="44"/>
       <c r="M89" s="44"/>
@@ -13872,97 +14083,97 @@
         <v>4</v>
       </c>
       <c r="C90" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="D90" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="E90" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="F90" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="G90" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="H90" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="I90" s="44" t="s">
         <v>194</v>
-      </c>
-      <c r="D90" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="E90" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="F90" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="G90" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="H90" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="I90" s="44" t="s">
-        <v>195</v>
       </c>
       <c r="J90" s="44">
         <v>73</v>
       </c>
       <c r="K90" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="L90" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="L90" s="44" t="s">
+      <c r="M90" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="M90" s="44" t="s">
+      <c r="N90" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="N90" s="44" t="s">
+      <c r="O90" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="O90" s="44" t="s">
+      <c r="P90" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="P90" s="44" t="s">
+      <c r="Q90" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="Q90" s="44" t="s">
+      <c r="R90" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="R90" s="44" t="s">
+      <c r="S90" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="S90" s="44" t="s">
+      <c r="T90" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="T90" s="44" t="s">
+      <c r="U90" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="U90" s="44" t="s">
+      <c r="V90" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="V90" s="44" t="s">
+      <c r="W90" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="W90" s="44" t="s">
+      <c r="X90" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="X90" s="44" t="s">
+      <c r="Y90" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="Y90" s="44" t="s">
+      <c r="Z90" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="Z90" s="44" t="s">
+      <c r="AA90" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="AA90" s="44" t="s">
+      <c r="AB90" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="AB90" s="44" t="s">
+      <c r="AC90" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="AC90" s="44" t="s">
+      <c r="AD90" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="AD90" s="44" t="s">
+      <c r="AE90" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="AE90" s="44" t="s">
+      <c r="AF90" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="AF90" s="44" t="s">
-        <v>159</v>
-      </c>
       <c r="AG90" s="44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" spans="2:33" ht="31.2" customHeight="1">
@@ -13970,34 +14181,34 @@
         <v>5</v>
       </c>
       <c r="C91" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="D91" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="E91" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="F91" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="G91" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="D91" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="E91" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="F91" s="44" t="s">
+      <c r="H91" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="G91" s="44" t="s">
+      <c r="I91" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="J91" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="K91" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="L91" s="44" t="s">
         <v>199</v>
-      </c>
-      <c r="H91" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="I91" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="J91" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="K91" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="L91" s="44" t="s">
-        <v>200</v>
       </c>
       <c r="M91" s="44"/>
       <c r="N91" s="44"/>
@@ -14026,31 +14237,31 @@
         <v>6</v>
       </c>
       <c r="C92" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="D92" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="E92" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="F92" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="G92" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="D92" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="E92" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="F92" s="44" t="s">
+      <c r="H92" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="G92" s="44" t="s">
+      <c r="I92" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="J92" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="K92" s="44" t="s">
         <v>202</v>
-      </c>
-      <c r="H92" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="I92" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="J92" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="K92" s="44" t="s">
-        <v>203</v>
       </c>
       <c r="L92" s="44"/>
       <c r="M92" s="44"/>
@@ -14080,97 +14291,97 @@
         <v>7</v>
       </c>
       <c r="C93" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="D93" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="E93" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="F93" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="G93" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="H93" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="I93" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="D93" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="E93" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="F93" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="G93" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="H93" s="44" t="s">
+      <c r="J93" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="I93" s="44" t="s">
+      <c r="K93" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="L93" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="M93" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="J93" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="K93" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="L93" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="M93" s="44" t="s">
+      <c r="N93" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="N93" s="44" t="s">
+      <c r="O93" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="O93" s="44" t="s">
+      <c r="P93" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="P93" s="44" t="s">
+      <c r="Q93" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="Q93" s="44" t="s">
+      <c r="R93" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="R93" s="44" t="s">
+      <c r="S93" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="S93" s="44" t="s">
+      <c r="T93" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="T93" s="44" t="s">
+      <c r="U93" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="U93" s="44" t="s">
+      <c r="V93" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="V93" s="44" t="s">
+      <c r="W93" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="W93" s="44" t="s">
+      <c r="X93" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="X93" s="44" t="s">
+      <c r="Y93" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="Y93" s="44" t="s">
+      <c r="Z93" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="Z93" s="44" t="s">
+      <c r="AA93" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="AA93" s="44" t="s">
+      <c r="AB93" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="AB93" s="44" t="s">
+      <c r="AC93" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="AC93" s="44" t="s">
+      <c r="AD93" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="AD93" s="44" t="s">
+      <c r="AE93" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="AE93" s="44" t="s">
+      <c r="AF93" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AF93" s="44" t="s">
+      <c r="AG93" s="44" t="s">
         <v>225</v>
-      </c>
-      <c r="AG93" s="44" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="94" spans="2:33" ht="31.2" customHeight="1">
@@ -14178,34 +14389,34 @@
         <v>8</v>
       </c>
       <c r="C94" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="D94" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="D94" s="44" t="s">
+      <c r="E94" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="E94" s="44" t="s">
+      <c r="F94" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="F94" s="44" t="s">
+      <c r="G94" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="G94" s="44" t="s">
+      <c r="H94" s="44" t="s">
         <v>231</v>
       </c>
-      <c r="H94" s="44" t="s">
+      <c r="I94" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="I94" s="44" t="s">
+      <c r="J94" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="J94" s="44" t="s">
+      <c r="K94" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="K94" s="44" t="s">
+      <c r="L94" s="44" t="s">
         <v>235</v>
-      </c>
-      <c r="L94" s="44" t="s">
-        <v>236</v>
       </c>
       <c r="M94" s="44"/>
       <c r="N94" s="44"/>
@@ -14234,28 +14445,28 @@
         <v>9</v>
       </c>
       <c r="C95" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="D95" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="D95" s="44" t="s">
+      <c r="E95" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="E95" s="44" t="s">
+      <c r="F95" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="F95" s="44" t="s">
+      <c r="G95" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="G95" s="44" t="s">
+      <c r="H95" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="H95" s="44" t="s">
+      <c r="I95" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="I95" s="44" t="s">
+      <c r="J95" s="44" t="s">
         <v>243</v>
-      </c>
-      <c r="J95" s="44" t="s">
-        <v>244</v>
       </c>
       <c r="K95" s="44"/>
       <c r="L95" s="44"/>
@@ -14286,25 +14497,25 @@
         <v>10</v>
       </c>
       <c r="C96" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="D96" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="D96" s="44" t="s">
+      <c r="E96" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="E96" s="44" t="s">
+      <c r="F96" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="F96" s="44" t="s">
+      <c r="G96" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="G96" s="44" t="s">
+      <c r="H96" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="H96" s="44" t="s">
+      <c r="I96" s="44" t="s">
         <v>250</v>
-      </c>
-      <c r="I96" s="44" t="s">
-        <v>251</v>
       </c>
       <c r="J96" s="44"/>
       <c r="K96" s="44"/>
@@ -14427,7 +14638,7 @@
         <v>29</v>
       </c>
       <c r="AG100" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101" spans="2:33" ht="31.2" customHeight="1">
@@ -14435,67 +14646,67 @@
         <v>0</v>
       </c>
       <c r="C101" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D101" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="D101" s="44" t="s">
+      <c r="E101" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="E101" s="44" t="s">
+      <c r="F101" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="F101" s="44" t="s">
+      <c r="G101" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="G101" s="44" t="s">
+      <c r="H101" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="H101" s="44" t="s">
+      <c r="I101" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I101" s="44" t="s">
+      <c r="J101" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="J101" s="44" t="s">
+      <c r="K101" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="K101" s="44" t="s">
+      <c r="L101" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="L101" s="44" t="s">
+      <c r="M101" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="M101" s="44" t="s">
+      <c r="N101" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="N101" s="44" t="s">
+      <c r="O101" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="O101" s="44" t="s">
+      <c r="P101" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="P101" s="44" t="s">
+      <c r="Q101" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="Q101" s="44" t="s">
+      <c r="R101" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="R101" s="44" t="s">
+      <c r="S101" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="S101" s="44" t="s">
+      <c r="T101" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="T101" s="44" t="s">
+      <c r="U101" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="U101" s="44" t="s">
-        <v>96</v>
-      </c>
       <c r="V101" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W101" s="44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="X101" s="44"/>
       <c r="Y101" s="44"/>
@@ -14513,91 +14724,91 @@
         <v>1</v>
       </c>
       <c r="C102" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="D102" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="D102" s="44" t="s">
-        <v>186</v>
-      </c>
       <c r="E102" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="F102" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="F102" s="44" t="s">
+      <c r="G102" s="44" t="s">
         <v>98</v>
-      </c>
-      <c r="G102" s="44" t="s">
-        <v>99</v>
       </c>
       <c r="H102" s="44">
         <v>27</v>
       </c>
       <c r="I102" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="J102" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="J102" s="44" t="s">
-        <v>102</v>
-      </c>
       <c r="K102" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="L102" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="L102" s="44" t="s">
-        <v>105</v>
-      </c>
       <c r="M102" s="44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N102" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="O102" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="O102" s="44" t="s">
+      <c r="P102" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="P102" s="44" t="s">
+      <c r="Q102" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="Q102" s="44" t="s">
+      <c r="R102" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="R102" s="44" t="s">
+      <c r="S102" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="S102" s="44" t="s">
+      <c r="T102" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="T102" s="44" t="s">
+      <c r="U102" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="U102" s="44" t="s">
+      <c r="V102" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="V102" s="44" t="s">
+      <c r="W102" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="W102" s="44" t="s">
+      <c r="X102" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="X102" s="44" t="s">
+      <c r="Y102" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="Y102" s="44" t="s">
+      <c r="Z102" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="Z102" s="44" t="s">
+      <c r="AA102" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="AA102" s="44" t="s">
+      <c r="AB102" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="AB102" s="44" t="s">
+      <c r="AC102" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="AC102" s="44" t="s">
-        <v>122</v>
-      </c>
       <c r="AD102" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AE102" s="44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG102" s="44"/>
     </row>
@@ -14606,25 +14817,25 @@
         <v>2</v>
       </c>
       <c r="C103" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="D103" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="E103" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="F103" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="G103" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="H103" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="D103" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="E103" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="F103" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="G103" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="H103" s="44" t="s">
-        <v>190</v>
-      </c>
       <c r="I103" s="44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K103" s="44"/>
       <c r="L103" s="44"/>
@@ -14655,31 +14866,31 @@
         <v>3</v>
       </c>
       <c r="C104" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D104" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="D104" s="44" t="s">
+      <c r="E104" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="E104" s="44" t="s">
+      <c r="F104" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="G104" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="F104" s="44" t="s">
+      <c r="H104" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="I104" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="J104" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="G104" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="H104" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="I104" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="J104" s="44" t="s">
-        <v>193</v>
-      </c>
       <c r="K104" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M104" s="44"/>
       <c r="N104" s="44"/>
@@ -14708,97 +14919,97 @@
         <v>4</v>
       </c>
       <c r="C105" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="D105" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="D105" s="44" t="s">
+      <c r="E105" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="E105" s="44" t="s">
+      <c r="F105" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="F105" s="44" t="s">
+      <c r="G105" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="G105" s="44" t="s">
-        <v>136</v>
-      </c>
       <c r="H105" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I105" s="44">
         <v>73</v>
       </c>
       <c r="J105" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="K105" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="K105" s="44" t="s">
+      <c r="L105" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="L105" s="44" t="s">
+      <c r="M105" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="M105" s="44" t="s">
+      <c r="N105" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="N105" s="44" t="s">
+      <c r="O105" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="O105" s="44" t="s">
+      <c r="P105" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="P105" s="44" t="s">
+      <c r="Q105" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="Q105" s="44" t="s">
+      <c r="R105" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="R105" s="44" t="s">
+      <c r="S105" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="S105" s="44" t="s">
+      <c r="T105" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="T105" s="44" t="s">
+      <c r="U105" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="U105" s="44" t="s">
+      <c r="V105" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="V105" s="44" t="s">
+      <c r="W105" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="W105" s="44" t="s">
+      <c r="X105" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="X105" s="44" t="s">
+      <c r="Y105" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="Y105" s="44" t="s">
+      <c r="Z105" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="Z105" s="44" t="s">
+      <c r="AA105" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="AA105" s="44" t="s">
+      <c r="AB105" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="AB105" s="44" t="s">
+      <c r="AC105" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="AC105" s="44" t="s">
+      <c r="AD105" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="AD105" s="44" t="s">
+      <c r="AE105" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="AE105" s="44" t="s">
-        <v>159</v>
-      </c>
       <c r="AF105" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG105" s="44" t="s">
         <v>197</v>
-      </c>
-      <c r="AG105" s="44" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="106" spans="2:33" ht="31.2" customHeight="1">
@@ -14806,37 +15017,37 @@
         <v>5</v>
       </c>
       <c r="C106" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="D106" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="D106" s="44" t="s">
+      <c r="E106" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="E106" s="44" t="s">
+      <c r="F106" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="G106" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="F106" s="44" t="s">
+      <c r="H106" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="I106" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="J106" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="K106" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="G106" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="H106" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="I106" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="J106" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="K106" s="44" t="s">
-        <v>200</v>
-      </c>
       <c r="L106" s="44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M106" s="44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N106" s="44"/>
       <c r="O106" s="44"/>
@@ -14864,31 +15075,31 @@
         <v>6</v>
       </c>
       <c r="C107" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="D107" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="D107" s="44" t="s">
+      <c r="E107" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="E107" s="44" t="s">
+      <c r="F107" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="G107" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="F107" s="44" t="s">
+      <c r="H107" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="I107" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="J107" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="G107" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="H107" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="I107" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="J107" s="44" t="s">
+      <c r="K107" s="44" t="s">
         <v>203</v>
-      </c>
-      <c r="K107" s="44" t="s">
-        <v>204</v>
       </c>
       <c r="M107" s="44"/>
       <c r="N107" s="44"/>
@@ -14917,97 +15128,97 @@
         <v>7</v>
       </c>
       <c r="C108" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D108" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="D108" s="44" t="s">
+      <c r="E108" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="E108" s="44" t="s">
+      <c r="F108" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="F108" s="44" t="s">
+      <c r="G108" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="G108" s="44" t="s">
+      <c r="H108" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="I108" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="H108" s="44" t="s">
+      <c r="J108" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="K108" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="L108" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="I108" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="J108" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="K108" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="L108" s="44" t="s">
+      <c r="M108" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="M108" s="44" t="s">
+      <c r="N108" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="N108" s="44" t="s">
+      <c r="O108" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="O108" s="44" t="s">
+      <c r="P108" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="P108" s="44" t="s">
+      <c r="Q108" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="Q108" s="44" t="s">
+      <c r="R108" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="R108" s="44" t="s">
+      <c r="S108" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="S108" s="44" t="s">
+      <c r="T108" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="T108" s="44" t="s">
+      <c r="U108" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="U108" s="44" t="s">
+      <c r="V108" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="V108" s="44" t="s">
+      <c r="W108" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="W108" s="44" t="s">
+      <c r="X108" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="X108" s="44" t="s">
+      <c r="Y108" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="Y108" s="44" t="s">
+      <c r="Z108" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="Z108" s="44" t="s">
+      <c r="AA108" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="AA108" s="44" t="s">
+      <c r="AB108" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="AB108" s="44" t="s">
+      <c r="AC108" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="AC108" s="44" t="s">
+      <c r="AD108" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="AD108" s="44" t="s">
+      <c r="AE108" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AE108" s="44" t="s">
+      <c r="AF108" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="AF108" s="44" t="s">
-        <v>226</v>
-      </c>
       <c r="AG108" s="44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" spans="2:33" ht="31.2" customHeight="1">
@@ -15015,34 +15226,34 @@
         <v>8</v>
       </c>
       <c r="C109" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="D109" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="D109" s="44" t="s">
+      <c r="E109" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="E109" s="44" t="s">
+      <c r="F109" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="F109" s="44" t="s">
+      <c r="G109" s="44" t="s">
         <v>231</v>
       </c>
-      <c r="G109" s="44" t="s">
+      <c r="H109" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="H109" s="44" t="s">
+      <c r="I109" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="I109" s="44" t="s">
+      <c r="J109" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="J109" s="44" t="s">
+      <c r="K109" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="K109" s="44" t="s">
-        <v>236</v>
-      </c>
       <c r="L109" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N109" s="44"/>
       <c r="O109" s="44"/>
@@ -15070,28 +15281,28 @@
         <v>9</v>
       </c>
       <c r="C110" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="D110" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="D110" s="44" t="s">
+      <c r="E110" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="E110" s="44" t="s">
+      <c r="F110" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="F110" s="44" t="s">
+      <c r="G110" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="G110" s="44" t="s">
+      <c r="H110" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="H110" s="44" t="s">
+      <c r="I110" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="I110" s="44" t="s">
-        <v>244</v>
-      </c>
       <c r="J110" s="44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L110" s="44"/>
       <c r="M110" s="44"/>
@@ -15121,22 +15332,22 @@
         <v>10</v>
       </c>
       <c r="C111" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="D111" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="D111" s="44" t="s">
+      <c r="E111" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="E111" s="44" t="s">
+      <c r="F111" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="F111" s="44" t="s">
+      <c r="G111" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="G111" s="44" t="s">
+      <c r="H111" s="44" t="s">
         <v>250</v>
-      </c>
-      <c r="H111" s="44" t="s">
-        <v>251</v>
       </c>
       <c r="J111" s="44"/>
       <c r="K111" s="44"/>
@@ -15164,22 +15375,882 @@
       <c r="AG111" s="44"/>
     </row>
     <row r="112" spans="2:33" ht="31.2" customHeight="1"/>
-    <row r="113" ht="31.2" customHeight="1"/>
-    <row r="114" ht="31.2" customHeight="1"/>
-    <row r="115" ht="31.2" customHeight="1"/>
-    <row r="116" ht="31.2" customHeight="1"/>
-    <row r="117" ht="31.2" customHeight="1"/>
-    <row r="118" ht="31.2" customHeight="1"/>
-    <row r="119" ht="31.2" customHeight="1"/>
-    <row r="120" ht="31.2" customHeight="1"/>
-    <row r="121" ht="31.2" customHeight="1"/>
-    <row r="122" ht="31.2" customHeight="1"/>
-    <row r="123" ht="31.2" customHeight="1"/>
-    <row r="124" ht="31.2" customHeight="1"/>
-    <row r="125" ht="31.2" customHeight="1"/>
-    <row r="126" ht="31.2" customHeight="1"/>
-    <row r="127" ht="31.2" customHeight="1"/>
-    <row r="128" ht="31.2" customHeight="1"/>
+    <row r="113" spans="3:38" ht="31.2" customHeight="1"/>
+    <row r="114" spans="3:38" ht="31.2" customHeight="1" thickBot="1"/>
+    <row r="115" spans="3:38" ht="31.2" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C115" s="2"/>
+      <c r="D115" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M115" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N115" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O115" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P115" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q115" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R115" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S115" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T115" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U115" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V115" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W115" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X115" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y115" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z115" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA115" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB115" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC115" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD115" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE115" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF115" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG115" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH115" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ115" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK115" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="AL115" s="57" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="116" spans="3:38" ht="31.2" customHeight="1" thickTop="1">
+      <c r="C116" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E116" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F116" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G116" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H116" s="35"/>
+      <c r="I116" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J116" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="K116" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="L116" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="M116" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="N116" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="O116" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="P116" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q116" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="R116" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="S116" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="T116" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="U116" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="V116" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="W116" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="X116" s="52"/>
+      <c r="Y116" s="36"/>
+      <c r="Z116" s="36"/>
+      <c r="AA116" s="36"/>
+      <c r="AB116" s="36"/>
+      <c r="AC116" s="36"/>
+      <c r="AD116" s="36"/>
+      <c r="AE116" s="36"/>
+      <c r="AF116" s="36"/>
+      <c r="AG116" s="45"/>
+      <c r="AH116" s="48"/>
+      <c r="AJ116" s="58">
+        <v>20</v>
+      </c>
+      <c r="AK116" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL116" s="58">
+        <f>AJ116+AK116</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="3:38" ht="31.2" customHeight="1">
+      <c r="C117" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" s="51"/>
+      <c r="E117" s="51"/>
+      <c r="F117" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G117" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H117" s="35"/>
+      <c r="I117" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="J117" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="K117" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="L117" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="M117" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="N117" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="O117" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="P117" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q117" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="R117" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="S117" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="T117" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="U117" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="V117" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="W117" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="X117" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y117" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z117" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA117" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB117" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC117" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD117" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE117" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF117" s="52"/>
+      <c r="AG117" s="45"/>
+      <c r="AH117" s="49"/>
+      <c r="AJ117" s="58">
+        <v>28</v>
+      </c>
+      <c r="AK117" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL117" s="58">
+        <f t="shared" ref="AL117:AL126" si="2">AJ117+AK117</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="3:38" ht="31.2" customHeight="1">
+      <c r="C118" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" s="51"/>
+      <c r="E118" s="51"/>
+      <c r="F118" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G118" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="H118" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I118" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="J118" s="52"/>
+      <c r="K118" s="36"/>
+      <c r="L118" s="36"/>
+      <c r="M118" s="36"/>
+      <c r="N118" s="36"/>
+      <c r="O118" s="36"/>
+      <c r="P118" s="36"/>
+      <c r="Q118" s="36"/>
+      <c r="R118" s="36"/>
+      <c r="S118" s="36"/>
+      <c r="T118" s="36"/>
+      <c r="U118" s="36"/>
+      <c r="V118" s="36"/>
+      <c r="W118" s="36"/>
+      <c r="X118" s="36"/>
+      <c r="Y118" s="36"/>
+      <c r="Z118" s="36"/>
+      <c r="AA118" s="38"/>
+      <c r="AB118" s="36"/>
+      <c r="AC118" s="36"/>
+      <c r="AD118" s="36"/>
+      <c r="AE118" s="36"/>
+      <c r="AF118" s="36"/>
+      <c r="AG118" s="45"/>
+      <c r="AH118" s="49"/>
+      <c r="AJ118" s="58">
+        <v>6</v>
+      </c>
+      <c r="AK118" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL118" s="58">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="3:38" ht="31.2" customHeight="1">
+      <c r="C119" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" s="51"/>
+      <c r="E119" s="51"/>
+      <c r="F119" s="51"/>
+      <c r="G119" s="51"/>
+      <c r="H119" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="I119" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="J119" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K119" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="L119" s="52"/>
+      <c r="M119" s="36"/>
+      <c r="N119" s="36"/>
+      <c r="O119" s="36"/>
+      <c r="P119" s="36"/>
+      <c r="Q119" s="36"/>
+      <c r="R119" s="36"/>
+      <c r="S119" s="36"/>
+      <c r="T119" s="36"/>
+      <c r="U119" s="36"/>
+      <c r="V119" s="36"/>
+      <c r="W119" s="36"/>
+      <c r="X119" s="36"/>
+      <c r="Y119" s="36"/>
+      <c r="Z119" s="36"/>
+      <c r="AA119" s="36"/>
+      <c r="AB119" s="36"/>
+      <c r="AC119" s="36"/>
+      <c r="AD119" s="36"/>
+      <c r="AE119" s="36"/>
+      <c r="AF119" s="36"/>
+      <c r="AG119" s="45"/>
+      <c r="AH119" s="49"/>
+      <c r="AJ119" s="58">
+        <v>8</v>
+      </c>
+      <c r="AK119" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL119" s="58">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="3:38" ht="31.2" customHeight="1">
+      <c r="C120" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120" s="51"/>
+      <c r="E120" s="51"/>
+      <c r="F120" s="51"/>
+      <c r="G120" s="51"/>
+      <c r="H120" s="51"/>
+      <c r="I120" s="51"/>
+      <c r="J120" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K120" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="L120" s="35"/>
+      <c r="M120" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N120" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="O120" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="P120" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q120" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="R120" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="S120" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="T120" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="U120" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="V120" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="W120" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="X120" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y120" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z120" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA120" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB120" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC120" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD120" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE120" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF120" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG120" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH120" s="54"/>
+      <c r="AJ120" s="58">
+        <v>30</v>
+      </c>
+      <c r="AK120" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL120" s="58">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="3:38" ht="31.2" customHeight="1">
+      <c r="C121" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" s="51"/>
+      <c r="E121" s="51"/>
+      <c r="F121" s="51"/>
+      <c r="G121" s="51"/>
+      <c r="H121" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="I121" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="J121" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="K121" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="L121" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="M121" s="52"/>
+      <c r="N121" s="36"/>
+      <c r="O121" s="36"/>
+      <c r="P121" s="36"/>
+      <c r="Q121" s="36"/>
+      <c r="R121" s="36"/>
+      <c r="S121" s="36"/>
+      <c r="T121" s="36"/>
+      <c r="U121" s="36"/>
+      <c r="V121" s="36"/>
+      <c r="W121" s="36"/>
+      <c r="X121" s="36"/>
+      <c r="Y121" s="36"/>
+      <c r="Z121" s="36"/>
+      <c r="AA121" s="36"/>
+      <c r="AB121" s="38"/>
+      <c r="AC121" s="38"/>
+      <c r="AD121" s="36"/>
+      <c r="AE121" s="36"/>
+      <c r="AF121" s="36"/>
+      <c r="AG121" s="45"/>
+      <c r="AH121" s="49"/>
+      <c r="AJ121" s="58">
+        <v>9</v>
+      </c>
+      <c r="AK121" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL121" s="58">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="3:38" ht="31.2" customHeight="1">
+      <c r="C122" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="51"/>
+      <c r="E122" s="51"/>
+      <c r="F122" s="51"/>
+      <c r="G122" s="51"/>
+      <c r="H122" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="I122" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="J122" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K122" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="L122" s="52"/>
+      <c r="M122" s="36"/>
+      <c r="N122" s="36"/>
+      <c r="O122" s="36"/>
+      <c r="P122" s="36"/>
+      <c r="Q122" s="36"/>
+      <c r="R122" s="36"/>
+      <c r="S122" s="36"/>
+      <c r="T122" s="36"/>
+      <c r="U122" s="36"/>
+      <c r="V122" s="36"/>
+      <c r="W122" s="36"/>
+      <c r="X122" s="36"/>
+      <c r="Y122" s="36"/>
+      <c r="Z122" s="36"/>
+      <c r="AA122" s="36"/>
+      <c r="AB122" s="36"/>
+      <c r="AC122" s="36"/>
+      <c r="AD122" s="36"/>
+      <c r="AE122" s="36"/>
+      <c r="AF122" s="36"/>
+      <c r="AG122" s="45"/>
+      <c r="AH122" s="49"/>
+      <c r="AJ122" s="58">
+        <v>8</v>
+      </c>
+      <c r="AK122" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL122" s="58">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="3:38" ht="31.2" customHeight="1">
+      <c r="C123" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" s="51"/>
+      <c r="E123" s="51"/>
+      <c r="F123" s="51"/>
+      <c r="G123" s="51"/>
+      <c r="H123" s="51"/>
+      <c r="I123" s="51"/>
+      <c r="J123" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K123" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="L123" s="35"/>
+      <c r="M123" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N123" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="O123" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="P123" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q123" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="R123" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="S123" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="T123" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="U123" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="V123" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="W123" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="X123" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y123" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z123" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA123" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB123" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC123" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD123" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE123" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF123" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG123" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH123" s="54"/>
+      <c r="AJ123" s="58">
+        <v>30</v>
+      </c>
+      <c r="AK123" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL123" s="58">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="3:38" ht="31.2" customHeight="1">
+      <c r="C124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="51"/>
+      <c r="E124" s="51"/>
+      <c r="F124" s="51"/>
+      <c r="G124" s="51"/>
+      <c r="H124" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="I124" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="J124" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="K124" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="L124" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="M124" s="52"/>
+      <c r="N124" s="36"/>
+      <c r="O124" s="36"/>
+      <c r="P124" s="36"/>
+      <c r="Q124" s="36"/>
+      <c r="R124" s="36"/>
+      <c r="S124" s="36"/>
+      <c r="T124" s="36"/>
+      <c r="U124" s="36"/>
+      <c r="V124" s="36"/>
+      <c r="W124" s="36"/>
+      <c r="X124" s="36"/>
+      <c r="Y124" s="36"/>
+      <c r="Z124" s="36"/>
+      <c r="AA124" s="36"/>
+      <c r="AB124" s="38"/>
+      <c r="AC124" s="38"/>
+      <c r="AD124" s="36"/>
+      <c r="AE124" s="36"/>
+      <c r="AF124" s="36"/>
+      <c r="AG124" s="45"/>
+      <c r="AH124" s="49"/>
+      <c r="AJ124" s="58">
+        <v>9</v>
+      </c>
+      <c r="AK124" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL124" s="58">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="3:38" ht="31.2" customHeight="1">
+      <c r="C125" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="51"/>
+      <c r="E125" s="51"/>
+      <c r="F125" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G125" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H125" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I125" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="J125" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="K125" s="52"/>
+      <c r="L125" s="36"/>
+      <c r="M125" s="36"/>
+      <c r="N125" s="36"/>
+      <c r="O125" s="36"/>
+      <c r="P125" s="36"/>
+      <c r="Q125" s="36"/>
+      <c r="R125" s="36"/>
+      <c r="S125" s="36"/>
+      <c r="T125" s="36"/>
+      <c r="U125" s="36"/>
+      <c r="V125" s="36"/>
+      <c r="W125" s="36"/>
+      <c r="X125" s="36"/>
+      <c r="Y125" s="36"/>
+      <c r="Z125" s="36"/>
+      <c r="AA125" s="36"/>
+      <c r="AB125" s="36"/>
+      <c r="AC125" s="36"/>
+      <c r="AD125" s="36"/>
+      <c r="AE125" s="36"/>
+      <c r="AF125" s="36"/>
+      <c r="AG125" s="45"/>
+      <c r="AH125" s="49"/>
+      <c r="AJ125" s="58">
+        <v>7</v>
+      </c>
+      <c r="AK125" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL125" s="58">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="3:38" ht="31.2" customHeight="1" thickBot="1">
+      <c r="C126" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E126" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F126" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G126" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H126" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I126" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="J126" s="55"/>
+      <c r="K126" s="42"/>
+      <c r="L126" s="42"/>
+      <c r="M126" s="42"/>
+      <c r="N126" s="42"/>
+      <c r="O126" s="42"/>
+      <c r="P126" s="42"/>
+      <c r="Q126" s="42"/>
+      <c r="R126" s="42"/>
+      <c r="S126" s="42"/>
+      <c r="T126" s="42"/>
+      <c r="U126" s="42"/>
+      <c r="V126" s="42"/>
+      <c r="W126" s="42"/>
+      <c r="X126" s="42"/>
+      <c r="Y126" s="42"/>
+      <c r="Z126" s="42"/>
+      <c r="AA126" s="42"/>
+      <c r="AB126" s="42"/>
+      <c r="AC126" s="42"/>
+      <c r="AD126" s="42"/>
+      <c r="AE126" s="42"/>
+      <c r="AF126" s="42"/>
+      <c r="AG126" s="47"/>
+      <c r="AH126" s="50"/>
+      <c r="AJ126" s="58">
+        <v>6</v>
+      </c>
+      <c r="AK126" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL126" s="58">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="3:38" ht="31.2" customHeight="1" thickTop="1">
+      <c r="AJ127" s="59">
+        <f>SUM(AJ116:AJ126)</f>
+        <v>161</v>
+      </c>
+      <c r="AK127" s="59">
+        <f>SUM(AK116:AK126)</f>
+        <v>10</v>
+      </c>
+      <c r="AL127" s="60">
+        <f>SUM(AL116:AL126)</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="128" spans="3:38" ht="31.2" customHeight="1">
+      <c r="AL128" s="21"/>
+    </row>
     <row r="129" ht="31.2" customHeight="1"/>
     <row r="130" ht="31.2" customHeight="1"/>
     <row r="131" ht="31.2" customHeight="1"/>
